--- a/1_Schematic/Build V1.0/RF Generator Review Data_20191112.xlsx
+++ b/1_Schematic/Build V1.0/RF Generator Review Data_20191112.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2420DFA-64D1-4C1A-B6BC-1758A02117B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23145" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="ADC" sheetId="4" r:id="rId1"/>
@@ -1613,7 +1612,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.0&quot;%&quot;"/>
@@ -3035,6 +3034,117 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3042,162 +3152,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3224,68 +3178,182 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3294,72 +3362,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3374,32 +3376,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3424,7 +3423,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
@@ -3438,6 +3437,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3678,7 +3678,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3004-4634-9C34-79DC09E6C663}"/>
             </c:ext>
@@ -3692,12 +3692,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="199122432"/>
-        <c:axId val="190035008"/>
+        <c:axId val="218247680"/>
+        <c:axId val="217366528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="199122432"/>
+        <c:axId val="218247680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3740,7 +3741,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190035008"/>
+        <c:crossAx val="217366528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3748,7 +3749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190035008"/>
+        <c:axId val="217366528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3799,7 +3800,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199122432"/>
+        <c:crossAx val="218247680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3813,14 +3814,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4431,7 +4432,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB107259-0367-470F-9CFD-CE7EC231CCE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB107259-0367-470F-9CFD-CE7EC231CCE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4475,7 +4476,7 @@
         <xdr:cNvPr id="3" name="차트 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CA2094-6349-4FC9-9C2E-379947A73744}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5CA2094-6349-4FC9-9C2E-379947A73744}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4516,7 +4517,7 @@
         <xdr:cNvPr id="3" name="직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AB039ED-9206-4062-8CE8-D6A6ACEDACC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5AB039ED-9206-4062-8CE8-D6A6ACEDACC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4583,7 +4584,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFEBB7B3-B7C1-4EAB-AA1A-0A30DFEB31F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CFEBB7B3-B7C1-4EAB-AA1A-0A30DFEB31F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4648,7 +4649,7 @@
         <xdr:cNvPr id="6" name="직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7049C463-F1B4-4B9B-A03C-9A7E975698A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7049C463-F1B4-4B9B-A03C-9A7E975698A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4725,7 +4726,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE056398-8981-4500-99D2-6F2A7CEA4350}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE056398-8981-4500-99D2-6F2A7CEA4350}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4790,7 +4791,7 @@
         <xdr:cNvPr id="8" name="직사각형 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A9CB46-1959-47C3-832C-7AAFD0272295}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45A9CB46-1959-47C3-832C-7AAFD0272295}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4867,7 +4868,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7950D314-EA34-4F28-B2CB-BED5FE2828DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7950D314-EA34-4F28-B2CB-BED5FE2828DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4932,7 +4933,7 @@
         <xdr:cNvPr id="11" name="직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA37F16-6C2D-4934-B2D5-CC672FE03581}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DEA37F16-6C2D-4934-B2D5-CC672FE03581}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5009,7 +5010,7 @@
         <xdr:cNvPr id="12" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33B78126-6D73-4FA6-8F23-79BE961DE326}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33B78126-6D73-4FA6-8F23-79BE961DE326}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5069,7 +5070,7 @@
         <xdr:cNvPr id="13" name="TextBox 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F500A6D6-8638-4B56-B4B3-208B58F8C281}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F500A6D6-8638-4B56-B4B3-208B58F8C281}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5129,7 +5130,7 @@
         <xdr:cNvPr id="14" name="TextBox 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5160A9E2-0E2A-4C6B-A5A2-F13286FDDBD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5160A9E2-0E2A-4C6B-A5A2-F13286FDDBD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5194,7 +5195,7 @@
         <xdr:cNvPr id="15" name="직사각형 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4729C4BE-619A-4B85-9D7B-3ADFBF9C3886}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4729C4BE-619A-4B85-9D7B-3ADFBF9C3886}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5282,7 +5283,7 @@
         <xdr:cNvPr id="17" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7874FDA6-8099-4CAF-9111-77982D6A7348}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7874FDA6-8099-4CAF-9111-77982D6A7348}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5478,7 +5479,7 @@
         <xdr:cNvPr id="18" name="TextBox 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{421F7876-9F23-4395-899C-88972D72577C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{421F7876-9F23-4395-899C-88972D72577C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5707,7 +5708,7 @@
         <xdr:cNvPr id="19" name="직사각형 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2FDBB60-27E7-4A81-80AC-6D5C28C2F430}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A2FDBB60-27E7-4A81-80AC-6D5C28C2F430}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5791,7 +5792,7 @@
         <xdr:cNvPr id="20" name="직사각형 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A98080-FFEF-4DFB-8ADB-2310264B7DDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10A98080-FFEF-4DFB-8ADB-2310264B7DDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5903,7 +5904,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5936,26 +5937,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5988,23 +5972,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6180,65 +6147,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T140"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P111" sqref="P111:P112"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="4.69921875" customWidth="1"/>
-    <col min="4" max="4" width="9.69921875" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" customWidth="1"/>
-    <col min="6" max="12" width="7.69921875" customWidth="1"/>
+    <col min="1" max="3" width="4.75" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="6" max="12" width="7.75" customWidth="1"/>
     <col min="13" max="13" width="8.5" customWidth="1"/>
-    <col min="14" max="14" width="5.69921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.69921875" customWidth="1"/>
-    <col min="17" max="17" width="16.59765625" customWidth="1"/>
-    <col min="18" max="20" width="7.69921875" customWidth="1"/>
+    <col min="14" max="14" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.75" customWidth="1"/>
+    <col min="17" max="17" width="16.625" customWidth="1"/>
+    <col min="18" max="20" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="40" t="s">
@@ -6251,7 +6218,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="65">
@@ -6266,28 +6233,28 @@
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
     </row>
-    <row r="11" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="216" t="s">
+      <c r="D12" s="238" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="217"/>
-      <c r="F12" s="216" t="s">
+      <c r="E12" s="259"/>
+      <c r="F12" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="218"/>
-      <c r="H12" s="218"/>
-      <c r="I12" s="219"/>
+      <c r="G12" s="239"/>
+      <c r="H12" s="239"/>
+      <c r="I12" s="240"/>
       <c r="J12" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D13" s="115" t="s">
         <v>26</v>
       </c>
@@ -6310,7 +6277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D14" s="117" t="s">
         <v>29</v>
       </c>
@@ -6350,21 +6317,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="59" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="220" t="s">
+      <c r="F15" s="289" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="221"/>
-      <c r="H15" s="220" t="s">
+      <c r="G15" s="290"/>
+      <c r="H15" s="289" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="222"/>
+      <c r="I15" s="291"/>
       <c r="J15" s="62" t="s">
         <v>13</v>
       </c>
@@ -6384,7 +6351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D16" s="6">
         <v>0</v>
       </c>
@@ -6392,16 +6359,16 @@
         <f t="shared" ref="E16:E33" si="0">$D16*E$14/(E$13+E$14)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="225">
+      <c r="F16" s="231">
         <f t="shared" ref="F16:F28" si="1">E16*G$14/(G$13+G$14)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="226"/>
-      <c r="H16" s="225">
+      <c r="G16" s="233"/>
+      <c r="H16" s="231">
         <f t="shared" ref="H16:H28" si="2">F16*I$14/(I$13+I$14)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="226"/>
+      <c r="I16" s="233"/>
       <c r="J16" s="17">
         <f>H16*4095/3.3</f>
         <v>0</v>
@@ -6422,7 +6389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D17" s="13">
         <v>4</v>
       </c>
@@ -6430,16 +6397,16 @@
         <f t="shared" si="0"/>
         <v>0.68851328044153159</v>
       </c>
-      <c r="F17" s="223">
+      <c r="F17" s="216">
         <f t="shared" si="1"/>
         <v>0.3442566402207658</v>
       </c>
-      <c r="G17" s="224"/>
-      <c r="H17" s="223">
+      <c r="G17" s="218"/>
+      <c r="H17" s="216">
         <f t="shared" si="2"/>
         <v>0.18118770537935042</v>
       </c>
-      <c r="I17" s="224"/>
+      <c r="I17" s="218"/>
       <c r="J17" s="19">
         <f t="shared" ref="J17:J30" si="3">H17*4095/3.3</f>
         <v>224.83747076619395</v>
@@ -6463,7 +6430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D18" s="13">
         <v>8</v>
       </c>
@@ -6471,16 +6438,16 @@
         <f t="shared" si="0"/>
         <v>1.3770265608830632</v>
       </c>
-      <c r="F18" s="223">
+      <c r="F18" s="216">
         <f t="shared" si="1"/>
         <v>0.68851328044153159</v>
       </c>
-      <c r="G18" s="224"/>
-      <c r="H18" s="223">
+      <c r="G18" s="218"/>
+      <c r="H18" s="216">
         <f t="shared" si="2"/>
         <v>0.36237541075870083</v>
       </c>
-      <c r="I18" s="224"/>
+      <c r="I18" s="218"/>
       <c r="J18" s="19">
         <f t="shared" si="3"/>
         <v>449.67494153238789</v>
@@ -6504,7 +6471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D19" s="13">
         <v>12</v>
       </c>
@@ -6512,16 +6479,16 @@
         <f t="shared" si="0"/>
         <v>2.0655398413245947</v>
       </c>
-      <c r="F19" s="223">
+      <c r="F19" s="216">
         <f t="shared" si="1"/>
         <v>1.0327699206622973</v>
       </c>
-      <c r="G19" s="224"/>
-      <c r="H19" s="223">
+      <c r="G19" s="218"/>
+      <c r="H19" s="216">
         <f t="shared" si="2"/>
         <v>0.54356311613805119</v>
       </c>
-      <c r="I19" s="224"/>
+      <c r="I19" s="218"/>
       <c r="J19" s="19">
         <f t="shared" si="3"/>
         <v>674.51241229858169</v>
@@ -6545,7 +6512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D20" s="13">
         <v>16</v>
       </c>
@@ -6553,22 +6520,22 @@
         <f t="shared" si="0"/>
         <v>2.7540531217661264</v>
       </c>
-      <c r="F20" s="223">
+      <c r="F20" s="216">
         <f t="shared" si="1"/>
         <v>1.3770265608830632</v>
       </c>
-      <c r="G20" s="224"/>
-      <c r="H20" s="223">
+      <c r="G20" s="218"/>
+      <c r="H20" s="216">
         <f t="shared" si="2"/>
         <v>0.72475082151740167</v>
       </c>
-      <c r="I20" s="224"/>
+      <c r="I20" s="218"/>
       <c r="J20" s="19">
         <f t="shared" si="3"/>
         <v>899.34988306477578</v>
       </c>
     </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D21" s="13">
         <v>20</v>
       </c>
@@ -6576,22 +6543,22 @@
         <f t="shared" si="0"/>
         <v>3.4425664022076581</v>
       </c>
-      <c r="F21" s="223">
+      <c r="F21" s="216">
         <f t="shared" si="1"/>
         <v>1.721283201103829</v>
       </c>
-      <c r="G21" s="224"/>
-      <c r="H21" s="223">
+      <c r="G21" s="218"/>
+      <c r="H21" s="216">
         <f t="shared" si="2"/>
         <v>0.90593852689675203</v>
       </c>
-      <c r="I21" s="224"/>
+      <c r="I21" s="218"/>
       <c r="J21" s="19">
         <f t="shared" si="3"/>
         <v>1124.1873538309696</v>
       </c>
     </row>
-    <row r="22" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D22" s="13">
         <v>24</v>
       </c>
@@ -6599,22 +6566,22 @@
         <f t="shared" si="0"/>
         <v>4.1310796826491893</v>
       </c>
-      <c r="F22" s="223">
+      <c r="F22" s="216">
         <f t="shared" si="1"/>
         <v>2.0655398413245947</v>
       </c>
-      <c r="G22" s="224"/>
-      <c r="H22" s="223">
+      <c r="G22" s="218"/>
+      <c r="H22" s="216">
         <f t="shared" si="2"/>
         <v>1.0871262322761024</v>
       </c>
-      <c r="I22" s="224"/>
+      <c r="I22" s="218"/>
       <c r="J22" s="19">
         <f t="shared" si="3"/>
         <v>1349.0248245971634</v>
       </c>
     </row>
-    <row r="23" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D23" s="13">
         <v>28</v>
       </c>
@@ -6622,22 +6589,22 @@
         <f t="shared" si="0"/>
         <v>4.8195929630907202</v>
       </c>
-      <c r="F23" s="223">
+      <c r="F23" s="216">
         <f t="shared" si="1"/>
         <v>2.4097964815453601</v>
       </c>
-      <c r="G23" s="224"/>
-      <c r="H23" s="223">
+      <c r="G23" s="218"/>
+      <c r="H23" s="216">
         <f t="shared" si="2"/>
         <v>1.2683139376554526</v>
       </c>
-      <c r="I23" s="224"/>
+      <c r="I23" s="218"/>
       <c r="J23" s="19">
         <f t="shared" si="3"/>
         <v>1573.8622953633571</v>
       </c>
     </row>
-    <row r="24" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D24" s="13">
         <v>32</v>
       </c>
@@ -6645,22 +6612,22 @@
         <f t="shared" si="0"/>
         <v>5.5081062435322528</v>
       </c>
-      <c r="F24" s="223">
+      <c r="F24" s="216">
         <f t="shared" si="1"/>
         <v>2.7540531217661264</v>
       </c>
-      <c r="G24" s="224"/>
-      <c r="H24" s="223">
+      <c r="G24" s="218"/>
+      <c r="H24" s="216">
         <f t="shared" si="2"/>
         <v>1.4495016430348033</v>
       </c>
-      <c r="I24" s="224"/>
+      <c r="I24" s="218"/>
       <c r="J24" s="19">
         <f t="shared" si="3"/>
         <v>1798.6997661295516</v>
       </c>
     </row>
-    <row r="25" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D25" s="13">
         <v>36</v>
       </c>
@@ -6668,22 +6635,22 @@
         <f t="shared" si="0"/>
         <v>6.1966195239737845</v>
       </c>
-      <c r="F25" s="223">
+      <c r="F25" s="216">
         <f t="shared" si="1"/>
         <v>3.0983097619868922</v>
       </c>
-      <c r="G25" s="224"/>
-      <c r="H25" s="223">
+      <c r="G25" s="218"/>
+      <c r="H25" s="216">
         <f t="shared" si="2"/>
         <v>1.6306893484141538</v>
       </c>
-      <c r="I25" s="224"/>
+      <c r="I25" s="218"/>
       <c r="J25" s="19">
         <f t="shared" si="3"/>
         <v>2023.5372368957455</v>
       </c>
     </row>
-    <row r="26" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D26" s="22">
         <v>40</v>
       </c>
@@ -6691,22 +6658,22 @@
         <f t="shared" si="0"/>
         <v>6.8851328044153162</v>
       </c>
-      <c r="F26" s="227">
+      <c r="F26" s="283">
         <f t="shared" si="1"/>
         <v>3.4425664022076581</v>
       </c>
-      <c r="G26" s="228"/>
-      <c r="H26" s="227">
+      <c r="G26" s="284"/>
+      <c r="H26" s="283">
         <f t="shared" si="2"/>
         <v>1.8118770537935041</v>
       </c>
-      <c r="I26" s="228"/>
+      <c r="I26" s="284"/>
       <c r="J26" s="34">
         <f t="shared" si="3"/>
         <v>2248.3747076619393</v>
       </c>
     </row>
-    <row r="27" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D27" s="22">
         <v>44</v>
       </c>
@@ -6714,22 +6681,22 @@
         <f t="shared" si="0"/>
         <v>7.573646084856847</v>
       </c>
-      <c r="F27" s="227">
+      <c r="F27" s="283">
         <f t="shared" si="1"/>
         <v>3.786823042428423</v>
       </c>
-      <c r="G27" s="228"/>
-      <c r="H27" s="227">
+      <c r="G27" s="284"/>
+      <c r="H27" s="283">
         <f t="shared" si="2"/>
         <v>1.9930647591728541</v>
       </c>
-      <c r="I27" s="228"/>
+      <c r="I27" s="284"/>
       <c r="J27" s="34">
         <f t="shared" si="3"/>
         <v>2473.2121784281326</v>
       </c>
     </row>
-    <row r="28" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D28" s="20">
         <v>48</v>
       </c>
@@ -6737,22 +6704,22 @@
         <f t="shared" si="0"/>
         <v>8.2621593652983787</v>
       </c>
-      <c r="F28" s="229">
+      <c r="F28" s="219">
         <f t="shared" si="1"/>
         <v>4.1310796826491893</v>
       </c>
-      <c r="G28" s="230"/>
-      <c r="H28" s="229">
+      <c r="G28" s="221"/>
+      <c r="H28" s="219">
         <f t="shared" si="2"/>
         <v>2.1742524645522048</v>
       </c>
-      <c r="I28" s="230"/>
+      <c r="I28" s="221"/>
       <c r="J28" s="64">
         <f>H28*4095/3.3</f>
         <v>2698.0496491943268</v>
       </c>
     </row>
-    <row r="29" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D29" s="22">
         <v>52</v>
       </c>
@@ -6760,22 +6727,22 @@
         <f t="shared" si="0"/>
         <v>8.9506726457399104</v>
       </c>
-      <c r="F29" s="227">
+      <c r="F29" s="283">
         <f>E29*G$14/(G$13+G$14)</f>
         <v>4.4753363228699552</v>
       </c>
-      <c r="G29" s="228"/>
-      <c r="H29" s="227">
+      <c r="G29" s="284"/>
+      <c r="H29" s="283">
         <f>F29*I$14/(I$13+I$14)</f>
         <v>2.3554401699315552</v>
       </c>
-      <c r="I29" s="228"/>
+      <c r="I29" s="284"/>
       <c r="J29" s="34">
         <f t="shared" si="3"/>
         <v>2922.887119960521</v>
       </c>
     </row>
-    <row r="30" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D30" s="22">
         <v>56</v>
       </c>
@@ -6783,22 +6750,22 @@
         <f t="shared" si="0"/>
         <v>9.6391859261814403</v>
       </c>
-      <c r="F30" s="227">
+      <c r="F30" s="283">
         <f>E30*G$14/(G$13+G$14)</f>
         <v>4.8195929630907202</v>
       </c>
-      <c r="G30" s="228"/>
-      <c r="H30" s="227">
+      <c r="G30" s="284"/>
+      <c r="H30" s="283">
         <f>F30*I$14/(I$13+I$14)</f>
         <v>2.5366278753109053</v>
       </c>
-      <c r="I30" s="228"/>
+      <c r="I30" s="284"/>
       <c r="J30" s="34">
         <f t="shared" si="3"/>
         <v>3147.7245907267143</v>
       </c>
     </row>
-    <row r="31" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D31" s="13">
         <v>60</v>
       </c>
@@ -6806,22 +6773,22 @@
         <f t="shared" si="0"/>
         <v>10.327699206622974</v>
       </c>
-      <c r="F31" s="231">
+      <c r="F31" s="285">
         <f>E31*G$14/(G$13+G$14)</f>
         <v>5.1638496033114869</v>
       </c>
-      <c r="G31" s="232"/>
-      <c r="H31" s="223">
+      <c r="G31" s="286"/>
+      <c r="H31" s="216">
         <f>F31*I$14/(I$13+I$14)</f>
         <v>2.7178155806902562</v>
       </c>
-      <c r="I31" s="224"/>
+      <c r="I31" s="218"/>
       <c r="J31" s="19">
         <f t="shared" ref="J31" si="4">H31*4095/3.3</f>
         <v>3372.5620614929089</v>
       </c>
     </row>
-    <row r="32" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D32" s="13">
         <v>64</v>
       </c>
@@ -6829,22 +6796,22 @@
         <f t="shared" si="0"/>
         <v>11.016212487064506</v>
       </c>
-      <c r="F32" s="231">
+      <c r="F32" s="285">
         <f>E32*G$14/(G$13+G$14)</f>
         <v>5.5081062435322528</v>
       </c>
-      <c r="G32" s="232"/>
-      <c r="H32" s="223">
+      <c r="G32" s="286"/>
+      <c r="H32" s="216">
         <f>F32*I$14/(I$13+I$14)</f>
         <v>2.8990032860696067</v>
       </c>
-      <c r="I32" s="224"/>
+      <c r="I32" s="218"/>
       <c r="J32" s="19">
         <f t="shared" ref="J32:J33" si="5">H32*4095/3.3</f>
         <v>3597.3995322591031</v>
       </c>
     </row>
-    <row r="33" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D33" s="14">
         <v>68</v>
       </c>
@@ -6852,22 +6819,22 @@
         <f t="shared" si="0"/>
         <v>11.704725767506035</v>
       </c>
-      <c r="F33" s="233">
+      <c r="F33" s="287">
         <f>E33*G$14/(G$13+G$14)</f>
         <v>5.8523628837530177</v>
       </c>
-      <c r="G33" s="234"/>
-      <c r="H33" s="235">
+      <c r="G33" s="288"/>
+      <c r="H33" s="210">
         <f>F33*I$14/(I$13+I$14)</f>
         <v>3.0801909914489567</v>
       </c>
-      <c r="I33" s="236"/>
+      <c r="I33" s="212"/>
       <c r="J33" s="24">
         <f t="shared" si="5"/>
         <v>3822.2370030252964</v>
       </c>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D34" s="55"/>
       <c r="E34" s="56"/>
       <c r="F34" s="57"/>
@@ -6876,17 +6843,17 @@
       <c r="I34" s="57"/>
       <c r="J34" s="58"/>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C35" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D36" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D37" s="150">
         <v>48</v>
       </c>
@@ -6898,25 +6865,25 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="38" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D39" s="216" t="s">
+    <row r="39" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D39" s="238" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="217"/>
-      <c r="F39" s="216" t="s">
+      <c r="E39" s="259"/>
+      <c r="F39" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="218"/>
-      <c r="H39" s="218"/>
-      <c r="I39" s="219"/>
+      <c r="G39" s="239"/>
+      <c r="H39" s="239"/>
+      <c r="I39" s="240"/>
       <c r="J39" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D40" s="120" t="s">
         <v>28</v>
       </c>
@@ -6939,7 +6906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D41" s="121" t="s">
         <v>25</v>
       </c>
@@ -6962,26 +6929,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D42" s="46" t="s">
         <v>41</v>
       </c>
       <c r="E42" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="216" t="s">
+      <c r="F42" s="238" t="s">
         <v>33</v>
       </c>
-      <c r="G42" s="217"/>
-      <c r="H42" s="216" t="s">
+      <c r="G42" s="259"/>
+      <c r="H42" s="238" t="s">
         <v>42</v>
       </c>
-      <c r="I42" s="219"/>
+      <c r="I42" s="240"/>
       <c r="J42" s="49" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D43" s="6">
         <v>0</v>
       </c>
@@ -6989,22 +6956,22 @@
         <f t="shared" ref="E43:E57" si="6">$D43*E$41/(E$40+E$41)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="213">
+      <c r="F43" s="235">
         <f t="shared" ref="F43:F57" si="7">E43*G$41/(G$40+G$41)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="238"/>
-      <c r="H43" s="213">
+      <c r="G43" s="282"/>
+      <c r="H43" s="235">
         <f t="shared" ref="H43:H57" si="8">F43*I$41/(I$40+I$41)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="214"/>
+      <c r="I43" s="236"/>
       <c r="J43" s="66">
         <f>H43*4095/3.3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D44" s="13">
         <v>4</v>
       </c>
@@ -7012,22 +6979,22 @@
         <f t="shared" si="6"/>
         <v>0.68851328044153159</v>
       </c>
-      <c r="F44" s="223">
+      <c r="F44" s="216">
         <f t="shared" si="7"/>
         <v>0.3442566402207658</v>
       </c>
-      <c r="G44" s="237"/>
-      <c r="H44" s="223">
+      <c r="G44" s="217"/>
+      <c r="H44" s="216">
         <f t="shared" si="8"/>
         <v>0.18118770537935042</v>
       </c>
-      <c r="I44" s="224"/>
+      <c r="I44" s="218"/>
       <c r="J44" s="51">
         <f>H44*4095/3.3</f>
         <v>224.83747076619395</v>
       </c>
     </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D45" s="13">
         <v>8</v>
       </c>
@@ -7035,22 +7002,22 @@
         <f t="shared" si="6"/>
         <v>1.3770265608830632</v>
       </c>
-      <c r="F45" s="223">
+      <c r="F45" s="216">
         <f t="shared" si="7"/>
         <v>0.68851328044153159</v>
       </c>
-      <c r="G45" s="237"/>
-      <c r="H45" s="223">
+      <c r="G45" s="217"/>
+      <c r="H45" s="216">
         <f t="shared" si="8"/>
         <v>0.36237541075870083</v>
       </c>
-      <c r="I45" s="224"/>
+      <c r="I45" s="218"/>
       <c r="J45" s="51">
         <f t="shared" ref="J45:J57" si="9">H45*4095/3.3</f>
         <v>449.67494153238789</v>
       </c>
     </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D46" s="13">
         <v>12</v>
       </c>
@@ -7058,22 +7025,22 @@
         <f t="shared" si="6"/>
         <v>2.0655398413245947</v>
       </c>
-      <c r="F46" s="223">
+      <c r="F46" s="216">
         <f t="shared" si="7"/>
         <v>1.0327699206622973</v>
       </c>
-      <c r="G46" s="237"/>
-      <c r="H46" s="223">
+      <c r="G46" s="217"/>
+      <c r="H46" s="216">
         <f t="shared" si="8"/>
         <v>0.54356311613805119</v>
       </c>
-      <c r="I46" s="224"/>
+      <c r="I46" s="218"/>
       <c r="J46" s="51">
         <f t="shared" si="9"/>
         <v>674.51241229858169</v>
       </c>
     </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D47" s="13">
         <v>16</v>
       </c>
@@ -7081,22 +7048,22 @@
         <f t="shared" si="6"/>
         <v>2.7540531217661264</v>
       </c>
-      <c r="F47" s="223">
+      <c r="F47" s="216">
         <f t="shared" si="7"/>
         <v>1.3770265608830632</v>
       </c>
-      <c r="G47" s="237"/>
-      <c r="H47" s="223">
+      <c r="G47" s="217"/>
+      <c r="H47" s="216">
         <f t="shared" si="8"/>
         <v>0.72475082151740167</v>
       </c>
-      <c r="I47" s="224"/>
+      <c r="I47" s="218"/>
       <c r="J47" s="51">
         <f t="shared" si="9"/>
         <v>899.34988306477578</v>
       </c>
     </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D48" s="13">
         <v>20</v>
       </c>
@@ -7104,22 +7071,22 @@
         <f t="shared" si="6"/>
         <v>3.4425664022076581</v>
       </c>
-      <c r="F48" s="223">
+      <c r="F48" s="216">
         <f t="shared" si="7"/>
         <v>1.721283201103829</v>
       </c>
-      <c r="G48" s="237"/>
-      <c r="H48" s="223">
+      <c r="G48" s="217"/>
+      <c r="H48" s="216">
         <f t="shared" si="8"/>
         <v>0.90593852689675203</v>
       </c>
-      <c r="I48" s="224"/>
+      <c r="I48" s="218"/>
       <c r="J48" s="51">
         <f t="shared" si="9"/>
         <v>1124.1873538309696</v>
       </c>
     </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D49" s="13">
         <v>24</v>
       </c>
@@ -7127,22 +7094,22 @@
         <f t="shared" si="6"/>
         <v>4.1310796826491893</v>
       </c>
-      <c r="F49" s="223">
+      <c r="F49" s="216">
         <f t="shared" si="7"/>
         <v>2.0655398413245947</v>
       </c>
-      <c r="G49" s="237"/>
-      <c r="H49" s="223">
+      <c r="G49" s="217"/>
+      <c r="H49" s="216">
         <f t="shared" si="8"/>
         <v>1.0871262322761024</v>
       </c>
-      <c r="I49" s="224"/>
+      <c r="I49" s="218"/>
       <c r="J49" s="51">
         <f>H49*4095/3.3</f>
         <v>1349.0248245971634</v>
       </c>
     </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D50" s="13">
         <v>28</v>
       </c>
@@ -7150,22 +7117,22 @@
         <f t="shared" si="6"/>
         <v>4.8195929630907202</v>
       </c>
-      <c r="F50" s="223">
+      <c r="F50" s="216">
         <f t="shared" si="7"/>
         <v>2.4097964815453601</v>
       </c>
-      <c r="G50" s="237"/>
-      <c r="H50" s="223">
+      <c r="G50" s="217"/>
+      <c r="H50" s="216">
         <f t="shared" si="8"/>
         <v>1.2683139376554526</v>
       </c>
-      <c r="I50" s="224"/>
+      <c r="I50" s="218"/>
       <c r="J50" s="51">
         <f t="shared" si="9"/>
         <v>1573.8622953633571</v>
       </c>
     </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D51" s="13">
         <v>32</v>
       </c>
@@ -7173,22 +7140,22 @@
         <f t="shared" si="6"/>
         <v>5.5081062435322528</v>
       </c>
-      <c r="F51" s="223">
+      <c r="F51" s="216">
         <f t="shared" si="7"/>
         <v>2.7540531217661264</v>
       </c>
-      <c r="G51" s="237"/>
-      <c r="H51" s="223">
+      <c r="G51" s="217"/>
+      <c r="H51" s="216">
         <f t="shared" si="8"/>
         <v>1.4495016430348033</v>
       </c>
-      <c r="I51" s="224"/>
+      <c r="I51" s="218"/>
       <c r="J51" s="51">
         <f t="shared" si="9"/>
         <v>1798.6997661295516</v>
       </c>
     </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D52" s="13">
         <v>38.4</v>
       </c>
@@ -7196,22 +7163,22 @@
         <f t="shared" si="6"/>
         <v>6.6097274922387026</v>
       </c>
-      <c r="F52" s="223">
+      <c r="F52" s="216">
         <f t="shared" si="7"/>
         <v>3.3048637461193513</v>
       </c>
-      <c r="G52" s="237"/>
-      <c r="H52" s="223">
+      <c r="G52" s="217"/>
+      <c r="H52" s="216">
         <f t="shared" si="8"/>
         <v>1.7394019716417637</v>
       </c>
-      <c r="I52" s="224"/>
+      <c r="I52" s="218"/>
       <c r="J52" s="51">
         <f t="shared" si="9"/>
         <v>2158.4397193554614</v>
       </c>
     </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D53" s="13">
         <v>40</v>
       </c>
@@ -7219,22 +7186,22 @@
         <f t="shared" si="6"/>
         <v>6.8851328044153162</v>
       </c>
-      <c r="F53" s="223">
+      <c r="F53" s="216">
         <f t="shared" si="7"/>
         <v>3.4425664022076581</v>
       </c>
-      <c r="G53" s="237"/>
-      <c r="H53" s="223">
+      <c r="G53" s="217"/>
+      <c r="H53" s="216">
         <f t="shared" si="8"/>
         <v>1.8118770537935041</v>
       </c>
-      <c r="I53" s="224"/>
+      <c r="I53" s="218"/>
       <c r="J53" s="51">
         <f t="shared" si="9"/>
         <v>2248.3747076619393</v>
       </c>
     </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D54" s="13">
         <v>44</v>
       </c>
@@ -7242,22 +7209,22 @@
         <f t="shared" si="6"/>
         <v>7.573646084856847</v>
       </c>
-      <c r="F54" s="223">
+      <c r="F54" s="216">
         <f t="shared" si="7"/>
         <v>3.786823042428423</v>
       </c>
-      <c r="G54" s="237"/>
-      <c r="H54" s="223">
+      <c r="G54" s="217"/>
+      <c r="H54" s="216">
         <f t="shared" si="8"/>
         <v>1.9930647591728541</v>
       </c>
-      <c r="I54" s="224"/>
+      <c r="I54" s="218"/>
       <c r="J54" s="51">
         <f t="shared" si="9"/>
         <v>2473.2121784281326</v>
       </c>
     </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D55" s="20">
         <v>48</v>
       </c>
@@ -7265,22 +7232,22 @@
         <f t="shared" si="6"/>
         <v>8.2621593652983787</v>
       </c>
-      <c r="F55" s="229">
+      <c r="F55" s="219">
         <f t="shared" si="7"/>
         <v>4.1310796826491893</v>
       </c>
-      <c r="G55" s="240"/>
-      <c r="H55" s="229">
+      <c r="G55" s="220"/>
+      <c r="H55" s="219">
         <f t="shared" si="8"/>
         <v>2.1742524645522048</v>
       </c>
-      <c r="I55" s="230"/>
+      <c r="I55" s="221"/>
       <c r="J55" s="67">
         <f t="shared" si="9"/>
         <v>2698.0496491943268</v>
       </c>
     </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D56" s="13">
         <v>52</v>
       </c>
@@ -7288,22 +7255,22 @@
         <f t="shared" si="6"/>
         <v>8.9506726457399104</v>
       </c>
-      <c r="F56" s="223">
+      <c r="F56" s="216">
         <f t="shared" si="7"/>
         <v>4.4753363228699552</v>
       </c>
-      <c r="G56" s="237"/>
-      <c r="H56" s="223">
+      <c r="G56" s="217"/>
+      <c r="H56" s="216">
         <f t="shared" si="8"/>
         <v>2.3554401699315552</v>
       </c>
-      <c r="I56" s="224"/>
+      <c r="I56" s="218"/>
       <c r="J56" s="51">
         <f t="shared" si="9"/>
         <v>2922.887119960521</v>
       </c>
     </row>
-    <row r="57" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D57" s="14">
         <v>56</v>
       </c>
@@ -7311,39 +7278,39 @@
         <f t="shared" si="6"/>
         <v>9.6391859261814403</v>
       </c>
-      <c r="F57" s="235">
+      <c r="F57" s="210">
         <f t="shared" si="7"/>
         <v>4.8195929630907202</v>
       </c>
-      <c r="G57" s="239"/>
-      <c r="H57" s="235">
+      <c r="G57" s="211"/>
+      <c r="H57" s="210">
         <f t="shared" si="8"/>
         <v>2.5366278753109053</v>
       </c>
-      <c r="I57" s="236"/>
+      <c r="I57" s="212"/>
       <c r="J57" s="52">
         <f t="shared" si="9"/>
         <v>3147.7245907267143</v>
       </c>
     </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C59" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C62" s="2"/>
       <c r="D62" t="s">
         <v>153</v>
@@ -7358,7 +7325,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
         <v>151</v>
@@ -7373,7 +7340,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="3:10" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="3:10" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
         <v>155</v>
@@ -7389,28 +7356,28 @@
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="4:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D65" s="286" t="s">
+    <row r="65" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D65" s="208" t="s">
         <v>158</v>
       </c>
-      <c r="E65" s="287"/>
-      <c r="F65" s="246" t="s">
+      <c r="E65" s="209"/>
+      <c r="F65" s="276" t="s">
         <v>34</v>
       </c>
-      <c r="G65" s="246"/>
-      <c r="H65" s="246"/>
-      <c r="I65" s="247"/>
-      <c r="J65" s="216" t="s">
+      <c r="G65" s="276"/>
+      <c r="H65" s="276"/>
+      <c r="I65" s="277"/>
+      <c r="J65" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="K65" s="218"/>
-      <c r="L65" s="218"/>
-      <c r="M65" s="219"/>
+      <c r="K65" s="239"/>
+      <c r="L65" s="239"/>
+      <c r="M65" s="240"/>
       <c r="N65" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="66" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D66" s="120" t="s">
         <v>193</v>
       </c>
@@ -7445,7 +7412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="4:14" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="4:14" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D67" s="121" t="s">
         <v>194</v>
       </c>
@@ -7480,66 +7447,66 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="4:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D68" s="99" t="s">
         <v>157</v>
       </c>
       <c r="E68" s="125" t="s">
         <v>159</v>
       </c>
-      <c r="F68" s="248" t="s">
+      <c r="F68" s="278" t="s">
         <v>18</v>
       </c>
-      <c r="G68" s="218"/>
-      <c r="H68" s="218" t="s">
+      <c r="G68" s="239"/>
+      <c r="H68" s="239" t="s">
         <v>17</v>
       </c>
-      <c r="I68" s="219"/>
-      <c r="J68" s="249" t="s">
+      <c r="I68" s="240"/>
+      <c r="J68" s="279" t="s">
         <v>18</v>
       </c>
-      <c r="K68" s="250"/>
-      <c r="L68" s="250" t="s">
+      <c r="K68" s="280"/>
+      <c r="L68" s="280" t="s">
         <v>19</v>
       </c>
-      <c r="M68" s="251"/>
+      <c r="M68" s="281"/>
       <c r="N68" s="69" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="69" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D69" s="43">
         <v>0</v>
       </c>
       <c r="E69" s="44">
         <v>0</v>
       </c>
-      <c r="F69" s="243">
+      <c r="F69" s="261">
         <f t="shared" ref="F69:F79" si="10">E69*G$67/(G$66+G$67)</f>
         <v>0</v>
       </c>
-      <c r="G69" s="244"/>
-      <c r="H69" s="244">
+      <c r="G69" s="275"/>
+      <c r="H69" s="275">
         <f t="shared" ref="H69:H79" si="11">F69*(1+I$66/I$67)</f>
         <v>0</v>
       </c>
-      <c r="I69" s="226"/>
-      <c r="J69" s="243">
+      <c r="I69" s="233"/>
+      <c r="J69" s="261">
         <f t="shared" ref="J69:J79" si="12">H69*K$67/(K$66+K$67)</f>
         <v>0</v>
       </c>
-      <c r="K69" s="244"/>
-      <c r="L69" s="244">
+      <c r="K69" s="275"/>
+      <c r="L69" s="275">
         <f t="shared" ref="L69:L79" si="13">J69*M$67/(M$66+M$67)</f>
         <v>0</v>
       </c>
-      <c r="M69" s="245"/>
+      <c r="M69" s="232"/>
       <c r="N69" s="17">
         <f>L69*4096/3.3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="70" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D70" s="13">
         <v>2</v>
       </c>
@@ -7547,32 +7514,32 @@
         <f>$E$67*D70/$E$66</f>
         <v>0.4</v>
       </c>
-      <c r="F70" s="241">
+      <c r="F70" s="234">
         <f t="shared" si="10"/>
         <v>0.38204393505253104</v>
       </c>
-      <c r="G70" s="242"/>
-      <c r="H70" s="242">
+      <c r="G70" s="274"/>
+      <c r="H70" s="274">
         <f t="shared" si="11"/>
         <v>1.1461318051575931</v>
       </c>
-      <c r="I70" s="224"/>
-      <c r="J70" s="241">
+      <c r="I70" s="218"/>
+      <c r="J70" s="234">
         <f t="shared" si="12"/>
         <v>0.57306590257879653</v>
       </c>
-      <c r="K70" s="242"/>
-      <c r="L70" s="242">
+      <c r="K70" s="274"/>
+      <c r="L70" s="274">
         <f t="shared" si="13"/>
         <v>0.30161363293620869</v>
       </c>
-      <c r="M70" s="237"/>
+      <c r="M70" s="217"/>
       <c r="N70" s="19">
         <f>L70*4096/3.3</f>
         <v>374.36649712324572</v>
       </c>
     </row>
-    <row r="71" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="71" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D71" s="13">
         <v>4</v>
       </c>
@@ -7580,32 +7547,32 @@
         <f t="shared" ref="E71:E79" si="14">$E$67*D71/$E$66</f>
         <v>0.8</v>
       </c>
-      <c r="F71" s="241">
+      <c r="F71" s="234">
         <f t="shared" si="10"/>
         <v>0.76408787010506207</v>
       </c>
-      <c r="G71" s="242"/>
-      <c r="H71" s="242">
+      <c r="G71" s="274"/>
+      <c r="H71" s="274">
         <f t="shared" si="11"/>
         <v>2.2922636103151861</v>
       </c>
-      <c r="I71" s="224"/>
-      <c r="J71" s="241">
+      <c r="I71" s="218"/>
+      <c r="J71" s="234">
         <f t="shared" si="12"/>
         <v>1.1461318051575931</v>
       </c>
-      <c r="K71" s="242"/>
-      <c r="L71" s="242">
+      <c r="K71" s="274"/>
+      <c r="L71" s="274">
         <f t="shared" si="13"/>
         <v>0.60322726587241737</v>
       </c>
-      <c r="M71" s="237"/>
+      <c r="M71" s="217"/>
       <c r="N71" s="19">
         <f t="shared" ref="N71:N79" si="15">L71*4096/3.3</f>
         <v>748.73299424649144</v>
       </c>
     </row>
-    <row r="72" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="72" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D72" s="13">
         <v>6</v>
       </c>
@@ -7613,32 +7580,32 @@
         <f t="shared" si="14"/>
         <v>1.2</v>
       </c>
-      <c r="F72" s="241">
+      <c r="F72" s="234">
         <f t="shared" si="10"/>
         <v>1.1461318051575931</v>
       </c>
-      <c r="G72" s="242"/>
-      <c r="H72" s="242">
+      <c r="G72" s="274"/>
+      <c r="H72" s="274">
         <f t="shared" si="11"/>
         <v>3.4383954154727792</v>
       </c>
-      <c r="I72" s="224"/>
-      <c r="J72" s="241">
+      <c r="I72" s="218"/>
+      <c r="J72" s="234">
         <f t="shared" si="12"/>
         <v>1.7191977077363894</v>
       </c>
-      <c r="K72" s="242"/>
-      <c r="L72" s="242">
+      <c r="K72" s="274"/>
+      <c r="L72" s="274">
         <f t="shared" si="13"/>
         <v>0.90484089880862584</v>
       </c>
-      <c r="M72" s="237"/>
+      <c r="M72" s="217"/>
       <c r="N72" s="19">
         <f t="shared" si="15"/>
         <v>1123.0994913697368</v>
       </c>
     </row>
-    <row r="73" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="73" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D73" s="13">
         <v>8</v>
       </c>
@@ -7646,32 +7613,32 @@
         <f t="shared" si="14"/>
         <v>1.6</v>
       </c>
-      <c r="F73" s="241">
+      <c r="F73" s="234">
         <f t="shared" si="10"/>
         <v>1.5281757402101241</v>
       </c>
-      <c r="G73" s="242"/>
-      <c r="H73" s="242">
+      <c r="G73" s="274"/>
+      <c r="H73" s="274">
         <f t="shared" si="11"/>
         <v>4.5845272206303722</v>
       </c>
-      <c r="I73" s="224"/>
-      <c r="J73" s="241">
+      <c r="I73" s="218"/>
+      <c r="J73" s="234">
         <f t="shared" si="12"/>
         <v>2.2922636103151861</v>
       </c>
-      <c r="K73" s="242"/>
-      <c r="L73" s="242">
+      <c r="K73" s="274"/>
+      <c r="L73" s="274">
         <f t="shared" si="13"/>
         <v>1.2064545317448347</v>
       </c>
-      <c r="M73" s="237"/>
+      <c r="M73" s="217"/>
       <c r="N73" s="19">
         <f t="shared" si="15"/>
         <v>1497.4659884929829</v>
       </c>
     </row>
-    <row r="74" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="74" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D74" s="20">
         <v>10</v>
       </c>
@@ -7679,32 +7646,32 @@
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="F74" s="260">
+      <c r="F74" s="264">
         <f t="shared" si="10"/>
         <v>1.910219675262655</v>
       </c>
-      <c r="G74" s="261"/>
-      <c r="H74" s="261">
+      <c r="G74" s="273"/>
+      <c r="H74" s="273">
         <f t="shared" si="11"/>
         <v>5.7306590257879648</v>
       </c>
-      <c r="I74" s="230"/>
-      <c r="J74" s="260">
+      <c r="I74" s="221"/>
+      <c r="J74" s="264">
         <f t="shared" si="12"/>
         <v>2.8653295128939824</v>
       </c>
-      <c r="K74" s="261"/>
-      <c r="L74" s="261">
+      <c r="K74" s="273"/>
+      <c r="L74" s="273">
         <f t="shared" si="13"/>
         <v>1.5080681646810434</v>
       </c>
-      <c r="M74" s="240"/>
+      <c r="M74" s="220"/>
       <c r="N74" s="64">
         <f t="shared" si="15"/>
         <v>1871.8324856162285</v>
       </c>
     </row>
-    <row r="75" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="75" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D75" s="83">
         <v>12</v>
       </c>
@@ -7712,32 +7679,32 @@
         <f t="shared" si="14"/>
         <v>2.4</v>
       </c>
-      <c r="F75" s="256">
+      <c r="F75" s="269">
         <f t="shared" si="10"/>
         <v>2.2922636103151861</v>
       </c>
-      <c r="G75" s="257"/>
-      <c r="H75" s="257">
+      <c r="G75" s="270"/>
+      <c r="H75" s="270">
         <f t="shared" si="11"/>
         <v>6.8767908309455583</v>
       </c>
-      <c r="I75" s="258"/>
-      <c r="J75" s="256">
+      <c r="I75" s="271"/>
+      <c r="J75" s="269">
         <f t="shared" si="12"/>
         <v>3.4383954154727787</v>
       </c>
-      <c r="K75" s="257"/>
-      <c r="L75" s="257">
+      <c r="K75" s="270"/>
+      <c r="L75" s="270">
         <f t="shared" si="13"/>
         <v>1.8096817976172517</v>
       </c>
-      <c r="M75" s="259"/>
+      <c r="M75" s="272"/>
       <c r="N75" s="151">
         <f t="shared" si="15"/>
         <v>2246.1989827394736</v>
       </c>
     </row>
-    <row r="76" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="76" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D76" s="13">
         <v>14</v>
       </c>
@@ -7745,32 +7712,32 @@
         <f t="shared" si="14"/>
         <v>2.8</v>
       </c>
-      <c r="F76" s="252">
+      <c r="F76" s="265">
         <f t="shared" si="10"/>
         <v>2.674307545367717</v>
       </c>
-      <c r="G76" s="253"/>
-      <c r="H76" s="253">
+      <c r="G76" s="266"/>
+      <c r="H76" s="266">
         <f t="shared" si="11"/>
         <v>8.02292263610315</v>
       </c>
-      <c r="I76" s="254"/>
-      <c r="J76" s="252">
+      <c r="I76" s="267"/>
+      <c r="J76" s="265">
         <f t="shared" si="12"/>
         <v>4.011461318051575</v>
       </c>
-      <c r="K76" s="253"/>
-      <c r="L76" s="253">
+      <c r="K76" s="266"/>
+      <c r="L76" s="266">
         <f t="shared" si="13"/>
         <v>2.1112954305534606</v>
       </c>
-      <c r="M76" s="255"/>
+      <c r="M76" s="268"/>
       <c r="N76" s="124">
         <f t="shared" si="15"/>
         <v>2620.5654798627197</v>
       </c>
     </row>
-    <row r="77" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="77" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D77" s="13">
         <v>16</v>
       </c>
@@ -7778,32 +7745,32 @@
         <f t="shared" si="14"/>
         <v>3.2</v>
       </c>
-      <c r="F77" s="252">
+      <c r="F77" s="265">
         <f t="shared" si="10"/>
         <v>3.0563514804202483</v>
       </c>
-      <c r="G77" s="253"/>
-      <c r="H77" s="253">
+      <c r="G77" s="266"/>
+      <c r="H77" s="266">
         <f t="shared" si="11"/>
         <v>9.1690544412607444</v>
       </c>
-      <c r="I77" s="254"/>
-      <c r="J77" s="252">
+      <c r="I77" s="267"/>
+      <c r="J77" s="265">
         <f t="shared" si="12"/>
         <v>4.5845272206303722</v>
       </c>
-      <c r="K77" s="253"/>
-      <c r="L77" s="253">
+      <c r="K77" s="266"/>
+      <c r="L77" s="266">
         <f t="shared" si="13"/>
         <v>2.4129090634896695</v>
       </c>
-      <c r="M77" s="255"/>
+      <c r="M77" s="268"/>
       <c r="N77" s="124">
         <f t="shared" si="15"/>
         <v>2994.9319769859658</v>
       </c>
     </row>
-    <row r="78" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="78" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D78" s="13">
         <v>18</v>
       </c>
@@ -7811,32 +7778,32 @@
         <f t="shared" si="14"/>
         <v>3.6</v>
       </c>
-      <c r="F78" s="252">
+      <c r="F78" s="265">
         <f t="shared" si="10"/>
         <v>3.4383954154727792</v>
       </c>
-      <c r="G78" s="253"/>
-      <c r="H78" s="253">
+      <c r="G78" s="266"/>
+      <c r="H78" s="266">
         <f t="shared" si="11"/>
         <v>10.315186246418337</v>
       </c>
-      <c r="I78" s="254"/>
-      <c r="J78" s="252">
+      <c r="I78" s="267"/>
+      <c r="J78" s="265">
         <f t="shared" si="12"/>
         <v>5.1575931232091685</v>
       </c>
-      <c r="K78" s="253"/>
-      <c r="L78" s="253">
+      <c r="K78" s="266"/>
+      <c r="L78" s="266">
         <f t="shared" si="13"/>
         <v>2.7145226964258784</v>
       </c>
-      <c r="M78" s="255"/>
+      <c r="M78" s="268"/>
       <c r="N78" s="124">
         <f t="shared" si="15"/>
         <v>3369.2984741092118</v>
       </c>
     </row>
-    <row r="79" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="79" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D79" s="13">
         <v>20</v>
       </c>
@@ -7844,73 +7811,73 @@
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="F79" s="252">
+      <c r="F79" s="265">
         <f t="shared" si="10"/>
         <v>3.82043935052531</v>
       </c>
-      <c r="G79" s="253"/>
-      <c r="H79" s="253">
+      <c r="G79" s="266"/>
+      <c r="H79" s="266">
         <f t="shared" si="11"/>
         <v>11.46131805157593</v>
       </c>
-      <c r="I79" s="254"/>
-      <c r="J79" s="252">
+      <c r="I79" s="267"/>
+      <c r="J79" s="265">
         <f t="shared" si="12"/>
         <v>5.7306590257879648</v>
       </c>
-      <c r="K79" s="253"/>
-      <c r="L79" s="253">
+      <c r="K79" s="266"/>
+      <c r="L79" s="266">
         <f t="shared" si="13"/>
         <v>3.0161363293620869</v>
       </c>
-      <c r="M79" s="255"/>
+      <c r="M79" s="268"/>
       <c r="N79" s="124">
         <f t="shared" si="15"/>
         <v>3743.664971232457</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C81" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="3:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="3:15" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="3:15" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C84" s="2"/>
-      <c r="D84" s="288" t="s">
+      <c r="D84" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="E84" s="216" t="s">
+      <c r="E84" s="238" t="s">
         <v>76</v>
       </c>
-      <c r="F84" s="218"/>
-      <c r="G84" s="218"/>
-      <c r="H84" s="218"/>
-      <c r="I84" s="218"/>
-      <c r="J84" s="217"/>
-      <c r="K84" s="216" t="s">
+      <c r="F84" s="239"/>
+      <c r="G84" s="239"/>
+      <c r="H84" s="239"/>
+      <c r="I84" s="239"/>
+      <c r="J84" s="259"/>
+      <c r="K84" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="L84" s="218"/>
-      <c r="M84" s="218"/>
-      <c r="N84" s="219"/>
+      <c r="L84" s="239"/>
+      <c r="M84" s="239"/>
+      <c r="N84" s="240"/>
       <c r="O84" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D85" s="289"/>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D85" s="214"/>
       <c r="E85" s="134" t="s">
         <v>195</v>
       </c>
@@ -7945,8 +7912,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="3:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D86" s="290"/>
+    <row r="86" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D86" s="215"/>
       <c r="E86" s="121"/>
       <c r="F86" s="122"/>
       <c r="G86" s="117" t="s">
@@ -7977,7 +7944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="3:15" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="3:15" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D87" s="70" t="s">
         <v>45</v>
       </c>
@@ -7987,27 +7954,27 @@
       <c r="F87" s="100" t="s">
         <v>162</v>
       </c>
-      <c r="G87" s="277" t="s">
+      <c r="G87" s="228" t="s">
         <v>77</v>
       </c>
-      <c r="H87" s="278"/>
-      <c r="I87" s="271" t="s">
+      <c r="H87" s="230"/>
+      <c r="I87" s="260" t="s">
         <v>80</v>
       </c>
-      <c r="J87" s="272"/>
-      <c r="K87" s="277" t="s">
+      <c r="J87" s="229"/>
+      <c r="K87" s="228" t="s">
         <v>18</v>
       </c>
-      <c r="L87" s="272"/>
-      <c r="M87" s="277" t="s">
+      <c r="L87" s="229"/>
+      <c r="M87" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="N87" s="278"/>
+      <c r="N87" s="230"/>
       <c r="O87" s="75" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="88" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D88" s="68">
         <v>0</v>
       </c>
@@ -8019,32 +7986,32 @@
         <f>D88*E88</f>
         <v>0</v>
       </c>
-      <c r="G88" s="225">
+      <c r="G88" s="231">
         <f>E88*(1+H$85/H$86)</f>
         <v>0</v>
       </c>
-      <c r="H88" s="226"/>
-      <c r="I88" s="243">
+      <c r="H88" s="233"/>
+      <c r="I88" s="261">
         <f>G88*J$86/(J$85+J$86)</f>
         <v>0</v>
       </c>
-      <c r="J88" s="245"/>
-      <c r="K88" s="225">
+      <c r="J88" s="232"/>
+      <c r="K88" s="231">
         <f>I88*L$86/(L$85+L$86)</f>
         <v>0</v>
       </c>
-      <c r="L88" s="245"/>
-      <c r="M88" s="225">
+      <c r="L88" s="232"/>
+      <c r="M88" s="231">
         <f t="shared" ref="M88:M100" si="16">K88*N$86/(N$85+N$86)</f>
         <v>0</v>
       </c>
-      <c r="N88" s="226"/>
+      <c r="N88" s="233"/>
       <c r="O88" s="50">
         <f t="shared" ref="O88:O100" si="17">M88*4096/3.3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="89" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D89" s="33">
         <v>0.1</v>
       </c>
@@ -8056,32 +8023,32 @@
         <f>D89*E89</f>
         <v>5.000000000000001E-3</v>
       </c>
-      <c r="G89" s="223">
+      <c r="G89" s="216">
         <f>E89*(1+H$85/H$86)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="H89" s="224"/>
-      <c r="I89" s="241">
+      <c r="H89" s="218"/>
+      <c r="I89" s="234">
         <f t="shared" ref="I89:I100" si="19">G89*J$86/(J$85+J$86)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="J89" s="237"/>
-      <c r="K89" s="223">
+      <c r="J89" s="217"/>
+      <c r="K89" s="216">
         <f t="shared" ref="K89:K100" si="20">I89*L$86/(L$85+L$86)</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="L89" s="237"/>
-      <c r="M89" s="223">
+      <c r="L89" s="217"/>
+      <c r="M89" s="216">
         <f t="shared" si="16"/>
         <v>0.14473684210526316</v>
       </c>
-      <c r="N89" s="224"/>
+      <c r="N89" s="218"/>
       <c r="O89" s="51">
         <f t="shared" si="17"/>
         <v>179.64912280701756</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D90" s="76">
         <v>0.2</v>
       </c>
@@ -8093,32 +8060,32 @@
         <f t="shared" ref="F90:F100" si="21">D90*E90</f>
         <v>2.0000000000000004E-2</v>
       </c>
-      <c r="G90" s="279">
+      <c r="G90" s="222">
         <f>E90*(1+H$85/H$86)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H90" s="280"/>
-      <c r="I90" s="273">
+      <c r="H90" s="224"/>
+      <c r="I90" s="262">
         <f t="shared" si="19"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="J90" s="274"/>
-      <c r="K90" s="279">
+      <c r="J90" s="223"/>
+      <c r="K90" s="222">
         <f t="shared" si="20"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="L90" s="274"/>
-      <c r="M90" s="279">
+      <c r="L90" s="223"/>
+      <c r="M90" s="222">
         <f t="shared" si="16"/>
         <v>0.28947368421052633</v>
       </c>
-      <c r="N90" s="280"/>
+      <c r="N90" s="224"/>
       <c r="O90" s="54">
         <f t="shared" si="17"/>
         <v>359.29824561403512</v>
       </c>
     </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="91" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D91" s="74">
         <v>0.3</v>
       </c>
@@ -8130,32 +8097,32 @@
         <f t="shared" si="21"/>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="G91" s="281">
+      <c r="G91" s="225">
         <f t="shared" ref="G91:G100" si="22">E91*(1+H$85/H$86)</f>
         <v>1.65</v>
       </c>
-      <c r="H91" s="282"/>
-      <c r="I91" s="275">
+      <c r="H91" s="227"/>
+      <c r="I91" s="263">
         <f t="shared" si="19"/>
         <v>1.65</v>
       </c>
-      <c r="J91" s="276"/>
-      <c r="K91" s="281">
+      <c r="J91" s="226"/>
+      <c r="K91" s="225">
         <f t="shared" si="20"/>
         <v>0.82499999999999996</v>
       </c>
-      <c r="L91" s="276"/>
-      <c r="M91" s="281">
+      <c r="L91" s="226"/>
+      <c r="M91" s="225">
         <f t="shared" si="16"/>
         <v>0.43421052631578938</v>
       </c>
-      <c r="N91" s="282"/>
+      <c r="N91" s="227"/>
       <c r="O91" s="78">
         <f t="shared" si="17"/>
         <v>538.94736842105249</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D92" s="76">
         <v>0.4</v>
       </c>
@@ -8167,32 +8134,32 @@
         <f t="shared" si="21"/>
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="G92" s="223">
+      <c r="G92" s="216">
         <f t="shared" si="22"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="H92" s="224"/>
-      <c r="I92" s="241">
+      <c r="H92" s="218"/>
+      <c r="I92" s="234">
         <f t="shared" si="19"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="J92" s="237"/>
-      <c r="K92" s="223">
+      <c r="J92" s="217"/>
+      <c r="K92" s="216">
         <f t="shared" si="20"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="L92" s="237"/>
-      <c r="M92" s="223">
+      <c r="L92" s="217"/>
+      <c r="M92" s="216">
         <f t="shared" si="16"/>
         <v>0.57894736842105265</v>
       </c>
-      <c r="N92" s="224"/>
+      <c r="N92" s="218"/>
       <c r="O92" s="51">
         <f t="shared" si="17"/>
         <v>718.59649122807025</v>
       </c>
     </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="93" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D93" s="33">
         <v>0.5</v>
       </c>
@@ -8204,32 +8171,32 @@
         <f t="shared" si="21"/>
         <v>0.125</v>
       </c>
-      <c r="G93" s="223">
+      <c r="G93" s="216">
         <f t="shared" si="22"/>
         <v>2.75</v>
       </c>
-      <c r="H93" s="224"/>
-      <c r="I93" s="241">
+      <c r="H93" s="218"/>
+      <c r="I93" s="234">
         <f t="shared" si="19"/>
         <v>2.75</v>
       </c>
-      <c r="J93" s="237"/>
-      <c r="K93" s="223">
+      <c r="J93" s="217"/>
+      <c r="K93" s="216">
         <f t="shared" si="20"/>
         <v>1.375</v>
       </c>
-      <c r="L93" s="237"/>
-      <c r="M93" s="223">
+      <c r="L93" s="217"/>
+      <c r="M93" s="216">
         <f t="shared" si="16"/>
         <v>0.72368421052631582</v>
       </c>
-      <c r="N93" s="224"/>
+      <c r="N93" s="218"/>
       <c r="O93" s="51">
         <f t="shared" si="17"/>
         <v>898.24561403508778</v>
       </c>
     </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="94" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D94" s="73">
         <v>0.6</v>
       </c>
@@ -8241,32 +8208,32 @@
         <f t="shared" si="21"/>
         <v>0.18</v>
       </c>
-      <c r="G94" s="229">
+      <c r="G94" s="219">
         <f t="shared" si="22"/>
         <v>3.3</v>
       </c>
-      <c r="H94" s="230"/>
-      <c r="I94" s="260">
+      <c r="H94" s="221"/>
+      <c r="I94" s="264">
         <f t="shared" si="19"/>
         <v>3.3</v>
       </c>
-      <c r="J94" s="240"/>
-      <c r="K94" s="229">
+      <c r="J94" s="220"/>
+      <c r="K94" s="219">
         <f t="shared" si="20"/>
         <v>1.65</v>
       </c>
-      <c r="L94" s="240"/>
-      <c r="M94" s="229">
+      <c r="L94" s="220"/>
+      <c r="M94" s="219">
         <f t="shared" si="16"/>
         <v>0.86842105263157876</v>
       </c>
-      <c r="N94" s="230"/>
+      <c r="N94" s="221"/>
       <c r="O94" s="67">
         <f t="shared" si="17"/>
         <v>1077.894736842105</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D95" s="33">
         <v>0.7</v>
       </c>
@@ -8278,32 +8245,32 @@
         <f t="shared" si="21"/>
         <v>0.24499999999999997</v>
       </c>
-      <c r="G95" s="223">
+      <c r="G95" s="216">
         <f t="shared" si="22"/>
         <v>3.8499999999999996</v>
       </c>
-      <c r="H95" s="224"/>
-      <c r="I95" s="241">
+      <c r="H95" s="218"/>
+      <c r="I95" s="234">
         <f t="shared" si="19"/>
         <v>3.85</v>
       </c>
-      <c r="J95" s="237"/>
-      <c r="K95" s="223">
+      <c r="J95" s="217"/>
+      <c r="K95" s="216">
         <f t="shared" si="20"/>
         <v>1.9250000000000003</v>
       </c>
-      <c r="L95" s="237"/>
-      <c r="M95" s="223">
+      <c r="L95" s="217"/>
+      <c r="M95" s="216">
         <f t="shared" si="16"/>
         <v>1.013157894736842</v>
       </c>
-      <c r="N95" s="224"/>
+      <c r="N95" s="218"/>
       <c r="O95" s="51">
         <f t="shared" si="17"/>
         <v>1257.5438596491229</v>
       </c>
     </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="96" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D96" s="76">
         <v>0.8</v>
       </c>
@@ -8315,32 +8282,32 @@
         <f t="shared" si="21"/>
         <v>0.32000000000000006</v>
       </c>
-      <c r="G96" s="223">
+      <c r="G96" s="216">
         <f t="shared" si="22"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="H96" s="224"/>
-      <c r="I96" s="241">
+      <c r="H96" s="218"/>
+      <c r="I96" s="234">
         <f t="shared" si="19"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="J96" s="237"/>
-      <c r="K96" s="223">
+      <c r="J96" s="217"/>
+      <c r="K96" s="216">
         <f t="shared" si="20"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="L96" s="237"/>
-      <c r="M96" s="223">
+      <c r="L96" s="217"/>
+      <c r="M96" s="216">
         <f t="shared" si="16"/>
         <v>1.1578947368421053</v>
       </c>
-      <c r="N96" s="224"/>
+      <c r="N96" s="218"/>
       <c r="O96" s="51">
         <f t="shared" si="17"/>
         <v>1437.1929824561405</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D97" s="33">
         <v>0.9</v>
       </c>
@@ -8352,32 +8319,32 @@
         <f t="shared" si="21"/>
         <v>0.40500000000000003</v>
       </c>
-      <c r="G97" s="223">
+      <c r="G97" s="216">
         <f t="shared" si="22"/>
         <v>4.95</v>
       </c>
-      <c r="H97" s="224"/>
-      <c r="I97" s="241">
+      <c r="H97" s="218"/>
+      <c r="I97" s="234">
         <f t="shared" si="19"/>
         <v>4.95</v>
       </c>
-      <c r="J97" s="237"/>
-      <c r="K97" s="223">
+      <c r="J97" s="217"/>
+      <c r="K97" s="216">
         <f t="shared" si="20"/>
         <v>2.4750000000000001</v>
       </c>
-      <c r="L97" s="237"/>
-      <c r="M97" s="223">
+      <c r="L97" s="217"/>
+      <c r="M97" s="216">
         <f t="shared" si="16"/>
         <v>1.3026315789473686</v>
       </c>
-      <c r="N97" s="224"/>
+      <c r="N97" s="218"/>
       <c r="O97" s="51">
         <f t="shared" si="17"/>
         <v>1616.8421052631581</v>
       </c>
     </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="98" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D98" s="76">
         <v>1</v>
       </c>
@@ -8389,32 +8356,32 @@
         <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
-      <c r="G98" s="223">
+      <c r="G98" s="216">
         <f t="shared" si="22"/>
         <v>5.5</v>
       </c>
-      <c r="H98" s="224"/>
-      <c r="I98" s="241">
+      <c r="H98" s="218"/>
+      <c r="I98" s="234">
         <f t="shared" si="19"/>
         <v>5.5</v>
       </c>
-      <c r="J98" s="237"/>
-      <c r="K98" s="223">
+      <c r="J98" s="217"/>
+      <c r="K98" s="216">
         <f t="shared" si="20"/>
         <v>2.75</v>
       </c>
-      <c r="L98" s="237"/>
-      <c r="M98" s="223">
+      <c r="L98" s="217"/>
+      <c r="M98" s="216">
         <f t="shared" si="16"/>
         <v>1.4473684210526316</v>
       </c>
-      <c r="N98" s="224"/>
+      <c r="N98" s="218"/>
       <c r="O98" s="51">
         <f t="shared" si="17"/>
         <v>1796.4912280701756</v>
       </c>
     </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="99" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D99" s="33">
         <v>1.1000000000000001</v>
       </c>
@@ -8426,32 +8393,32 @@
         <f t="shared" si="21"/>
         <v>0.60500000000000009</v>
       </c>
-      <c r="G99" s="223">
+      <c r="G99" s="216">
         <f t="shared" si="22"/>
         <v>6.0500000000000007</v>
       </c>
-      <c r="H99" s="224"/>
-      <c r="I99" s="241">
+      <c r="H99" s="218"/>
+      <c r="I99" s="234">
         <f t="shared" si="19"/>
         <v>6.0500000000000007</v>
       </c>
-      <c r="J99" s="237"/>
-      <c r="K99" s="223">
+      <c r="J99" s="217"/>
+      <c r="K99" s="216">
         <f t="shared" si="20"/>
         <v>3.0250000000000004</v>
       </c>
-      <c r="L99" s="237"/>
-      <c r="M99" s="223">
+      <c r="L99" s="217"/>
+      <c r="M99" s="216">
         <f t="shared" si="16"/>
         <v>1.5921052631578949</v>
       </c>
-      <c r="N99" s="224"/>
+      <c r="N99" s="218"/>
       <c r="O99" s="51">
         <f t="shared" si="17"/>
         <v>1976.1403508771932</v>
       </c>
     </row>
-    <row r="100" spans="3:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D100" s="77">
         <v>1.2</v>
       </c>
@@ -8463,71 +8430,71 @@
         <f t="shared" si="21"/>
         <v>0.72</v>
       </c>
-      <c r="G100" s="235">
+      <c r="G100" s="210">
         <f t="shared" si="22"/>
         <v>6.6</v>
       </c>
-      <c r="H100" s="236"/>
-      <c r="I100" s="270">
+      <c r="H100" s="212"/>
+      <c r="I100" s="258">
         <f t="shared" si="19"/>
         <v>6.6</v>
       </c>
-      <c r="J100" s="239"/>
-      <c r="K100" s="235">
+      <c r="J100" s="211"/>
+      <c r="K100" s="210">
         <f t="shared" si="20"/>
         <v>3.3</v>
       </c>
-      <c r="L100" s="239"/>
-      <c r="M100" s="235">
+      <c r="L100" s="211"/>
+      <c r="M100" s="210">
         <f t="shared" si="16"/>
         <v>1.7368421052631575</v>
       </c>
-      <c r="N100" s="236"/>
+      <c r="N100" s="212"/>
       <c r="O100" s="52">
         <f t="shared" si="17"/>
         <v>2155.78947368421</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C102" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="103" spans="3:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="104" spans="3:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D104" s="262" t="s">
+    <row r="103" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="104" spans="3:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D104" s="247" t="s">
         <v>16</v>
       </c>
-      <c r="E104" s="265" t="s">
+      <c r="E104" s="250" t="s">
         <v>215</v>
       </c>
-      <c r="F104" s="266"/>
-      <c r="G104" s="267" t="s">
+      <c r="F104" s="251"/>
+      <c r="G104" s="252" t="s">
         <v>12</v>
       </c>
-      <c r="H104" s="268"/>
-      <c r="I104" s="268"/>
-      <c r="J104" s="269"/>
+      <c r="H104" s="253"/>
+      <c r="I104" s="253"/>
+      <c r="J104" s="254"/>
       <c r="K104" s="25"/>
     </row>
-    <row r="105" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D105" s="263"/>
-      <c r="E105" s="283" t="s">
+    <row r="105" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D105" s="248"/>
+      <c r="E105" s="255" t="s">
         <v>23</v>
       </c>
-      <c r="F105" s="284"/>
-      <c r="G105" s="283" t="s">
+      <c r="F105" s="256"/>
+      <c r="G105" s="255" t="s">
         <v>18</v>
       </c>
-      <c r="H105" s="285"/>
-      <c r="I105" s="285" t="s">
+      <c r="H105" s="257"/>
+      <c r="I105" s="257" t="s">
         <v>19</v>
       </c>
-      <c r="J105" s="284"/>
+      <c r="J105" s="256"/>
       <c r="K105" s="26"/>
     </row>
-    <row r="106" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D106" s="263"/>
+    <row r="106" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D106" s="248"/>
       <c r="E106" s="8" t="s">
         <v>24</v>
       </c>
@@ -8550,8 +8517,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="3:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D107" s="264"/>
+    <row r="107" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D107" s="249"/>
       <c r="E107" s="4" t="s">
         <v>27</v>
       </c>
@@ -8574,358 +8541,358 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="108" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D108" s="31">
         <v>0</v>
       </c>
-      <c r="E108" s="213">
+      <c r="E108" s="235">
         <f>D108*F$107/(F$106+F$107)</f>
         <v>0</v>
       </c>
-      <c r="F108" s="214"/>
-      <c r="G108" s="213">
+      <c r="F108" s="236"/>
+      <c r="G108" s="235">
         <f>E108*H$107/(H$106+H$107)</f>
         <v>0</v>
       </c>
-      <c r="H108" s="215"/>
-      <c r="I108" s="215">
+      <c r="H108" s="237"/>
+      <c r="I108" s="237">
         <f>G108*J$107/(J$106+J$107)</f>
         <v>0</v>
       </c>
-      <c r="J108" s="214"/>
+      <c r="J108" s="236"/>
       <c r="K108" s="32">
         <f>I108*4096/3.3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="109" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D109" s="33">
         <v>1</v>
       </c>
-      <c r="E109" s="213">
+      <c r="E109" s="235">
         <f t="shared" ref="E109:E120" si="23">D109*F$107/(F$106+F$107)</f>
         <v>0.99009900990099009</v>
       </c>
-      <c r="F109" s="214"/>
-      <c r="G109" s="213">
+      <c r="F109" s="236"/>
+      <c r="G109" s="235">
         <f t="shared" ref="G109:G120" si="24">E109*H$107/(H$106+H$107)</f>
         <v>0.49504950495049499</v>
       </c>
-      <c r="H109" s="215"/>
-      <c r="I109" s="215">
+      <c r="H109" s="237"/>
+      <c r="I109" s="237">
         <f t="shared" ref="I109:I120" si="25">G109*J$107/(J$106+J$107)</f>
         <v>0.2605523710265763</v>
       </c>
-      <c r="J109" s="214"/>
+      <c r="J109" s="236"/>
       <c r="K109" s="19">
         <f>I109*4096/3.3</f>
         <v>323.40076112874442</v>
       </c>
     </row>
-    <row r="110" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="110" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D110" s="33">
         <v>2</v>
       </c>
-      <c r="E110" s="213">
+      <c r="E110" s="235">
         <f t="shared" si="23"/>
         <v>1.9801980198019802</v>
       </c>
-      <c r="F110" s="214"/>
-      <c r="G110" s="213">
+      <c r="F110" s="236"/>
+      <c r="G110" s="235">
         <f t="shared" si="24"/>
         <v>0.99009900990098998</v>
       </c>
-      <c r="H110" s="215"/>
-      <c r="I110" s="215">
+      <c r="H110" s="237"/>
+      <c r="I110" s="237">
         <f t="shared" si="25"/>
         <v>0.5211047420531526</v>
       </c>
-      <c r="J110" s="214"/>
+      <c r="J110" s="236"/>
       <c r="K110" s="19">
         <f>I110*4096/3.3</f>
         <v>646.80152225748884</v>
       </c>
     </row>
-    <row r="111" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="111" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D111" s="33">
         <v>3</v>
       </c>
-      <c r="E111" s="213">
+      <c r="E111" s="235">
         <f t="shared" si="23"/>
         <v>2.9702970297029703</v>
       </c>
-      <c r="F111" s="214"/>
-      <c r="G111" s="213">
+      <c r="F111" s="236"/>
+      <c r="G111" s="235">
         <f t="shared" si="24"/>
         <v>1.4851485148514851</v>
       </c>
-      <c r="H111" s="215"/>
-      <c r="I111" s="215">
+      <c r="H111" s="237"/>
+      <c r="I111" s="237">
         <f t="shared" si="25"/>
         <v>0.78165711307972907</v>
       </c>
-      <c r="J111" s="214"/>
+      <c r="J111" s="236"/>
       <c r="K111" s="19">
         <f t="shared" ref="K111:K120" si="26">I111*4096/3.3</f>
         <v>970.20228338623349</v>
       </c>
     </row>
-    <row r="112" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="112" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D112" s="33">
         <v>4</v>
       </c>
-      <c r="E112" s="213">
+      <c r="E112" s="235">
         <f t="shared" si="23"/>
         <v>3.9603960396039604</v>
       </c>
-      <c r="F112" s="214"/>
-      <c r="G112" s="213">
+      <c r="F112" s="236"/>
+      <c r="G112" s="235">
         <f t="shared" si="24"/>
         <v>1.98019801980198</v>
       </c>
-      <c r="H112" s="215"/>
-      <c r="I112" s="215">
+      <c r="H112" s="237"/>
+      <c r="I112" s="237">
         <f t="shared" si="25"/>
         <v>1.0422094841063052</v>
       </c>
-      <c r="J112" s="214"/>
+      <c r="J112" s="236"/>
       <c r="K112" s="19">
         <f t="shared" si="26"/>
         <v>1293.6030445149777</v>
       </c>
     </row>
-    <row r="113" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="113" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D113" s="33">
         <v>5</v>
       </c>
-      <c r="E113" s="213">
+      <c r="E113" s="235">
         <f t="shared" si="23"/>
         <v>4.9504950495049505</v>
       </c>
-      <c r="F113" s="214"/>
-      <c r="G113" s="213">
+      <c r="F113" s="236"/>
+      <c r="G113" s="235">
         <f t="shared" si="24"/>
         <v>2.4752475247524752</v>
       </c>
-      <c r="H113" s="215"/>
-      <c r="I113" s="215">
+      <c r="H113" s="237"/>
+      <c r="I113" s="237">
         <f t="shared" si="25"/>
         <v>1.3027618551328817</v>
       </c>
-      <c r="J113" s="214"/>
+      <c r="J113" s="236"/>
       <c r="K113" s="19">
         <f t="shared" si="26"/>
         <v>1617.0038056437222</v>
       </c>
     </row>
-    <row r="114" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="114" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D114" s="33">
         <v>6</v>
       </c>
-      <c r="E114" s="213">
+      <c r="E114" s="235">
         <f t="shared" si="23"/>
         <v>5.9405940594059405</v>
       </c>
-      <c r="F114" s="214"/>
-      <c r="G114" s="213">
+      <c r="F114" s="236"/>
+      <c r="G114" s="235">
         <f t="shared" si="24"/>
         <v>2.9702970297029703</v>
       </c>
-      <c r="H114" s="215"/>
-      <c r="I114" s="215">
+      <c r="H114" s="237"/>
+      <c r="I114" s="237">
         <f t="shared" si="25"/>
         <v>1.5633142261594581</v>
       </c>
-      <c r="J114" s="214"/>
+      <c r="J114" s="236"/>
       <c r="K114" s="19">
         <f t="shared" si="26"/>
         <v>1940.404566772467</v>
       </c>
     </row>
-    <row r="115" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="115" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D115" s="35">
         <v>7</v>
       </c>
-      <c r="E115" s="207">
+      <c r="E115" s="244">
         <f t="shared" si="23"/>
         <v>6.9306930693069306</v>
       </c>
-      <c r="F115" s="208"/>
-      <c r="G115" s="207">
+      <c r="F115" s="245"/>
+      <c r="G115" s="244">
         <f t="shared" si="24"/>
         <v>3.4653465346534649</v>
       </c>
-      <c r="H115" s="209"/>
-      <c r="I115" s="209">
+      <c r="H115" s="246"/>
+      <c r="I115" s="246">
         <f t="shared" si="25"/>
         <v>1.8238665971860342</v>
       </c>
-      <c r="J115" s="208"/>
+      <c r="J115" s="245"/>
       <c r="K115" s="36">
         <f t="shared" si="26"/>
         <v>2263.8053279012111</v>
       </c>
     </row>
-    <row r="116" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="116" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D116" s="35">
         <v>8</v>
       </c>
-      <c r="E116" s="207">
+      <c r="E116" s="244">
         <f t="shared" si="23"/>
         <v>7.9207920792079207</v>
       </c>
-      <c r="F116" s="208"/>
-      <c r="G116" s="207">
+      <c r="F116" s="245"/>
+      <c r="G116" s="244">
         <f t="shared" si="24"/>
         <v>3.9603960396039599</v>
       </c>
-      <c r="H116" s="209"/>
-      <c r="I116" s="209">
+      <c r="H116" s="246"/>
+      <c r="I116" s="246">
         <f t="shared" si="25"/>
         <v>2.0844189682126104</v>
       </c>
-      <c r="J116" s="208"/>
+      <c r="J116" s="245"/>
       <c r="K116" s="36">
         <f t="shared" si="26"/>
         <v>2587.2060890299554</v>
       </c>
     </row>
-    <row r="117" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="117" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D117" s="35">
         <v>9</v>
       </c>
-      <c r="E117" s="207">
+      <c r="E117" s="244">
         <f t="shared" si="23"/>
         <v>8.9108910891089117</v>
       </c>
-      <c r="F117" s="208"/>
-      <c r="G117" s="207">
+      <c r="F117" s="245"/>
+      <c r="G117" s="244">
         <f t="shared" si="24"/>
         <v>4.4554455445544559</v>
       </c>
-      <c r="H117" s="209"/>
-      <c r="I117" s="209">
+      <c r="H117" s="246"/>
+      <c r="I117" s="246">
         <f t="shared" si="25"/>
         <v>2.3449713392391871</v>
       </c>
-      <c r="J117" s="208"/>
+      <c r="J117" s="245"/>
       <c r="K117" s="36">
         <f t="shared" si="26"/>
         <v>2910.6068501587001</v>
       </c>
     </row>
-    <row r="118" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="118" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D118" s="35">
         <v>10</v>
       </c>
-      <c r="E118" s="207">
+      <c r="E118" s="244">
         <f t="shared" si="23"/>
         <v>9.9009900990099009</v>
       </c>
-      <c r="F118" s="208"/>
-      <c r="G118" s="207">
+      <c r="F118" s="245"/>
+      <c r="G118" s="244">
         <f t="shared" si="24"/>
         <v>4.9504950495049505</v>
       </c>
-      <c r="H118" s="209"/>
-      <c r="I118" s="209">
+      <c r="H118" s="246"/>
+      <c r="I118" s="246">
         <f t="shared" si="25"/>
         <v>2.6055237102657633</v>
       </c>
-      <c r="J118" s="208"/>
+      <c r="J118" s="245"/>
       <c r="K118" s="36">
         <f t="shared" si="26"/>
         <v>3234.0076112874444</v>
       </c>
     </row>
-    <row r="119" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="119" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D119" s="35">
         <v>11</v>
       </c>
-      <c r="E119" s="207">
+      <c r="E119" s="244">
         <f t="shared" si="23"/>
         <v>10.891089108910892</v>
       </c>
-      <c r="F119" s="208"/>
-      <c r="G119" s="207">
+      <c r="F119" s="245"/>
+      <c r="G119" s="244">
         <f t="shared" si="24"/>
         <v>5.4455445544554459</v>
       </c>
-      <c r="H119" s="209"/>
-      <c r="I119" s="209">
+      <c r="H119" s="246"/>
+      <c r="I119" s="246">
         <f t="shared" si="25"/>
         <v>2.86607608129234</v>
       </c>
-      <c r="J119" s="208"/>
+      <c r="J119" s="245"/>
       <c r="K119" s="36">
         <f t="shared" si="26"/>
         <v>3557.4083724161896</v>
       </c>
     </row>
-    <row r="120" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D120" s="35">
         <v>12</v>
       </c>
-      <c r="E120" s="210">
+      <c r="E120" s="241">
         <f t="shared" si="23"/>
         <v>11.881188118811881</v>
       </c>
-      <c r="F120" s="211"/>
-      <c r="G120" s="210">
+      <c r="F120" s="242"/>
+      <c r="G120" s="241">
         <f t="shared" si="24"/>
         <v>5.9405940594059405</v>
       </c>
-      <c r="H120" s="212"/>
-      <c r="I120" s="212">
+      <c r="H120" s="243"/>
+      <c r="I120" s="243">
         <f t="shared" si="25"/>
         <v>3.1266284523189163</v>
       </c>
-      <c r="J120" s="211"/>
+      <c r="J120" s="242"/>
       <c r="K120" s="37">
         <f t="shared" si="26"/>
         <v>3880.809133544934</v>
       </c>
     </row>
-    <row r="122" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="122" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C122" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="123" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="124" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="D124" s="262" t="s">
+    <row r="123" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="124" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D124" s="247" t="s">
         <v>16</v>
       </c>
-      <c r="E124" s="265" t="s">
+      <c r="E124" s="250" t="s">
         <v>215</v>
       </c>
-      <c r="F124" s="266"/>
-      <c r="G124" s="267" t="s">
+      <c r="F124" s="251"/>
+      <c r="G124" s="252" t="s">
         <v>12</v>
       </c>
-      <c r="H124" s="268"/>
-      <c r="I124" s="268"/>
-      <c r="J124" s="269"/>
+      <c r="H124" s="253"/>
+      <c r="I124" s="253"/>
+      <c r="J124" s="254"/>
       <c r="K124" s="25"/>
     </row>
-    <row r="125" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="D125" s="263"/>
-      <c r="E125" s="283" t="s">
+    <row r="125" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D125" s="248"/>
+      <c r="E125" s="255" t="s">
         <v>23</v>
       </c>
-      <c r="F125" s="284"/>
-      <c r="G125" s="283" t="s">
+      <c r="F125" s="256"/>
+      <c r="G125" s="255" t="s">
         <v>18</v>
       </c>
-      <c r="H125" s="285"/>
-      <c r="I125" s="285" t="s">
+      <c r="H125" s="257"/>
+      <c r="I125" s="257" t="s">
         <v>19</v>
       </c>
-      <c r="J125" s="284"/>
+      <c r="J125" s="256"/>
       <c r="K125" s="26"/>
     </row>
-    <row r="126" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="D126" s="263"/>
+    <row r="126" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D126" s="248"/>
       <c r="E126" s="113" t="s">
         <v>24</v>
       </c>
@@ -8948,8 +8915,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D127" s="264"/>
+    <row r="127" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D127" s="249"/>
       <c r="E127" s="4" t="s">
         <v>27</v>
       </c>
@@ -8972,313 +8939,313 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="128" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D128" s="31">
         <v>0</v>
       </c>
-      <c r="E128" s="213">
+      <c r="E128" s="235">
         <f>D128*F$107/(F$106+F$107)</f>
         <v>0</v>
       </c>
-      <c r="F128" s="214"/>
-      <c r="G128" s="213">
+      <c r="F128" s="236"/>
+      <c r="G128" s="235">
         <f>E128*H$107/(H$106+H$107)</f>
         <v>0</v>
       </c>
-      <c r="H128" s="215"/>
-      <c r="I128" s="215">
+      <c r="H128" s="237"/>
+      <c r="I128" s="237">
         <f>G128*J$107/(J$106+J$107)</f>
         <v>0</v>
       </c>
-      <c r="J128" s="214"/>
+      <c r="J128" s="236"/>
       <c r="K128" s="32">
         <f>I128*4096/3.3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="129" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D129" s="33">
         <v>1</v>
       </c>
-      <c r="E129" s="213">
+      <c r="E129" s="235">
         <f t="shared" ref="E129:E140" si="27">D129*F$107/(F$106+F$107)</f>
         <v>0.99009900990099009</v>
       </c>
-      <c r="F129" s="214"/>
-      <c r="G129" s="213">
+      <c r="F129" s="236"/>
+      <c r="G129" s="235">
         <f t="shared" ref="G129:G140" si="28">E129*H$107/(H$106+H$107)</f>
         <v>0.49504950495049499</v>
       </c>
-      <c r="H129" s="215"/>
-      <c r="I129" s="215">
+      <c r="H129" s="237"/>
+      <c r="I129" s="237">
         <f t="shared" ref="I129:I140" si="29">G129*J$107/(J$106+J$107)</f>
         <v>0.2605523710265763</v>
       </c>
-      <c r="J129" s="214"/>
+      <c r="J129" s="236"/>
       <c r="K129" s="19">
         <f>I129*4096/3.3</f>
         <v>323.40076112874442</v>
       </c>
     </row>
-    <row r="130" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="130" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D130" s="33">
         <v>2</v>
       </c>
-      <c r="E130" s="213">
+      <c r="E130" s="235">
         <f t="shared" si="27"/>
         <v>1.9801980198019802</v>
       </c>
-      <c r="F130" s="214"/>
-      <c r="G130" s="213">
+      <c r="F130" s="236"/>
+      <c r="G130" s="235">
         <f t="shared" si="28"/>
         <v>0.99009900990098998</v>
       </c>
-      <c r="H130" s="215"/>
-      <c r="I130" s="215">
+      <c r="H130" s="237"/>
+      <c r="I130" s="237">
         <f t="shared" si="29"/>
         <v>0.5211047420531526</v>
       </c>
-      <c r="J130" s="214"/>
+      <c r="J130" s="236"/>
       <c r="K130" s="19">
         <f>I130*4096/3.3</f>
         <v>646.80152225748884</v>
       </c>
     </row>
-    <row r="131" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="131" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D131" s="33">
         <v>3</v>
       </c>
-      <c r="E131" s="213">
+      <c r="E131" s="235">
         <f t="shared" si="27"/>
         <v>2.9702970297029703</v>
       </c>
-      <c r="F131" s="214"/>
-      <c r="G131" s="213">
+      <c r="F131" s="236"/>
+      <c r="G131" s="235">
         <f t="shared" si="28"/>
         <v>1.4851485148514851</v>
       </c>
-      <c r="H131" s="215"/>
-      <c r="I131" s="215">
+      <c r="H131" s="237"/>
+      <c r="I131" s="237">
         <f t="shared" si="29"/>
         <v>0.78165711307972907</v>
       </c>
-      <c r="J131" s="214"/>
+      <c r="J131" s="236"/>
       <c r="K131" s="19">
         <f t="shared" ref="K131:K140" si="30">I131*4096/3.3</f>
         <v>970.20228338623349</v>
       </c>
     </row>
-    <row r="132" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="132" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D132" s="33">
         <v>4</v>
       </c>
-      <c r="E132" s="213">
+      <c r="E132" s="235">
         <f t="shared" si="27"/>
         <v>3.9603960396039604</v>
       </c>
-      <c r="F132" s="214"/>
-      <c r="G132" s="213">
+      <c r="F132" s="236"/>
+      <c r="G132" s="235">
         <f t="shared" si="28"/>
         <v>1.98019801980198</v>
       </c>
-      <c r="H132" s="215"/>
-      <c r="I132" s="215">
+      <c r="H132" s="237"/>
+      <c r="I132" s="237">
         <f t="shared" si="29"/>
         <v>1.0422094841063052</v>
       </c>
-      <c r="J132" s="214"/>
+      <c r="J132" s="236"/>
       <c r="K132" s="19">
         <f t="shared" si="30"/>
         <v>1293.6030445149777</v>
       </c>
     </row>
-    <row r="133" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="133" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D133" s="33">
         <v>5</v>
       </c>
-      <c r="E133" s="213">
+      <c r="E133" s="235">
         <f t="shared" si="27"/>
         <v>4.9504950495049505</v>
       </c>
-      <c r="F133" s="214"/>
-      <c r="G133" s="213">
+      <c r="F133" s="236"/>
+      <c r="G133" s="235">
         <f t="shared" si="28"/>
         <v>2.4752475247524752</v>
       </c>
-      <c r="H133" s="215"/>
-      <c r="I133" s="215">
+      <c r="H133" s="237"/>
+      <c r="I133" s="237">
         <f t="shared" si="29"/>
         <v>1.3027618551328817</v>
       </c>
-      <c r="J133" s="214"/>
+      <c r="J133" s="236"/>
       <c r="K133" s="19">
         <f t="shared" si="30"/>
         <v>1617.0038056437222</v>
       </c>
     </row>
-    <row r="134" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="134" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D134" s="33">
         <v>6</v>
       </c>
-      <c r="E134" s="213">
+      <c r="E134" s="235">
         <f t="shared" si="27"/>
         <v>5.9405940594059405</v>
       </c>
-      <c r="F134" s="214"/>
-      <c r="G134" s="213">
+      <c r="F134" s="236"/>
+      <c r="G134" s="235">
         <f t="shared" si="28"/>
         <v>2.9702970297029703</v>
       </c>
-      <c r="H134" s="215"/>
-      <c r="I134" s="215">
+      <c r="H134" s="237"/>
+      <c r="I134" s="237">
         <f t="shared" si="29"/>
         <v>1.5633142261594581</v>
       </c>
-      <c r="J134" s="214"/>
+      <c r="J134" s="236"/>
       <c r="K134" s="19">
         <f t="shared" si="30"/>
         <v>1940.404566772467</v>
       </c>
     </row>
-    <row r="135" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="135" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D135" s="35">
         <v>7</v>
       </c>
-      <c r="E135" s="207">
+      <c r="E135" s="244">
         <f t="shared" si="27"/>
         <v>6.9306930693069306</v>
       </c>
-      <c r="F135" s="208"/>
-      <c r="G135" s="207">
+      <c r="F135" s="245"/>
+      <c r="G135" s="244">
         <f t="shared" si="28"/>
         <v>3.4653465346534649</v>
       </c>
-      <c r="H135" s="209"/>
-      <c r="I135" s="209">
+      <c r="H135" s="246"/>
+      <c r="I135" s="246">
         <f t="shared" si="29"/>
         <v>1.8238665971860342</v>
       </c>
-      <c r="J135" s="208"/>
+      <c r="J135" s="245"/>
       <c r="K135" s="36">
         <f t="shared" si="30"/>
         <v>2263.8053279012111</v>
       </c>
     </row>
-    <row r="136" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="136" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D136" s="35">
         <v>8</v>
       </c>
-      <c r="E136" s="207">
+      <c r="E136" s="244">
         <f t="shared" si="27"/>
         <v>7.9207920792079207</v>
       </c>
-      <c r="F136" s="208"/>
-      <c r="G136" s="207">
+      <c r="F136" s="245"/>
+      <c r="G136" s="244">
         <f t="shared" si="28"/>
         <v>3.9603960396039599</v>
       </c>
-      <c r="H136" s="209"/>
-      <c r="I136" s="209">
+      <c r="H136" s="246"/>
+      <c r="I136" s="246">
         <f t="shared" si="29"/>
         <v>2.0844189682126104</v>
       </c>
-      <c r="J136" s="208"/>
+      <c r="J136" s="245"/>
       <c r="K136" s="36">
         <f t="shared" si="30"/>
         <v>2587.2060890299554</v>
       </c>
     </row>
-    <row r="137" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="137" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D137" s="35">
         <v>9</v>
       </c>
-      <c r="E137" s="207">
+      <c r="E137" s="244">
         <f t="shared" si="27"/>
         <v>8.9108910891089117</v>
       </c>
-      <c r="F137" s="208"/>
-      <c r="G137" s="207">
+      <c r="F137" s="245"/>
+      <c r="G137" s="244">
         <f t="shared" si="28"/>
         <v>4.4554455445544559</v>
       </c>
-      <c r="H137" s="209"/>
-      <c r="I137" s="209">
+      <c r="H137" s="246"/>
+      <c r="I137" s="246">
         <f t="shared" si="29"/>
         <v>2.3449713392391871</v>
       </c>
-      <c r="J137" s="208"/>
+      <c r="J137" s="245"/>
       <c r="K137" s="36">
         <f t="shared" si="30"/>
         <v>2910.6068501587001</v>
       </c>
     </row>
-    <row r="138" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="138" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D138" s="35">
         <v>10</v>
       </c>
-      <c r="E138" s="207">
+      <c r="E138" s="244">
         <f t="shared" si="27"/>
         <v>9.9009900990099009</v>
       </c>
-      <c r="F138" s="208"/>
-      <c r="G138" s="207">
+      <c r="F138" s="245"/>
+      <c r="G138" s="244">
         <f t="shared" si="28"/>
         <v>4.9504950495049505</v>
       </c>
-      <c r="H138" s="209"/>
-      <c r="I138" s="209">
+      <c r="H138" s="246"/>
+      <c r="I138" s="246">
         <f t="shared" si="29"/>
         <v>2.6055237102657633</v>
       </c>
-      <c r="J138" s="208"/>
+      <c r="J138" s="245"/>
       <c r="K138" s="36">
         <f t="shared" si="30"/>
         <v>3234.0076112874444</v>
       </c>
     </row>
-    <row r="139" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="139" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D139" s="35">
         <v>11</v>
       </c>
-      <c r="E139" s="207">
+      <c r="E139" s="244">
         <f t="shared" si="27"/>
         <v>10.891089108910892</v>
       </c>
-      <c r="F139" s="208"/>
-      <c r="G139" s="207">
+      <c r="F139" s="245"/>
+      <c r="G139" s="244">
         <f t="shared" si="28"/>
         <v>5.4455445544554459</v>
       </c>
-      <c r="H139" s="209"/>
-      <c r="I139" s="209">
+      <c r="H139" s="246"/>
+      <c r="I139" s="246">
         <f t="shared" si="29"/>
         <v>2.86607608129234</v>
       </c>
-      <c r="J139" s="208"/>
+      <c r="J139" s="245"/>
       <c r="K139" s="36">
         <f t="shared" si="30"/>
         <v>3557.4083724161896</v>
       </c>
     </row>
-    <row r="140" spans="4:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D140" s="35">
         <v>12</v>
       </c>
-      <c r="E140" s="210">
+      <c r="E140" s="241">
         <f t="shared" si="27"/>
         <v>11.881188118811881</v>
       </c>
-      <c r="F140" s="211"/>
-      <c r="G140" s="210">
+      <c r="F140" s="242"/>
+      <c r="G140" s="241">
         <f t="shared" si="28"/>
         <v>5.9405940594059405</v>
       </c>
-      <c r="H140" s="212"/>
-      <c r="I140" s="212">
+      <c r="H140" s="243"/>
+      <c r="I140" s="243">
         <f t="shared" si="29"/>
         <v>3.1266284523189163</v>
       </c>
-      <c r="J140" s="211"/>
+      <c r="J140" s="242"/>
       <c r="K140" s="37">
         <f t="shared" si="30"/>
         <v>3880.809133544934</v>
@@ -9286,6 +9253,256 @@
     </row>
   </sheetData>
   <mergeCells count="274">
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="I139:J139"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="I140:J140"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="I136:J136"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="I137:J137"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="I138:J138"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="I135:J135"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="D104:D107"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="G104:J104"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="E84:J84"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="I112:J112"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="I111:J111"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="I95:J95"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="K100:L100"/>
     <mergeCell ref="M100:N100"/>
@@ -9310,256 +9527,6 @@
     <mergeCell ref="M92:N92"/>
     <mergeCell ref="K87:L87"/>
     <mergeCell ref="M87:N87"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="I128:J128"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="I114:J114"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="I111:J111"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="I112:J112"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="D104:D107"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="G104:J104"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="E84:J84"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="I130:J130"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="I132:J132"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="I133:J133"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="I134:J134"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="I135:J135"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="I139:J139"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="I140:J140"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="I136:J136"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="I137:J137"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="I138:J138"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9568,26 +9535,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="H25" sqref="H25:I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="4.5" customWidth="1"/>
-    <col min="4" max="4" width="10.3984375" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>85</v>
@@ -9596,7 +9563,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="79" t="s">
@@ -9609,7 +9576,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="80" t="s">
@@ -9622,7 +9589,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>91</v>
@@ -9631,7 +9598,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="81" t="s">
@@ -9640,7 +9607,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="81" t="s">
@@ -9649,7 +9616,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="89" t="s">
@@ -9658,28 +9625,28 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="291" t="s">
+      <c r="F11" s="314" t="s">
         <v>214</v>
       </c>
-      <c r="G11" s="292"/>
-      <c r="H11" s="292"/>
-      <c r="I11" s="293"/>
-      <c r="J11" s="216" t="s">
+      <c r="G11" s="315"/>
+      <c r="H11" s="315"/>
+      <c r="I11" s="316"/>
+      <c r="J11" s="238" t="s">
         <v>94</v>
       </c>
-      <c r="K11" s="218"/>
-      <c r="L11" s="218"/>
-      <c r="M11" s="219"/>
+      <c r="K11" s="239"/>
+      <c r="L11" s="239"/>
+      <c r="M11" s="240"/>
       <c r="N11" s="82" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -9708,7 +9675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -9741,7 +9708,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -9774,7 +9741,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="46" t="s">
@@ -9783,27 +9750,27 @@
       <c r="E15" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="216" t="s">
+      <c r="F15" s="238" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="217"/>
-      <c r="H15" s="292" t="s">
+      <c r="G15" s="259"/>
+      <c r="H15" s="315" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="293"/>
-      <c r="J15" s="216" t="s">
+      <c r="I15" s="316"/>
+      <c r="J15" s="238" t="s">
         <v>102</v>
       </c>
-      <c r="K15" s="219"/>
-      <c r="L15" s="248" t="s">
+      <c r="K15" s="240"/>
+      <c r="L15" s="278" t="s">
         <v>103</v>
       </c>
-      <c r="M15" s="218"/>
+      <c r="M15" s="239"/>
       <c r="N15" s="161" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="43">
@@ -9813,32 +9780,32 @@
         <f t="shared" ref="E16:E43" si="0">10*EXP(E$5*(1/(D16+273)-1/(25+273)))</f>
         <v>28.736182350842125</v>
       </c>
-      <c r="F16" s="213">
+      <c r="F16" s="235">
         <f>G$12*G$14/(G$13+$E16+G$14)</f>
         <v>0.7331337461034948</v>
       </c>
-      <c r="G16" s="238"/>
-      <c r="H16" s="213">
+      <c r="G16" s="282"/>
+      <c r="H16" s="235">
         <f>F16*I$14/(I$13/2+I$14)</f>
         <v>0.72948631453084067</v>
       </c>
-      <c r="I16" s="238"/>
-      <c r="J16" s="213">
+      <c r="I16" s="282"/>
+      <c r="J16" s="235">
         <f>H16*K$14/(K$13+K$14)</f>
         <v>0.66316937684621879</v>
       </c>
-      <c r="K16" s="214"/>
-      <c r="L16" s="294">
+      <c r="K16" s="236"/>
+      <c r="L16" s="313">
         <f>J16*M$14/(M$13+M$14)</f>
         <v>0.3490365141295888</v>
       </c>
-      <c r="M16" s="215"/>
+      <c r="M16" s="237"/>
       <c r="N16" s="32">
         <f>L16*4096/3.3</f>
         <v>433.22835208327149</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="13">
@@ -9848,32 +9815,32 @@
         <f t="shared" si="0"/>
         <v>22.916440146739884</v>
       </c>
-      <c r="F17" s="223">
+      <c r="F17" s="216">
         <f t="shared" ref="F17:F43" si="1">G$12*G$14/(G$13+$E17+G$14)</f>
         <v>0.89164837062998015</v>
       </c>
-      <c r="G17" s="237"/>
-      <c r="H17" s="213">
+      <c r="G17" s="217"/>
+      <c r="H17" s="235">
         <f t="shared" ref="H17:H43" si="2">F17*I$14/(I$13/2+I$14)</f>
         <v>0.88721230908455739</v>
       </c>
-      <c r="I17" s="238"/>
-      <c r="J17" s="213">
+      <c r="I17" s="282"/>
+      <c r="J17" s="235">
         <f t="shared" ref="J17:J43" si="3">H17*K$14/(K$13+K$14)</f>
         <v>0.80655664462232479</v>
       </c>
-      <c r="K17" s="214"/>
-      <c r="L17" s="241">
+      <c r="K17" s="236"/>
+      <c r="L17" s="234">
         <f t="shared" ref="L17:L43" si="4">J17*M$14/(M$13+M$14)</f>
         <v>0.42450349716964458</v>
       </c>
-      <c r="M17" s="242"/>
+      <c r="M17" s="274"/>
       <c r="N17" s="32">
         <f t="shared" ref="N17:N43" si="5">L17*4096/3.3</f>
         <v>526.8988861838983</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="13">
@@ -9883,32 +9850,32 @@
         <f t="shared" si="0"/>
         <v>18.422056005235852</v>
       </c>
-      <c r="F18" s="223">
+      <c r="F18" s="216">
         <f t="shared" si="1"/>
         <v>1.0703746344401102</v>
       </c>
-      <c r="G18" s="237"/>
-      <c r="H18" s="213">
+      <c r="G18" s="217"/>
+      <c r="H18" s="235">
         <f t="shared" si="2"/>
         <v>1.0650493875025973</v>
       </c>
-      <c r="I18" s="238"/>
-      <c r="J18" s="213">
+      <c r="I18" s="282"/>
+      <c r="J18" s="235">
         <f t="shared" si="3"/>
         <v>0.96822671591145204</v>
       </c>
-      <c r="K18" s="214"/>
-      <c r="L18" s="241">
+      <c r="K18" s="236"/>
+      <c r="L18" s="234">
         <f t="shared" si="4"/>
         <v>0.50959300837444843</v>
       </c>
-      <c r="M18" s="242"/>
+      <c r="M18" s="274"/>
       <c r="N18" s="32">
         <f t="shared" si="5"/>
         <v>632.51301887931538</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="13">
@@ -9918,32 +9885,32 @@
         <f t="shared" si="0"/>
         <v>14.921793401776517</v>
       </c>
-      <c r="F19" s="223">
+      <c r="F19" s="216">
         <f t="shared" si="1"/>
         <v>1.2683787149767052</v>
       </c>
-      <c r="G19" s="237"/>
-      <c r="H19" s="213">
+      <c r="G19" s="217"/>
+      <c r="H19" s="235">
         <f t="shared" si="2"/>
         <v>1.2620683731111495</v>
       </c>
-      <c r="I19" s="238"/>
-      <c r="J19" s="213">
+      <c r="I19" s="282"/>
+      <c r="J19" s="235">
         <f t="shared" si="3"/>
         <v>1.1473348846464995</v>
       </c>
-      <c r="K19" s="214"/>
-      <c r="L19" s="241">
+      <c r="K19" s="236"/>
+      <c r="L19" s="234">
         <f t="shared" si="4"/>
         <v>0.60386046560342077</v>
       </c>
-      <c r="M19" s="242"/>
+      <c r="M19" s="274"/>
       <c r="N19" s="32">
         <f t="shared" si="5"/>
         <v>749.51892942776112</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="13">
@@ -9953,32 +9920,32 @@
         <f t="shared" si="0"/>
         <v>12.173834597770357</v>
       </c>
-      <c r="F20" s="223">
+      <c r="F20" s="216">
         <f t="shared" si="1"/>
         <v>1.4838781647555934</v>
       </c>
-      <c r="G20" s="237"/>
-      <c r="H20" s="213">
+      <c r="G20" s="217"/>
+      <c r="H20" s="235">
         <f t="shared" si="2"/>
         <v>1.4764956863239738</v>
       </c>
-      <c r="I20" s="238"/>
-      <c r="J20" s="213">
+      <c r="I20" s="282"/>
+      <c r="J20" s="235">
         <f t="shared" si="3"/>
         <v>1.342268805749067</v>
       </c>
-      <c r="K20" s="214"/>
-      <c r="L20" s="241">
+      <c r="K20" s="236"/>
+      <c r="L20" s="234">
         <f t="shared" si="4"/>
         <v>0.7064572661837194</v>
       </c>
-      <c r="M20" s="242"/>
+      <c r="M20" s="274"/>
       <c r="N20" s="32">
         <f t="shared" si="5"/>
         <v>876.86332190561052</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="22">
@@ -9988,32 +9955,32 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F21" s="227">
+      <c r="F21" s="283">
         <f t="shared" si="1"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="G21" s="295"/>
-      <c r="H21" s="296">
+      <c r="G21" s="307"/>
+      <c r="H21" s="308">
         <f t="shared" si="2"/>
         <v>1.7057569296375266</v>
       </c>
-      <c r="I21" s="297"/>
-      <c r="J21" s="296">
+      <c r="I21" s="309"/>
+      <c r="J21" s="308">
         <f t="shared" si="3"/>
         <v>1.5506881178522969</v>
       </c>
-      <c r="K21" s="298"/>
-      <c r="L21" s="299">
+      <c r="K21" s="310"/>
+      <c r="L21" s="311">
         <f t="shared" si="4"/>
         <v>0.81615164097489312</v>
       </c>
-      <c r="M21" s="300"/>
+      <c r="M21" s="312"/>
       <c r="N21" s="88">
         <f t="shared" si="5"/>
         <v>1013.0173095252007</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="13">
@@ -10023,32 +9990,32 @@
         <f t="shared" si="0"/>
         <v>8.2678385850558751</v>
       </c>
-      <c r="F22" s="223">
+      <c r="F22" s="216">
         <f t="shared" si="1"/>
         <v>1.9563348371110549</v>
       </c>
-      <c r="G22" s="237"/>
-      <c r="H22" s="213">
+      <c r="G22" s="217"/>
+      <c r="H22" s="235">
         <f t="shared" si="2"/>
         <v>1.9466018279711987</v>
       </c>
-      <c r="I22" s="238"/>
-      <c r="J22" s="213">
+      <c r="I22" s="282"/>
+      <c r="J22" s="235">
         <f t="shared" si="3"/>
         <v>1.7696380254283626</v>
       </c>
-      <c r="K22" s="214"/>
-      <c r="L22" s="241">
+      <c r="K22" s="236"/>
+      <c r="L22" s="234">
         <f t="shared" si="4"/>
         <v>0.93138843443598029</v>
       </c>
-      <c r="M22" s="242"/>
+      <c r="M22" s="274"/>
       <c r="N22" s="32">
         <f t="shared" si="5"/>
         <v>1156.05061437872</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="13">
@@ -10058,32 +10025,32 @@
         <f t="shared" si="0"/>
         <v>6.8780615308459092</v>
       </c>
-      <c r="F23" s="223">
+      <c r="F23" s="216">
         <f t="shared" si="1"/>
         <v>2.2062754408904039</v>
       </c>
-      <c r="G23" s="237"/>
-      <c r="H23" s="213">
+      <c r="G23" s="217"/>
+      <c r="H23" s="235">
         <f t="shared" si="2"/>
         <v>2.195298946159606</v>
       </c>
-      <c r="I23" s="238"/>
-      <c r="J23" s="213">
+      <c r="I23" s="282"/>
+      <c r="J23" s="235">
         <f t="shared" si="3"/>
         <v>1.9957263146905511</v>
       </c>
-      <c r="K23" s="214"/>
-      <c r="L23" s="241">
+      <c r="K23" s="236"/>
+      <c r="L23" s="234">
         <f t="shared" si="4"/>
         <v>1.0503822708897637</v>
       </c>
-      <c r="M23" s="242"/>
+      <c r="M23" s="274"/>
       <c r="N23" s="32">
         <f t="shared" si="5"/>
         <v>1303.7472065346885</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="13">
@@ -10093,32 +10060,32 @@
         <f t="shared" si="0"/>
         <v>5.7556406120696577</v>
       </c>
-      <c r="F24" s="223">
+      <c r="F24" s="216">
         <f t="shared" si="1"/>
         <v>2.4601152250634621</v>
       </c>
-      <c r="G24" s="237"/>
-      <c r="H24" s="213">
+      <c r="G24" s="217"/>
+      <c r="H24" s="235">
         <f t="shared" si="2"/>
         <v>2.4478758458342909</v>
       </c>
-      <c r="I24" s="238"/>
-      <c r="J24" s="213">
+      <c r="I24" s="282"/>
+      <c r="J24" s="235">
         <f t="shared" si="3"/>
         <v>2.2253416780311737</v>
       </c>
-      <c r="K24" s="214"/>
-      <c r="L24" s="241">
+      <c r="K24" s="236"/>
+      <c r="L24" s="234">
         <f t="shared" si="4"/>
         <v>1.1712324621216703</v>
       </c>
-      <c r="M24" s="242"/>
+      <c r="M24" s="274"/>
       <c r="N24" s="32">
         <f t="shared" si="5"/>
         <v>1453.747928742534</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="13">
@@ -10128,32 +10095,32 @@
         <f t="shared" si="0"/>
         <v>4.8434450167968297</v>
       </c>
-      <c r="F25" s="223">
+      <c r="F25" s="216">
         <f t="shared" si="1"/>
         <v>2.7138745086802158</v>
       </c>
-      <c r="G25" s="237"/>
-      <c r="H25" s="213">
+      <c r="G25" s="217"/>
+      <c r="H25" s="235">
         <f t="shared" si="2"/>
         <v>2.7003726454529509</v>
       </c>
-      <c r="I25" s="238"/>
-      <c r="J25" s="213">
+      <c r="I25" s="282"/>
+      <c r="J25" s="235">
         <f t="shared" si="3"/>
         <v>2.4548842231390462</v>
       </c>
-      <c r="K25" s="214"/>
-      <c r="L25" s="241">
+      <c r="K25" s="236"/>
+      <c r="L25" s="234">
         <f t="shared" si="4"/>
         <v>1.292044327967919</v>
       </c>
-      <c r="M25" s="242"/>
+      <c r="M25" s="274"/>
       <c r="N25" s="32">
         <f t="shared" si="5"/>
         <v>1603.7010810171505</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="13">
@@ -10163,32 +10130,32 @@
         <f t="shared" si="0"/>
         <v>4.0976530296287903</v>
       </c>
-      <c r="F26" s="223">
+      <c r="F26" s="216">
         <f t="shared" si="1"/>
         <v>2.9638217286151365</v>
       </c>
-      <c r="G26" s="237"/>
-      <c r="H26" s="213">
+      <c r="G26" s="217"/>
+      <c r="H26" s="235">
         <f t="shared" si="2"/>
         <v>2.9490763468807328</v>
       </c>
-      <c r="I26" s="238"/>
-      <c r="J26" s="213">
+      <c r="I26" s="282"/>
+      <c r="J26" s="235">
         <f t="shared" si="3"/>
         <v>2.6809784971643027</v>
       </c>
-      <c r="K26" s="214"/>
-      <c r="L26" s="241">
+      <c r="K26" s="236"/>
+      <c r="L26" s="234">
         <f t="shared" si="4"/>
         <v>1.4110413142970015</v>
       </c>
-      <c r="M26" s="242"/>
+      <c r="M26" s="274"/>
       <c r="N26" s="32">
         <f t="shared" si="5"/>
         <v>1751.4015828365207</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="13">
@@ -10198,32 +10165,32 @@
         <f t="shared" si="0"/>
         <v>3.4844159169752453</v>
       </c>
-      <c r="F27" s="223">
+      <c r="F27" s="216">
         <f t="shared" si="1"/>
         <v>3.2066630537683118</v>
       </c>
-      <c r="G27" s="237"/>
-      <c r="H27" s="213">
+      <c r="G27" s="217"/>
+      <c r="H27" s="235">
         <f t="shared" si="2"/>
         <v>3.190709506237126</v>
       </c>
-      <c r="I27" s="238"/>
-      <c r="J27" s="213">
+      <c r="I27" s="282"/>
+      <c r="J27" s="235">
         <f t="shared" si="3"/>
         <v>2.9006450056701145</v>
       </c>
-      <c r="K27" s="214"/>
-      <c r="L27" s="241">
+      <c r="K27" s="236"/>
+      <c r="L27" s="234">
         <f t="shared" si="4"/>
         <v>1.5266552661421655</v>
       </c>
-      <c r="M27" s="242"/>
+      <c r="M27" s="274"/>
       <c r="N27" s="32">
         <f t="shared" si="5"/>
         <v>1894.9030212479729</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="13">
@@ -10233,32 +10200,32 @@
         <f t="shared" si="0"/>
         <v>2.9774129048675317</v>
       </c>
-      <c r="F28" s="223">
+      <c r="F28" s="216">
         <f t="shared" si="1"/>
         <v>3.4396703086407996</v>
       </c>
-      <c r="G28" s="237"/>
-      <c r="H28" s="213">
+      <c r="G28" s="217"/>
+      <c r="H28" s="235">
         <f t="shared" si="2"/>
         <v>3.4225575210356212</v>
       </c>
-      <c r="I28" s="238"/>
-      <c r="J28" s="213">
+      <c r="I28" s="282"/>
+      <c r="J28" s="235">
         <f t="shared" si="3"/>
         <v>3.1114159282142011</v>
       </c>
-      <c r="K28" s="214"/>
-      <c r="L28" s="241">
+      <c r="K28" s="236"/>
+      <c r="L28" s="234">
         <f t="shared" si="4"/>
         <v>1.6375873306390532</v>
       </c>
-      <c r="M28" s="242"/>
+      <c r="M28" s="274"/>
       <c r="N28" s="32">
         <f t="shared" si="5"/>
         <v>2032.5932443325946</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="85">
@@ -10268,32 +10235,32 @@
         <f t="shared" si="0"/>
         <v>2.5560455288640753</v>
       </c>
-      <c r="F29" s="301">
+      <c r="F29" s="300">
         <f t="shared" si="1"/>
         <v>3.6607433390045916</v>
       </c>
-      <c r="G29" s="302"/>
-      <c r="H29" s="303">
+      <c r="G29" s="301"/>
+      <c r="H29" s="302">
         <f t="shared" si="2"/>
         <v>3.6425306855767081</v>
       </c>
-      <c r="I29" s="304"/>
-      <c r="J29" s="303">
+      <c r="I29" s="303"/>
+      <c r="J29" s="302">
         <f t="shared" si="3"/>
         <v>3.3113915323424621</v>
       </c>
-      <c r="K29" s="305"/>
-      <c r="L29" s="306">
+      <c r="K29" s="304"/>
+      <c r="L29" s="305">
         <f t="shared" si="4"/>
         <v>1.7428376486012958</v>
       </c>
-      <c r="M29" s="307"/>
+      <c r="M29" s="306"/>
       <c r="N29" s="167">
         <f t="shared" si="5"/>
         <v>2163.2312147487601</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="85">
@@ -10303,32 +10270,32 @@
         <f t="shared" si="0"/>
         <v>2.2040943852236698</v>
       </c>
-      <c r="F30" s="301">
+      <c r="F30" s="300">
         <f t="shared" si="1"/>
         <v>3.8684131010580609</v>
       </c>
-      <c r="G30" s="302"/>
-      <c r="H30" s="303">
+      <c r="G30" s="301"/>
+      <c r="H30" s="302">
         <f t="shared" si="2"/>
         <v>3.8491672647343891</v>
       </c>
-      <c r="I30" s="304"/>
-      <c r="J30" s="303">
+      <c r="I30" s="303"/>
+      <c r="J30" s="302">
         <f t="shared" si="3"/>
         <v>3.4992429679403538</v>
       </c>
-      <c r="K30" s="305"/>
-      <c r="L30" s="306">
+      <c r="K30" s="304"/>
+      <c r="L30" s="305">
         <f t="shared" si="4"/>
         <v>1.841706825231765</v>
       </c>
-      <c r="M30" s="307"/>
+      <c r="M30" s="306"/>
       <c r="N30" s="167">
         <f t="shared" si="5"/>
         <v>2285.9488351967607</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="85">
@@ -10338,32 +10305,32 @@
         <f t="shared" si="0"/>
         <v>1.9087128427862368</v>
       </c>
-      <c r="F31" s="301">
+      <c r="F31" s="300">
         <f t="shared" si="1"/>
         <v>4.0617983372302229</v>
       </c>
-      <c r="G31" s="302"/>
-      <c r="H31" s="303">
+      <c r="G31" s="301"/>
+      <c r="H31" s="302">
         <f t="shared" si="2"/>
         <v>4.0415903853037038</v>
       </c>
-      <c r="I31" s="304"/>
-      <c r="J31" s="303">
+      <c r="I31" s="303"/>
+      <c r="J31" s="302">
         <f t="shared" si="3"/>
         <v>3.6741730775488217</v>
       </c>
-      <c r="K31" s="305"/>
-      <c r="L31" s="306">
+      <c r="K31" s="304"/>
+      <c r="L31" s="305">
         <f t="shared" si="4"/>
         <v>1.9337753039730639</v>
       </c>
-      <c r="M31" s="307"/>
+      <c r="M31" s="306"/>
       <c r="N31" s="167">
         <f t="shared" si="5"/>
         <v>2400.2253469920211</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="13">
@@ -10373,32 +10340,32 @@
         <f t="shared" si="0"/>
         <v>1.659668099602003</v>
       </c>
-      <c r="F32" s="223">
+      <c r="F32" s="216">
         <f t="shared" si="1"/>
         <v>4.2405313487707375</v>
       </c>
-      <c r="G32" s="237"/>
-      <c r="H32" s="213">
+      <c r="G32" s="217"/>
+      <c r="H32" s="235">
         <f t="shared" si="2"/>
         <v>4.2194341778813307</v>
       </c>
-      <c r="I32" s="238"/>
-      <c r="J32" s="213">
+      <c r="I32" s="282"/>
+      <c r="J32" s="235">
         <f t="shared" si="3"/>
         <v>3.8358492526193917</v>
       </c>
-      <c r="K32" s="214"/>
-      <c r="L32" s="241">
+      <c r="K32" s="236"/>
+      <c r="L32" s="234">
         <f t="shared" si="4"/>
         <v>2.0188680276944164</v>
       </c>
-      <c r="M32" s="242"/>
+      <c r="M32" s="274"/>
       <c r="N32" s="32">
         <f t="shared" si="5"/>
         <v>2505.8434671019181</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="83">
@@ -10408,32 +10375,32 @@
         <f t="shared" si="0"/>
         <v>1.4487650768972604</v>
       </c>
-      <c r="F33" s="308">
+      <c r="F33" s="293">
         <f t="shared" si="1"/>
         <v>4.4046677845884554</v>
       </c>
-      <c r="G33" s="309"/>
-      <c r="H33" s="310">
+      <c r="G33" s="294"/>
+      <c r="H33" s="295">
         <f t="shared" si="2"/>
         <v>4.3827540145158759</v>
       </c>
-      <c r="I33" s="311"/>
-      <c r="J33" s="310">
+      <c r="I33" s="296"/>
+      <c r="J33" s="295">
         <f t="shared" si="3"/>
         <v>3.9843218313780686</v>
       </c>
-      <c r="K33" s="312"/>
-      <c r="L33" s="313">
+      <c r="K33" s="297"/>
+      <c r="L33" s="298">
         <f t="shared" si="4"/>
         <v>2.0970114901989834</v>
       </c>
-      <c r="M33" s="314"/>
+      <c r="M33" s="299"/>
       <c r="N33" s="87">
         <f t="shared" si="5"/>
         <v>2602.8360799560714</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="13">
@@ -10443,32 +10410,32 @@
         <f t="shared" si="0"/>
         <v>1.269406378592723</v>
       </c>
-      <c r="F34" s="223">
+      <c r="F34" s="216">
         <f t="shared" si="1"/>
         <v>4.5545927331589811</v>
       </c>
-      <c r="G34" s="237"/>
-      <c r="H34" s="213">
+      <c r="G34" s="217"/>
+      <c r="H34" s="235">
         <f t="shared" si="2"/>
         <v>4.5319330678198817</v>
       </c>
-      <c r="I34" s="238"/>
-      <c r="J34" s="213">
+      <c r="I34" s="282"/>
+      <c r="J34" s="235">
         <f t="shared" si="3"/>
         <v>4.1199391525635285</v>
       </c>
-      <c r="K34" s="214"/>
-      <c r="L34" s="241">
+      <c r="K34" s="236"/>
+      <c r="L34" s="234">
         <f t="shared" si="4"/>
         <v>2.1683890276650151</v>
       </c>
-      <c r="M34" s="242"/>
+      <c r="M34" s="274"/>
       <c r="N34" s="32">
         <f t="shared" si="5"/>
         <v>2691.4307446411826</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="13">
@@ -10478,32 +10445,32 @@
         <f t="shared" si="0"/>
         <v>1.1162541665631174</v>
       </c>
-      <c r="F35" s="223">
+      <c r="F35" s="216">
         <f t="shared" si="1"/>
         <v>4.6909319237597966</v>
       </c>
-      <c r="G35" s="237"/>
-      <c r="H35" s="213">
+      <c r="G35" s="217"/>
+      <c r="H35" s="235">
         <f t="shared" si="2"/>
         <v>4.6675939539898472</v>
       </c>
-      <c r="I35" s="238"/>
-      <c r="J35" s="213">
+      <c r="I35" s="282"/>
+      <c r="J35" s="235">
         <f t="shared" si="3"/>
         <v>4.2432672308998614</v>
       </c>
-      <c r="K35" s="214"/>
-      <c r="L35" s="241">
+      <c r="K35" s="236"/>
+      <c r="L35" s="234">
         <f t="shared" si="4"/>
         <v>2.2332985425788743</v>
       </c>
-      <c r="M35" s="242"/>
+      <c r="M35" s="274"/>
       <c r="N35" s="32">
         <f t="shared" si="5"/>
         <v>2771.9972213342635</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="13">
@@ -10513,32 +10480,32 @@
         <f t="shared" si="0"/>
         <v>0.9849688495932919</v>
       </c>
-      <c r="F36" s="223">
+      <c r="F36" s="216">
         <f t="shared" si="1"/>
         <v>4.8144734148054074</v>
       </c>
-      <c r="G36" s="237"/>
-      <c r="H36" s="213">
+      <c r="G36" s="217"/>
+      <c r="H36" s="235">
         <f t="shared" si="2"/>
         <v>4.7905208107516488</v>
       </c>
-      <c r="I36" s="238"/>
-      <c r="J36" s="213">
+      <c r="I36" s="282"/>
+      <c r="J36" s="235">
         <f t="shared" si="3"/>
         <v>4.3550189188651354</v>
       </c>
-      <c r="K36" s="214"/>
-      <c r="L36" s="241">
+      <c r="K36" s="236"/>
+      <c r="L36" s="234">
         <f t="shared" si="4"/>
         <v>2.2921152204553343</v>
       </c>
-      <c r="M36" s="242"/>
+      <c r="M36" s="274"/>
       <c r="N36" s="32">
         <f t="shared" si="5"/>
         <v>2845.0011948439546</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="13">
@@ -10548,32 +10515,32 @@
         <f t="shared" si="0"/>
         <v>0.87200601488917528</v>
       </c>
-      <c r="F37" s="223">
+      <c r="F37" s="216">
         <f t="shared" si="1"/>
         <v>4.9261022927012821</v>
       </c>
-      <c r="G37" s="237"/>
-      <c r="H37" s="213">
+      <c r="G37" s="217"/>
+      <c r="H37" s="235">
         <f t="shared" si="2"/>
         <v>4.9015943210958035</v>
       </c>
-      <c r="I37" s="238"/>
-      <c r="J37" s="213">
+      <c r="I37" s="282"/>
+      <c r="J37" s="235">
         <f t="shared" si="3"/>
         <v>4.455994837359821</v>
       </c>
-      <c r="K37" s="214"/>
-      <c r="L37" s="241">
+      <c r="K37" s="236"/>
+      <c r="L37" s="234">
         <f t="shared" si="4"/>
         <v>2.3452604407156952</v>
       </c>
-      <c r="M37" s="242"/>
+      <c r="M37" s="274"/>
       <c r="N37" s="32">
         <f t="shared" si="5"/>
         <v>2910.9656864156022</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="13">
@@ -10583,32 +10550,32 @@
         <f t="shared" si="0"/>
         <v>0.77445777684075767</v>
       </c>
-      <c r="F38" s="223">
+      <c r="F38" s="216">
         <f t="shared" si="1"/>
         <v>5.0267488208641602</v>
       </c>
-      <c r="G38" s="237"/>
-      <c r="H38" s="213">
+      <c r="G38" s="217"/>
+      <c r="H38" s="235">
         <f t="shared" si="2"/>
         <v>5.0017401202628458</v>
       </c>
-      <c r="I38" s="238"/>
-      <c r="J38" s="213">
+      <c r="I38" s="282"/>
+      <c r="J38" s="235">
         <f t="shared" si="3"/>
         <v>4.5470364729662229</v>
       </c>
-      <c r="K38" s="214"/>
-      <c r="L38" s="241">
+      <c r="K38" s="236"/>
+      <c r="L38" s="234">
         <f t="shared" si="4"/>
         <v>2.393177091034854</v>
       </c>
-      <c r="M38" s="242"/>
+      <c r="M38" s="274"/>
       <c r="N38" s="32">
         <f t="shared" si="5"/>
         <v>2970.4404135996251</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D39" s="13">
         <v>115</v>
       </c>
@@ -10616,32 +10583,32 @@
         <f t="shared" si="0"/>
         <v>0.68992818874834783</v>
       </c>
-      <c r="F39" s="223">
+      <c r="F39" s="216">
         <f t="shared" si="1"/>
         <v>5.1173491435494967</v>
       </c>
-      <c r="G39" s="237"/>
-      <c r="H39" s="213">
+      <c r="G39" s="217"/>
+      <c r="H39" s="235">
         <f t="shared" si="2"/>
         <v>5.0918896950741264</v>
       </c>
-      <c r="I39" s="238"/>
-      <c r="J39" s="213">
+      <c r="I39" s="282"/>
+      <c r="J39" s="235">
         <f t="shared" si="3"/>
         <v>4.6289906318855696</v>
       </c>
-      <c r="K39" s="214"/>
-      <c r="L39" s="241">
+      <c r="K39" s="236"/>
+      <c r="L39" s="234">
         <f t="shared" si="4"/>
         <v>2.4363108588871416</v>
       </c>
-      <c r="M39" s="242"/>
+      <c r="M39" s="274"/>
       <c r="N39" s="32">
         <f t="shared" si="5"/>
         <v>3023.9785690914341</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D40" s="13">
         <v>120</v>
       </c>
@@ -10649,32 +10616,32 @@
         <f t="shared" si="0"/>
         <v>0.61643491771497372</v>
       </c>
-      <c r="F40" s="223">
+      <c r="F40" s="216">
         <f t="shared" si="1"/>
         <v>5.1988169286007029</v>
       </c>
-      <c r="G40" s="237"/>
-      <c r="H40" s="213">
+      <c r="G40" s="217"/>
+      <c r="H40" s="235">
         <f t="shared" si="2"/>
         <v>5.1729521677618937</v>
       </c>
-      <c r="I40" s="238"/>
-      <c r="J40" s="213">
+      <c r="I40" s="282"/>
+      <c r="J40" s="235">
         <f t="shared" si="3"/>
         <v>4.7026837888744488</v>
       </c>
-      <c r="K40" s="214"/>
-      <c r="L40" s="241">
+      <c r="K40" s="236"/>
+      <c r="L40" s="234">
         <f t="shared" si="4"/>
         <v>2.4750967309865519</v>
       </c>
-      <c r="M40" s="242"/>
+      <c r="M40" s="274"/>
       <c r="N40" s="32">
         <f t="shared" si="5"/>
         <v>3072.120063673005</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D41" s="13">
         <v>125</v>
       </c>
@@ -10682,32 +10649,32 @@
         <f t="shared" si="0"/>
         <v>0.55233127421944694</v>
       </c>
-      <c r="F41" s="223">
+      <c r="F41" s="216">
         <f t="shared" si="1"/>
         <v>5.2720240585116676</v>
       </c>
-      <c r="G41" s="237"/>
-      <c r="H41" s="213">
+      <c r="G41" s="217"/>
+      <c r="H41" s="235">
         <f t="shared" si="2"/>
         <v>5.245795083096187</v>
       </c>
-      <c r="I41" s="238"/>
-      <c r="J41" s="213">
+      <c r="I41" s="282"/>
+      <c r="J41" s="235">
         <f t="shared" si="3"/>
         <v>4.7689046209965333</v>
       </c>
-      <c r="K41" s="214"/>
-      <c r="L41" s="241">
+      <c r="K41" s="236"/>
+      <c r="L41" s="234">
         <f t="shared" si="4"/>
         <v>2.5099498005244913</v>
       </c>
-      <c r="M41" s="242"/>
+      <c r="M41" s="274"/>
       <c r="N41" s="32">
         <f t="shared" si="5"/>
         <v>3115.3801160449448</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D42" s="13">
         <v>130</v>
       </c>
@@ -10715,32 +10682,32 @@
         <f t="shared" si="0"/>
         <v>0.49624409633915206</v>
       </c>
-      <c r="F42" s="223">
+      <c r="F42" s="216">
         <f t="shared" si="1"/>
         <v>5.3377884931871984</v>
       </c>
-      <c r="G42" s="237"/>
-      <c r="H42" s="213">
+      <c r="G42" s="217"/>
+      <c r="H42" s="235">
         <f t="shared" si="2"/>
         <v>5.3112323315295509</v>
       </c>
-      <c r="I42" s="238"/>
-      <c r="J42" s="213">
+      <c r="I42" s="282"/>
+      <c r="J42" s="235">
         <f t="shared" si="3"/>
         <v>4.8283930286632284</v>
       </c>
-      <c r="K42" s="214"/>
-      <c r="L42" s="241">
+      <c r="K42" s="236"/>
+      <c r="L42" s="234">
         <f t="shared" si="4"/>
         <v>2.5412594887701201</v>
       </c>
-      <c r="M42" s="242"/>
+      <c r="M42" s="274"/>
       <c r="N42" s="32">
         <f t="shared" si="5"/>
         <v>3154.2420806067917</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D43" s="14">
         <v>135</v>
       </c>
@@ -10748,26 +10715,26 @@
         <f t="shared" si="0"/>
         <v>0.44702404336298512</v>
       </c>
-      <c r="F43" s="235">
+      <c r="F43" s="210">
         <f t="shared" si="1"/>
         <v>5.3968676053863689</v>
       </c>
-      <c r="G43" s="239"/>
-      <c r="H43" s="213">
+      <c r="G43" s="211"/>
+      <c r="H43" s="235">
         <f t="shared" si="2"/>
         <v>5.3700175177973817</v>
       </c>
-      <c r="I43" s="238"/>
-      <c r="J43" s="213">
+      <c r="I43" s="282"/>
+      <c r="J43" s="235">
         <f t="shared" si="3"/>
         <v>4.8818341070885287</v>
       </c>
-      <c r="K43" s="214"/>
-      <c r="L43" s="270">
+      <c r="K43" s="236"/>
+      <c r="L43" s="258">
         <f t="shared" si="4"/>
         <v>2.5693863721518571</v>
       </c>
-      <c r="M43" s="315"/>
+      <c r="M43" s="292"/>
       <c r="N43" s="32">
         <f t="shared" si="5"/>
         <v>3189.1535091921232</v>
@@ -10775,6 +10742,108 @@
     </row>
   </sheetData>
   <mergeCells count="118">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="J42:K42"/>
@@ -10791,108 +10860,6 @@
     <mergeCell ref="H41:I41"/>
     <mergeCell ref="J41:K41"/>
     <mergeCell ref="L41:M41"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10905,26 +10872,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.69921875" customWidth="1"/>
-    <col min="3" max="3" width="10.8984375" customWidth="1"/>
-    <col min="4" max="4" width="49.19921875" customWidth="1"/>
+    <col min="1" max="2" width="3.75" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="49.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="46" t="s">
         <v>49</v>
       </c>
@@ -10932,102 +10899,102 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C5" s="316" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="317" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C6" s="317"/>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="318"/>
       <c r="D6" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C7" s="317"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="318"/>
       <c r="D7" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C8" s="317"/>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="318"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C9" s="317" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="318" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C10" s="317"/>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="318"/>
       <c r="D10" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C11" s="317"/>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="318"/>
       <c r="D11" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C12" s="317"/>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="318"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C13" s="317" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="318" t="s">
         <v>358</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C14" s="317"/>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="318"/>
       <c r="D14" s="11" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C15" s="317"/>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="318"/>
       <c r="D15" s="112" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C16" s="317"/>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="318"/>
       <c r="D16" s="112" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="318"/>
+    <row r="17" spans="3:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="319"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C18" s="317" t="s">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="318" t="s">
         <v>164</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C19" s="317"/>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="318"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C20" s="317"/>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="318"/>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C21" s="317"/>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="318"/>
       <c r="D21" s="11"/>
     </row>
   </sheetData>
@@ -11043,38 +11010,38 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
-    <col min="2" max="2" width="4.69921875" customWidth="1"/>
-    <col min="3" max="3" width="6.69921875" style="72" customWidth="1"/>
-    <col min="4" max="4" width="30.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="4.75" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="72" customWidth="1"/>
+    <col min="4" max="4" width="30.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="6" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="97" t="s">
         <v>369</v>
       </c>
       <c r="C3"/>
     </row>
-    <row r="4" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="72"/>
       <c r="C4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="104" t="s">
         <v>112</v>
       </c>
@@ -11094,7 +11061,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="2:8" s="106" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" s="106" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C6" s="94">
         <v>1</v>
       </c>
@@ -11112,7 +11079,7 @@
       </c>
       <c r="H6" s="108"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C7" s="95">
         <v>2</v>
       </c>
@@ -11130,7 +11097,7 @@
       </c>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C8" s="95">
         <v>3</v>
       </c>
@@ -11148,7 +11115,7 @@
       </c>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" ht="33" x14ac:dyDescent="0.3">
       <c r="C9" s="95">
         <v>4</v>
       </c>
@@ -11168,7 +11135,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" ht="33" x14ac:dyDescent="0.3">
       <c r="C10" s="95">
         <v>5</v>
       </c>
@@ -11188,7 +11155,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" ht="33" x14ac:dyDescent="0.3">
       <c r="C11" s="95">
         <v>6</v>
       </c>
@@ -11208,7 +11175,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C12" s="95">
         <v>7</v>
       </c>
@@ -11228,7 +11195,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C13" s="95">
         <v>8</v>
       </c>
@@ -11248,7 +11215,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C14" s="95">
         <v>9</v>
       </c>
@@ -11268,7 +11235,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C15" s="95">
         <v>10</v>
       </c>
@@ -11288,7 +11255,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="96">
         <v>11</v>
       </c>
@@ -11308,7 +11275,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C17" s="102"/>
       <c r="D17" s="103"/>
       <c r="E17" s="55"/>
@@ -11316,12 +11283,12 @@
       <c r="G17" s="103"/>
       <c r="H17" s="55"/>
     </row>
-    <row r="18" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="97" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="98" t="s">
         <v>112</v>
       </c>
@@ -11335,7 +11302,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C20" s="94">
         <v>1</v>
       </c>
@@ -11349,7 +11316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="70.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:8" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="96">
         <v>2</v>
       </c>
@@ -11363,12 +11330,12 @@
         <v>381</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="97" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" s="98" t="s">
         <v>112</v>
       </c>
@@ -11382,7 +11349,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C25" s="94">
         <v>1</v>
       </c>
@@ -11396,7 +11363,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C26" s="95">
         <v>2</v>
       </c>
@@ -11410,7 +11377,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C27" s="95">
         <v>3</v>
       </c>
@@ -11424,7 +11391,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:8" ht="66" x14ac:dyDescent="0.3">
       <c r="C28" s="95">
         <v>4</v>
       </c>
@@ -11438,7 +11405,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="C29" s="95">
         <v>5</v>
       </c>
@@ -11452,7 +11419,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="C30" s="95">
         <v>6</v>
       </c>
@@ -11466,7 +11433,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="96">
         <v>7</v>
       </c>
@@ -11480,31 +11447,31 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C33"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37"/>
     </row>
@@ -11516,161 +11483,161 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B4" s="319">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="320">
         <v>1</v>
       </c>
-      <c r="C4" s="319" t="s">
+      <c r="C4" s="320" t="s">
         <v>350</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="319"/>
-      <c r="C5" s="319"/>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="320"/>
+      <c r="C5" s="320"/>
       <c r="D5" s="90" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B6" s="319"/>
-      <c r="C6" s="319"/>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="320"/>
+      <c r="C6" s="320"/>
       <c r="D6" s="90" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="319">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="320">
         <v>2</v>
       </c>
-      <c r="C7" s="319" t="s">
+      <c r="C7" s="320" t="s">
         <v>356</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B8" s="319"/>
-      <c r="C8" s="319"/>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="320"/>
+      <c r="C8" s="320"/>
       <c r="D8" s="90" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B9" s="319"/>
-      <c r="C9" s="319"/>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="320"/>
+      <c r="C9" s="320"/>
       <c r="D9" s="90" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B10" s="319">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="320">
         <v>3</v>
       </c>
-      <c r="C10" s="319" t="s">
+      <c r="C10" s="320" t="s">
         <v>361</v>
       </c>
       <c r="D10" s="90" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B11" s="319"/>
-      <c r="C11" s="319"/>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="320"/>
+      <c r="C11" s="320"/>
       <c r="D11" s="90" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B12" s="319"/>
-      <c r="C12" s="319"/>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="320"/>
+      <c r="C12" s="320"/>
       <c r="D12" s="90" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="326">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="324">
         <v>4</v>
       </c>
-      <c r="C13" s="323" t="s">
+      <c r="C13" s="321" t="s">
         <v>377</v>
       </c>
       <c r="D13" s="90" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B14" s="327"/>
-      <c r="C14" s="324"/>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="325"/>
+      <c r="C14" s="322"/>
       <c r="D14" s="90" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B15" s="328"/>
-      <c r="C15" s="325"/>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="326"/>
+      <c r="C15" s="323"/>
       <c r="D15" s="90" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B16" s="319">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="320">
         <v>5</v>
       </c>
-      <c r="C16" s="319" t="s">
+      <c r="C16" s="320" t="s">
         <v>363</v>
       </c>
       <c r="D16" s="90" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B17" s="319"/>
-      <c r="C17" s="319"/>
-      <c r="D17" s="322" t="s">
+    <row r="17" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B17" s="320"/>
+      <c r="C17" s="320"/>
+      <c r="D17" s="207" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="319"/>
-      <c r="C18" s="319"/>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="320"/>
+      <c r="C18" s="320"/>
       <c r="D18" s="90" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>371</v>
       </c>
@@ -11696,29 +11663,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="170"/>
     <col min="3" max="3" width="19" style="181" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.3984375" style="171" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.375" style="171" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40" style="170" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.59765625" style="170" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.59765625" style="170" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="170" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="170" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="170" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.69921875" style="186" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.59765625" style="186" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="186" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" style="186" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="170"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="182" t="s">
         <v>226</v>
       </c>
@@ -11744,7 +11711,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="3:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:13" ht="33" x14ac:dyDescent="0.3">
       <c r="C4" s="194" t="s">
         <v>231</v>
       </c>
@@ -11770,7 +11737,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C5" s="201" t="s">
         <v>237</v>
       </c>
@@ -11796,7 +11763,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C6" s="201" t="s">
         <v>243</v>
       </c>
@@ -11822,7 +11789,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C7" s="201" t="s">
         <v>247</v>
       </c>
@@ -11848,7 +11815,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C8" s="201" t="s">
         <v>251</v>
       </c>
@@ -11872,7 +11839,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="201" t="s">
         <v>255</v>
       </c>
@@ -11896,7 +11863,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C10" s="201" t="s">
         <v>259</v>
       </c>
@@ -11925,7 +11892,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C11" s="183" t="s">
         <v>265</v>
       </c>
@@ -11954,14 +11921,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C12" s="183" t="s">
         <v>270</v>
       </c>
       <c r="D12" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="E12" s="321" t="s">
+      <c r="E12" s="328" t="s">
         <v>272</v>
       </c>
       <c r="F12" s="169">
@@ -11983,14 +11950,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C13" s="183" t="s">
         <v>274</v>
       </c>
       <c r="D13" s="173" t="s">
         <v>275</v>
       </c>
-      <c r="E13" s="321"/>
+      <c r="E13" s="328"/>
       <c r="F13" s="169">
         <v>27</v>
       </c>
@@ -12010,14 +11977,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C14" s="184" t="s">
         <v>279</v>
       </c>
       <c r="D14" s="172" t="s">
         <v>280</v>
       </c>
-      <c r="E14" s="321"/>
+      <c r="E14" s="328"/>
       <c r="F14" s="169">
         <v>28</v>
       </c>
@@ -12037,12 +12004,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C15" s="184" t="s">
         <v>283</v>
       </c>
       <c r="D15" s="172"/>
-      <c r="E15" s="321"/>
+      <c r="E15" s="328"/>
       <c r="F15" s="169">
         <v>29</v>
       </c>
@@ -12062,12 +12029,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C16" s="184" t="s">
         <v>286</v>
       </c>
       <c r="D16" s="172"/>
-      <c r="E16" s="321"/>
+      <c r="E16" s="328"/>
       <c r="F16" s="169">
         <v>30</v>
       </c>
@@ -12087,7 +12054,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="188" t="s">
         <v>289</v>
       </c>
@@ -12116,7 +12083,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="188" t="s">
         <v>294</v>
       </c>
@@ -12145,7 +12112,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="184" t="s">
         <v>298</v>
       </c>
@@ -12174,7 +12141,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="184" t="s">
         <v>302</v>
       </c>
@@ -12203,7 +12170,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="184" t="s">
         <v>306</v>
       </c>
@@ -12229,7 +12196,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="184" t="s">
         <v>310</v>
       </c>
@@ -12255,14 +12222,14 @@
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="188" t="s">
         <v>314</v>
       </c>
       <c r="D23" s="189" t="s">
         <v>316</v>
       </c>
-      <c r="E23" s="320" t="s">
+      <c r="E23" s="327" t="s">
         <v>317</v>
       </c>
       <c r="F23" s="190">
@@ -12281,14 +12248,14 @@
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="188" t="s">
         <v>319</v>
       </c>
       <c r="D24" s="189" t="s">
         <v>316</v>
       </c>
-      <c r="E24" s="320"/>
+      <c r="E24" s="327"/>
       <c r="F24" s="190">
         <v>43</v>
       </c>
@@ -12305,7 +12272,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="184" t="s">
         <v>321</v>
       </c>
@@ -12331,7 +12298,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="184" t="s">
         <v>324</v>
       </c>
@@ -12357,7 +12324,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="184" t="s">
         <v>327</v>
       </c>
@@ -12383,7 +12350,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="183" t="s">
         <v>330</v>
       </c>
@@ -12409,7 +12376,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="184" t="s">
         <v>333</v>
       </c>
@@ -12435,7 +12402,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="184" t="s">
         <v>337</v>
       </c>
@@ -12459,7 +12426,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="184" t="s">
         <v>341</v>
       </c>
@@ -12483,7 +12450,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="32" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C32" s="185" t="s">
         <v>128</v>
       </c>

--- a/1_Schematic/Build V1.0/RF Generator Review Data_20191112.xlsx
+++ b/1_Schematic/Build V1.0/RF Generator Review Data_20191112.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-23145" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-23145" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ADC" sheetId="4" r:id="rId1"/>
@@ -13,8 +13,9 @@
     <sheet name="FW Function" sheetId="3" r:id="rId4"/>
     <sheet name="LCD" sheetId="1" r:id="rId5"/>
     <sheet name="CPU Pin-map" sheetId="7" r:id="rId6"/>
+    <sheet name="CORE" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="398">
   <si>
     <t>VIN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1606,6 +1607,70 @@
     <t>설정값에 따라 조정 : %로 표시
 targer value까지 Counter value를 2씩 순차적으로 상승해야 함
 RF On time과 동기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ht</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L[uH]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z[Ohm]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T106-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T106-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT82-43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T50-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250KHz ~ 10MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3MHz ~ 40MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5~500MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT140-43</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3037,19 +3102,247 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3061,307 +3354,79 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3437,7 +3502,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3694,11 +3758,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="218247680"/>
-        <c:axId val="217366528"/>
+        <c:axId val="129605632"/>
+        <c:axId val="129092416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="218247680"/>
+        <c:axId val="129605632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3741,7 +3805,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217366528"/>
+        <c:crossAx val="129092416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3749,7 +3813,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="217366528"/>
+        <c:axId val="129092416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3800,7 +3864,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218247680"/>
+        <c:crossAx val="129605632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4432,7 +4496,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB107259-0367-470F-9CFD-CE7EC231CCE8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB107259-0367-470F-9CFD-CE7EC231CCE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4476,7 +4540,7 @@
         <xdr:cNvPr id="3" name="차트 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5CA2094-6349-4FC9-9C2E-379947A73744}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CA2094-6349-4FC9-9C2E-379947A73744}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4517,7 +4581,7 @@
         <xdr:cNvPr id="3" name="직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5AB039ED-9206-4062-8CE8-D6A6ACEDACC0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AB039ED-9206-4062-8CE8-D6A6ACEDACC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4584,7 +4648,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CFEBB7B3-B7C1-4EAB-AA1A-0A30DFEB31F1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFEBB7B3-B7C1-4EAB-AA1A-0A30DFEB31F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4649,7 +4713,7 @@
         <xdr:cNvPr id="6" name="직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7049C463-F1B4-4B9B-A03C-9A7E975698A3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7049C463-F1B4-4B9B-A03C-9A7E975698A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4726,7 +4790,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE056398-8981-4500-99D2-6F2A7CEA4350}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE056398-8981-4500-99D2-6F2A7CEA4350}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4791,7 +4855,7 @@
         <xdr:cNvPr id="8" name="직사각형 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45A9CB46-1959-47C3-832C-7AAFD0272295}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A9CB46-1959-47C3-832C-7AAFD0272295}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4868,7 +4932,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7950D314-EA34-4F28-B2CB-BED5FE2828DD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7950D314-EA34-4F28-B2CB-BED5FE2828DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4933,7 +4997,7 @@
         <xdr:cNvPr id="11" name="직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DEA37F16-6C2D-4934-B2D5-CC672FE03581}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA37F16-6C2D-4934-B2D5-CC672FE03581}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5010,7 +5074,7 @@
         <xdr:cNvPr id="12" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33B78126-6D73-4FA6-8F23-79BE961DE326}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33B78126-6D73-4FA6-8F23-79BE961DE326}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5070,7 +5134,7 @@
         <xdr:cNvPr id="13" name="TextBox 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F500A6D6-8638-4B56-B4B3-208B58F8C281}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F500A6D6-8638-4B56-B4B3-208B58F8C281}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5130,7 +5194,7 @@
         <xdr:cNvPr id="14" name="TextBox 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5160A9E2-0E2A-4C6B-A5A2-F13286FDDBD4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5160A9E2-0E2A-4C6B-A5A2-F13286FDDBD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5195,7 +5259,7 @@
         <xdr:cNvPr id="15" name="직사각형 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4729C4BE-619A-4B85-9D7B-3ADFBF9C3886}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4729C4BE-619A-4B85-9D7B-3ADFBF9C3886}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5283,7 +5347,7 @@
         <xdr:cNvPr id="17" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7874FDA6-8099-4CAF-9111-77982D6A7348}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7874FDA6-8099-4CAF-9111-77982D6A7348}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5479,7 +5543,7 @@
         <xdr:cNvPr id="18" name="TextBox 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{421F7876-9F23-4395-899C-88972D72577C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{421F7876-9F23-4395-899C-88972D72577C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5708,7 +5772,7 @@
         <xdr:cNvPr id="19" name="직사각형 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A2FDBB60-27E7-4A81-80AC-6D5C28C2F430}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2FDBB60-27E7-4A81-80AC-6D5C28C2F430}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5792,7 +5856,7 @@
         <xdr:cNvPr id="20" name="직사각형 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10A98080-FFEF-4DFB-8ADB-2310264B7DDB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A98080-FFEF-4DFB-8ADB-2310264B7DDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6150,7 +6214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
@@ -6240,16 +6304,16 @@
     <row r="12" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="238" t="s">
+      <c r="D12" s="217" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="259"/>
-      <c r="F12" s="238" t="s">
+      <c r="E12" s="218"/>
+      <c r="F12" s="217" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="239"/>
-      <c r="H12" s="239"/>
-      <c r="I12" s="240"/>
+      <c r="G12" s="219"/>
+      <c r="H12" s="219"/>
+      <c r="I12" s="220"/>
       <c r="J12" s="49" t="s">
         <v>36</v>
       </c>
@@ -6324,14 +6388,14 @@
       <c r="E15" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="289" t="s">
+      <c r="F15" s="221" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="290"/>
-      <c r="H15" s="289" t="s">
+      <c r="G15" s="222"/>
+      <c r="H15" s="221" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="291"/>
+      <c r="I15" s="223"/>
       <c r="J15" s="62" t="s">
         <v>13</v>
       </c>
@@ -6359,16 +6423,16 @@
         <f t="shared" ref="E16:E33" si="0">$D16*E$14/(E$13+E$14)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="231">
+      <c r="F16" s="226">
         <f t="shared" ref="F16:F28" si="1">E16*G$14/(G$13+G$14)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="233"/>
-      <c r="H16" s="231">
+      <c r="G16" s="227"/>
+      <c r="H16" s="226">
         <f t="shared" ref="H16:H28" si="2">F16*I$14/(I$13+I$14)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="233"/>
+      <c r="I16" s="227"/>
       <c r="J16" s="17">
         <f>H16*4095/3.3</f>
         <v>0</v>
@@ -6397,16 +6461,16 @@
         <f t="shared" si="0"/>
         <v>0.68851328044153159</v>
       </c>
-      <c r="F17" s="216">
+      <c r="F17" s="224">
         <f t="shared" si="1"/>
         <v>0.3442566402207658</v>
       </c>
-      <c r="G17" s="218"/>
-      <c r="H17" s="216">
+      <c r="G17" s="225"/>
+      <c r="H17" s="224">
         <f t="shared" si="2"/>
         <v>0.18118770537935042</v>
       </c>
-      <c r="I17" s="218"/>
+      <c r="I17" s="225"/>
       <c r="J17" s="19">
         <f t="shared" ref="J17:J30" si="3">H17*4095/3.3</f>
         <v>224.83747076619395</v>
@@ -6438,16 +6502,16 @@
         <f t="shared" si="0"/>
         <v>1.3770265608830632</v>
       </c>
-      <c r="F18" s="216">
+      <c r="F18" s="224">
         <f t="shared" si="1"/>
         <v>0.68851328044153159</v>
       </c>
-      <c r="G18" s="218"/>
-      <c r="H18" s="216">
+      <c r="G18" s="225"/>
+      <c r="H18" s="224">
         <f t="shared" si="2"/>
         <v>0.36237541075870083</v>
       </c>
-      <c r="I18" s="218"/>
+      <c r="I18" s="225"/>
       <c r="J18" s="19">
         <f t="shared" si="3"/>
         <v>449.67494153238789</v>
@@ -6479,16 +6543,16 @@
         <f t="shared" si="0"/>
         <v>2.0655398413245947</v>
       </c>
-      <c r="F19" s="216">
+      <c r="F19" s="224">
         <f t="shared" si="1"/>
         <v>1.0327699206622973</v>
       </c>
-      <c r="G19" s="218"/>
-      <c r="H19" s="216">
+      <c r="G19" s="225"/>
+      <c r="H19" s="224">
         <f t="shared" si="2"/>
         <v>0.54356311613805119</v>
       </c>
-      <c r="I19" s="218"/>
+      <c r="I19" s="225"/>
       <c r="J19" s="19">
         <f t="shared" si="3"/>
         <v>674.51241229858169</v>
@@ -6520,16 +6584,16 @@
         <f t="shared" si="0"/>
         <v>2.7540531217661264</v>
       </c>
-      <c r="F20" s="216">
+      <c r="F20" s="224">
         <f t="shared" si="1"/>
         <v>1.3770265608830632</v>
       </c>
-      <c r="G20" s="218"/>
-      <c r="H20" s="216">
+      <c r="G20" s="225"/>
+      <c r="H20" s="224">
         <f t="shared" si="2"/>
         <v>0.72475082151740167</v>
       </c>
-      <c r="I20" s="218"/>
+      <c r="I20" s="225"/>
       <c r="J20" s="19">
         <f t="shared" si="3"/>
         <v>899.34988306477578</v>
@@ -6543,16 +6607,16 @@
         <f t="shared" si="0"/>
         <v>3.4425664022076581</v>
       </c>
-      <c r="F21" s="216">
+      <c r="F21" s="224">
         <f t="shared" si="1"/>
         <v>1.721283201103829</v>
       </c>
-      <c r="G21" s="218"/>
-      <c r="H21" s="216">
+      <c r="G21" s="225"/>
+      <c r="H21" s="224">
         <f t="shared" si="2"/>
         <v>0.90593852689675203</v>
       </c>
-      <c r="I21" s="218"/>
+      <c r="I21" s="225"/>
       <c r="J21" s="19">
         <f t="shared" si="3"/>
         <v>1124.1873538309696</v>
@@ -6566,16 +6630,16 @@
         <f t="shared" si="0"/>
         <v>4.1310796826491893</v>
       </c>
-      <c r="F22" s="216">
+      <c r="F22" s="224">
         <f t="shared" si="1"/>
         <v>2.0655398413245947</v>
       </c>
-      <c r="G22" s="218"/>
-      <c r="H22" s="216">
+      <c r="G22" s="225"/>
+      <c r="H22" s="224">
         <f t="shared" si="2"/>
         <v>1.0871262322761024</v>
       </c>
-      <c r="I22" s="218"/>
+      <c r="I22" s="225"/>
       <c r="J22" s="19">
         <f t="shared" si="3"/>
         <v>1349.0248245971634</v>
@@ -6589,16 +6653,16 @@
         <f t="shared" si="0"/>
         <v>4.8195929630907202</v>
       </c>
-      <c r="F23" s="216">
+      <c r="F23" s="224">
         <f t="shared" si="1"/>
         <v>2.4097964815453601</v>
       </c>
-      <c r="G23" s="218"/>
-      <c r="H23" s="216">
+      <c r="G23" s="225"/>
+      <c r="H23" s="224">
         <f t="shared" si="2"/>
         <v>1.2683139376554526</v>
       </c>
-      <c r="I23" s="218"/>
+      <c r="I23" s="225"/>
       <c r="J23" s="19">
         <f t="shared" si="3"/>
         <v>1573.8622953633571</v>
@@ -6612,16 +6676,16 @@
         <f t="shared" si="0"/>
         <v>5.5081062435322528</v>
       </c>
-      <c r="F24" s="216">
+      <c r="F24" s="224">
         <f t="shared" si="1"/>
         <v>2.7540531217661264</v>
       </c>
-      <c r="G24" s="218"/>
-      <c r="H24" s="216">
+      <c r="G24" s="225"/>
+      <c r="H24" s="224">
         <f t="shared" si="2"/>
         <v>1.4495016430348033</v>
       </c>
-      <c r="I24" s="218"/>
+      <c r="I24" s="225"/>
       <c r="J24" s="19">
         <f t="shared" si="3"/>
         <v>1798.6997661295516</v>
@@ -6635,16 +6699,16 @@
         <f t="shared" si="0"/>
         <v>6.1966195239737845</v>
       </c>
-      <c r="F25" s="216">
+      <c r="F25" s="224">
         <f t="shared" si="1"/>
         <v>3.0983097619868922</v>
       </c>
-      <c r="G25" s="218"/>
-      <c r="H25" s="216">
+      <c r="G25" s="225"/>
+      <c r="H25" s="224">
         <f t="shared" si="2"/>
         <v>1.6306893484141538</v>
       </c>
-      <c r="I25" s="218"/>
+      <c r="I25" s="225"/>
       <c r="J25" s="19">
         <f t="shared" si="3"/>
         <v>2023.5372368957455</v>
@@ -6658,16 +6722,16 @@
         <f t="shared" si="0"/>
         <v>6.8851328044153162</v>
       </c>
-      <c r="F26" s="283">
+      <c r="F26" s="228">
         <f t="shared" si="1"/>
         <v>3.4425664022076581</v>
       </c>
-      <c r="G26" s="284"/>
-      <c r="H26" s="283">
+      <c r="G26" s="229"/>
+      <c r="H26" s="228">
         <f t="shared" si="2"/>
         <v>1.8118770537935041</v>
       </c>
-      <c r="I26" s="284"/>
+      <c r="I26" s="229"/>
       <c r="J26" s="34">
         <f t="shared" si="3"/>
         <v>2248.3747076619393</v>
@@ -6681,16 +6745,16 @@
         <f t="shared" si="0"/>
         <v>7.573646084856847</v>
       </c>
-      <c r="F27" s="283">
+      <c r="F27" s="228">
         <f t="shared" si="1"/>
         <v>3.786823042428423</v>
       </c>
-      <c r="G27" s="284"/>
-      <c r="H27" s="283">
+      <c r="G27" s="229"/>
+      <c r="H27" s="228">
         <f t="shared" si="2"/>
         <v>1.9930647591728541</v>
       </c>
-      <c r="I27" s="284"/>
+      <c r="I27" s="229"/>
       <c r="J27" s="34">
         <f t="shared" si="3"/>
         <v>2473.2121784281326</v>
@@ -6704,16 +6768,16 @@
         <f t="shared" si="0"/>
         <v>8.2621593652983787</v>
       </c>
-      <c r="F28" s="219">
+      <c r="F28" s="230">
         <f t="shared" si="1"/>
         <v>4.1310796826491893</v>
       </c>
-      <c r="G28" s="221"/>
-      <c r="H28" s="219">
+      <c r="G28" s="231"/>
+      <c r="H28" s="230">
         <f t="shared" si="2"/>
         <v>2.1742524645522048</v>
       </c>
-      <c r="I28" s="221"/>
+      <c r="I28" s="231"/>
       <c r="J28" s="64">
         <f>H28*4095/3.3</f>
         <v>2698.0496491943268</v>
@@ -6727,16 +6791,16 @@
         <f t="shared" si="0"/>
         <v>8.9506726457399104</v>
       </c>
-      <c r="F29" s="283">
+      <c r="F29" s="228">
         <f>E29*G$14/(G$13+G$14)</f>
         <v>4.4753363228699552</v>
       </c>
-      <c r="G29" s="284"/>
-      <c r="H29" s="283">
+      <c r="G29" s="229"/>
+      <c r="H29" s="228">
         <f>F29*I$14/(I$13+I$14)</f>
         <v>2.3554401699315552</v>
       </c>
-      <c r="I29" s="284"/>
+      <c r="I29" s="229"/>
       <c r="J29" s="34">
         <f t="shared" si="3"/>
         <v>2922.887119960521</v>
@@ -6750,16 +6814,16 @@
         <f t="shared" si="0"/>
         <v>9.6391859261814403</v>
       </c>
-      <c r="F30" s="283">
+      <c r="F30" s="228">
         <f>E30*G$14/(G$13+G$14)</f>
         <v>4.8195929630907202</v>
       </c>
-      <c r="G30" s="284"/>
-      <c r="H30" s="283">
+      <c r="G30" s="229"/>
+      <c r="H30" s="228">
         <f>F30*I$14/(I$13+I$14)</f>
         <v>2.5366278753109053</v>
       </c>
-      <c r="I30" s="284"/>
+      <c r="I30" s="229"/>
       <c r="J30" s="34">
         <f t="shared" si="3"/>
         <v>3147.7245907267143</v>
@@ -6773,16 +6837,16 @@
         <f t="shared" si="0"/>
         <v>10.327699206622974</v>
       </c>
-      <c r="F31" s="285">
+      <c r="F31" s="232">
         <f>E31*G$14/(G$13+G$14)</f>
         <v>5.1638496033114869</v>
       </c>
-      <c r="G31" s="286"/>
-      <c r="H31" s="216">
+      <c r="G31" s="233"/>
+      <c r="H31" s="224">
         <f>F31*I$14/(I$13+I$14)</f>
         <v>2.7178155806902562</v>
       </c>
-      <c r="I31" s="218"/>
+      <c r="I31" s="225"/>
       <c r="J31" s="19">
         <f t="shared" ref="J31" si="4">H31*4095/3.3</f>
         <v>3372.5620614929089</v>
@@ -6796,16 +6860,16 @@
         <f t="shared" si="0"/>
         <v>11.016212487064506</v>
       </c>
-      <c r="F32" s="285">
+      <c r="F32" s="232">
         <f>E32*G$14/(G$13+G$14)</f>
         <v>5.5081062435322528</v>
       </c>
-      <c r="G32" s="286"/>
-      <c r="H32" s="216">
+      <c r="G32" s="233"/>
+      <c r="H32" s="224">
         <f>F32*I$14/(I$13+I$14)</f>
         <v>2.8990032860696067</v>
       </c>
-      <c r="I32" s="218"/>
+      <c r="I32" s="225"/>
       <c r="J32" s="19">
         <f t="shared" ref="J32:J33" si="5">H32*4095/3.3</f>
         <v>3597.3995322591031</v>
@@ -6819,16 +6883,16 @@
         <f t="shared" si="0"/>
         <v>11.704725767506035</v>
       </c>
-      <c r="F33" s="287">
+      <c r="F33" s="234">
         <f>E33*G$14/(G$13+G$14)</f>
         <v>5.8523628837530177</v>
       </c>
-      <c r="G33" s="288"/>
-      <c r="H33" s="210">
+      <c r="G33" s="235"/>
+      <c r="H33" s="236">
         <f>F33*I$14/(I$13+I$14)</f>
         <v>3.0801909914489567</v>
       </c>
-      <c r="I33" s="212"/>
+      <c r="I33" s="237"/>
       <c r="J33" s="24">
         <f t="shared" si="5"/>
         <v>3822.2370030252964</v>
@@ -6869,16 +6933,16 @@
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D39" s="238" t="s">
+      <c r="D39" s="217" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="259"/>
-      <c r="F39" s="238" t="s">
+      <c r="E39" s="218"/>
+      <c r="F39" s="217" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="239"/>
-      <c r="H39" s="239"/>
-      <c r="I39" s="240"/>
+      <c r="G39" s="219"/>
+      <c r="H39" s="219"/>
+      <c r="I39" s="220"/>
       <c r="J39" s="49" t="s">
         <v>36</v>
       </c>
@@ -6936,14 +7000,14 @@
       <c r="E42" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="238" t="s">
+      <c r="F42" s="217" t="s">
         <v>33</v>
       </c>
-      <c r="G42" s="259"/>
-      <c r="H42" s="238" t="s">
+      <c r="G42" s="218"/>
+      <c r="H42" s="217" t="s">
         <v>42</v>
       </c>
-      <c r="I42" s="240"/>
+      <c r="I42" s="220"/>
       <c r="J42" s="49" t="s">
         <v>13</v>
       </c>
@@ -6956,16 +7020,16 @@
         <f t="shared" ref="E43:E57" si="6">$D43*E$41/(E$40+E$41)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="235">
+      <c r="F43" s="214">
         <f t="shared" ref="F43:F57" si="7">E43*G$41/(G$40+G$41)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="282"/>
-      <c r="H43" s="235">
+      <c r="G43" s="239"/>
+      <c r="H43" s="214">
         <f t="shared" ref="H43:H57" si="8">F43*I$41/(I$40+I$41)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="236"/>
+      <c r="I43" s="215"/>
       <c r="J43" s="66">
         <f>H43*4095/3.3</f>
         <v>0</v>
@@ -6979,16 +7043,16 @@
         <f t="shared" si="6"/>
         <v>0.68851328044153159</v>
       </c>
-      <c r="F44" s="216">
+      <c r="F44" s="224">
         <f t="shared" si="7"/>
         <v>0.3442566402207658</v>
       </c>
-      <c r="G44" s="217"/>
-      <c r="H44" s="216">
+      <c r="G44" s="238"/>
+      <c r="H44" s="224">
         <f t="shared" si="8"/>
         <v>0.18118770537935042</v>
       </c>
-      <c r="I44" s="218"/>
+      <c r="I44" s="225"/>
       <c r="J44" s="51">
         <f>H44*4095/3.3</f>
         <v>224.83747076619395</v>
@@ -7002,16 +7066,16 @@
         <f t="shared" si="6"/>
         <v>1.3770265608830632</v>
       </c>
-      <c r="F45" s="216">
+      <c r="F45" s="224">
         <f t="shared" si="7"/>
         <v>0.68851328044153159</v>
       </c>
-      <c r="G45" s="217"/>
-      <c r="H45" s="216">
+      <c r="G45" s="238"/>
+      <c r="H45" s="224">
         <f t="shared" si="8"/>
         <v>0.36237541075870083</v>
       </c>
-      <c r="I45" s="218"/>
+      <c r="I45" s="225"/>
       <c r="J45" s="51">
         <f t="shared" ref="J45:J57" si="9">H45*4095/3.3</f>
         <v>449.67494153238789</v>
@@ -7025,16 +7089,16 @@
         <f t="shared" si="6"/>
         <v>2.0655398413245947</v>
       </c>
-      <c r="F46" s="216">
+      <c r="F46" s="224">
         <f t="shared" si="7"/>
         <v>1.0327699206622973</v>
       </c>
-      <c r="G46" s="217"/>
-      <c r="H46" s="216">
+      <c r="G46" s="238"/>
+      <c r="H46" s="224">
         <f t="shared" si="8"/>
         <v>0.54356311613805119</v>
       </c>
-      <c r="I46" s="218"/>
+      <c r="I46" s="225"/>
       <c r="J46" s="51">
         <f t="shared" si="9"/>
         <v>674.51241229858169</v>
@@ -7048,16 +7112,16 @@
         <f t="shared" si="6"/>
         <v>2.7540531217661264</v>
       </c>
-      <c r="F47" s="216">
+      <c r="F47" s="224">
         <f t="shared" si="7"/>
         <v>1.3770265608830632</v>
       </c>
-      <c r="G47" s="217"/>
-      <c r="H47" s="216">
+      <c r="G47" s="238"/>
+      <c r="H47" s="224">
         <f t="shared" si="8"/>
         <v>0.72475082151740167</v>
       </c>
-      <c r="I47" s="218"/>
+      <c r="I47" s="225"/>
       <c r="J47" s="51">
         <f t="shared" si="9"/>
         <v>899.34988306477578</v>
@@ -7071,16 +7135,16 @@
         <f t="shared" si="6"/>
         <v>3.4425664022076581</v>
       </c>
-      <c r="F48" s="216">
+      <c r="F48" s="224">
         <f t="shared" si="7"/>
         <v>1.721283201103829</v>
       </c>
-      <c r="G48" s="217"/>
-      <c r="H48" s="216">
+      <c r="G48" s="238"/>
+      <c r="H48" s="224">
         <f t="shared" si="8"/>
         <v>0.90593852689675203</v>
       </c>
-      <c r="I48" s="218"/>
+      <c r="I48" s="225"/>
       <c r="J48" s="51">
         <f t="shared" si="9"/>
         <v>1124.1873538309696</v>
@@ -7094,16 +7158,16 @@
         <f t="shared" si="6"/>
         <v>4.1310796826491893</v>
       </c>
-      <c r="F49" s="216">
+      <c r="F49" s="224">
         <f t="shared" si="7"/>
         <v>2.0655398413245947</v>
       </c>
-      <c r="G49" s="217"/>
-      <c r="H49" s="216">
+      <c r="G49" s="238"/>
+      <c r="H49" s="224">
         <f t="shared" si="8"/>
         <v>1.0871262322761024</v>
       </c>
-      <c r="I49" s="218"/>
+      <c r="I49" s="225"/>
       <c r="J49" s="51">
         <f>H49*4095/3.3</f>
         <v>1349.0248245971634</v>
@@ -7117,16 +7181,16 @@
         <f t="shared" si="6"/>
         <v>4.8195929630907202</v>
       </c>
-      <c r="F50" s="216">
+      <c r="F50" s="224">
         <f t="shared" si="7"/>
         <v>2.4097964815453601</v>
       </c>
-      <c r="G50" s="217"/>
-      <c r="H50" s="216">
+      <c r="G50" s="238"/>
+      <c r="H50" s="224">
         <f t="shared" si="8"/>
         <v>1.2683139376554526</v>
       </c>
-      <c r="I50" s="218"/>
+      <c r="I50" s="225"/>
       <c r="J50" s="51">
         <f t="shared" si="9"/>
         <v>1573.8622953633571</v>
@@ -7140,16 +7204,16 @@
         <f t="shared" si="6"/>
         <v>5.5081062435322528</v>
       </c>
-      <c r="F51" s="216">
+      <c r="F51" s="224">
         <f t="shared" si="7"/>
         <v>2.7540531217661264</v>
       </c>
-      <c r="G51" s="217"/>
-      <c r="H51" s="216">
+      <c r="G51" s="238"/>
+      <c r="H51" s="224">
         <f t="shared" si="8"/>
         <v>1.4495016430348033</v>
       </c>
-      <c r="I51" s="218"/>
+      <c r="I51" s="225"/>
       <c r="J51" s="51">
         <f t="shared" si="9"/>
         <v>1798.6997661295516</v>
@@ -7163,16 +7227,16 @@
         <f t="shared" si="6"/>
         <v>6.6097274922387026</v>
       </c>
-      <c r="F52" s="216">
+      <c r="F52" s="224">
         <f t="shared" si="7"/>
         <v>3.3048637461193513</v>
       </c>
-      <c r="G52" s="217"/>
-      <c r="H52" s="216">
+      <c r="G52" s="238"/>
+      <c r="H52" s="224">
         <f t="shared" si="8"/>
         <v>1.7394019716417637</v>
       </c>
-      <c r="I52" s="218"/>
+      <c r="I52" s="225"/>
       <c r="J52" s="51">
         <f t="shared" si="9"/>
         <v>2158.4397193554614</v>
@@ -7186,16 +7250,16 @@
         <f t="shared" si="6"/>
         <v>6.8851328044153162</v>
       </c>
-      <c r="F53" s="216">
+      <c r="F53" s="224">
         <f t="shared" si="7"/>
         <v>3.4425664022076581</v>
       </c>
-      <c r="G53" s="217"/>
-      <c r="H53" s="216">
+      <c r="G53" s="238"/>
+      <c r="H53" s="224">
         <f t="shared" si="8"/>
         <v>1.8118770537935041</v>
       </c>
-      <c r="I53" s="218"/>
+      <c r="I53" s="225"/>
       <c r="J53" s="51">
         <f t="shared" si="9"/>
         <v>2248.3747076619393</v>
@@ -7209,16 +7273,16 @@
         <f t="shared" si="6"/>
         <v>7.573646084856847</v>
       </c>
-      <c r="F54" s="216">
+      <c r="F54" s="224">
         <f t="shared" si="7"/>
         <v>3.786823042428423</v>
       </c>
-      <c r="G54" s="217"/>
-      <c r="H54" s="216">
+      <c r="G54" s="238"/>
+      <c r="H54" s="224">
         <f t="shared" si="8"/>
         <v>1.9930647591728541</v>
       </c>
-      <c r="I54" s="218"/>
+      <c r="I54" s="225"/>
       <c r="J54" s="51">
         <f t="shared" si="9"/>
         <v>2473.2121784281326</v>
@@ -7232,16 +7296,16 @@
         <f t="shared" si="6"/>
         <v>8.2621593652983787</v>
       </c>
-      <c r="F55" s="219">
+      <c r="F55" s="230">
         <f t="shared" si="7"/>
         <v>4.1310796826491893</v>
       </c>
-      <c r="G55" s="220"/>
-      <c r="H55" s="219">
+      <c r="G55" s="241"/>
+      <c r="H55" s="230">
         <f t="shared" si="8"/>
         <v>2.1742524645522048</v>
       </c>
-      <c r="I55" s="221"/>
+      <c r="I55" s="231"/>
       <c r="J55" s="67">
         <f t="shared" si="9"/>
         <v>2698.0496491943268</v>
@@ -7255,16 +7319,16 @@
         <f t="shared" si="6"/>
         <v>8.9506726457399104</v>
       </c>
-      <c r="F56" s="216">
+      <c r="F56" s="224">
         <f t="shared" si="7"/>
         <v>4.4753363228699552</v>
       </c>
-      <c r="G56" s="217"/>
-      <c r="H56" s="216">
+      <c r="G56" s="238"/>
+      <c r="H56" s="224">
         <f t="shared" si="8"/>
         <v>2.3554401699315552</v>
       </c>
-      <c r="I56" s="218"/>
+      <c r="I56" s="225"/>
       <c r="J56" s="51">
         <f t="shared" si="9"/>
         <v>2922.887119960521</v>
@@ -7278,16 +7342,16 @@
         <f t="shared" si="6"/>
         <v>9.6391859261814403</v>
       </c>
-      <c r="F57" s="210">
+      <c r="F57" s="236">
         <f t="shared" si="7"/>
         <v>4.8195929630907202</v>
       </c>
-      <c r="G57" s="211"/>
-      <c r="H57" s="210">
+      <c r="G57" s="240"/>
+      <c r="H57" s="236">
         <f t="shared" si="8"/>
         <v>2.5366278753109053</v>
       </c>
-      <c r="I57" s="212"/>
+      <c r="I57" s="237"/>
       <c r="J57" s="52">
         <f t="shared" si="9"/>
         <v>3147.7245907267143</v>
@@ -7357,22 +7421,22 @@
       </c>
     </row>
     <row r="65" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D65" s="208" t="s">
+      <c r="D65" s="287" t="s">
         <v>158</v>
       </c>
-      <c r="E65" s="209"/>
-      <c r="F65" s="276" t="s">
+      <c r="E65" s="288"/>
+      <c r="F65" s="247" t="s">
         <v>34</v>
       </c>
-      <c r="G65" s="276"/>
-      <c r="H65" s="276"/>
-      <c r="I65" s="277"/>
-      <c r="J65" s="238" t="s">
+      <c r="G65" s="247"/>
+      <c r="H65" s="247"/>
+      <c r="I65" s="248"/>
+      <c r="J65" s="217" t="s">
         <v>35</v>
       </c>
-      <c r="K65" s="239"/>
-      <c r="L65" s="239"/>
-      <c r="M65" s="240"/>
+      <c r="K65" s="219"/>
+      <c r="L65" s="219"/>
+      <c r="M65" s="220"/>
       <c r="N65" s="49" t="s">
         <v>36</v>
       </c>
@@ -7454,22 +7518,22 @@
       <c r="E68" s="125" t="s">
         <v>159</v>
       </c>
-      <c r="F68" s="278" t="s">
+      <c r="F68" s="249" t="s">
         <v>18</v>
       </c>
-      <c r="G68" s="239"/>
-      <c r="H68" s="239" t="s">
+      <c r="G68" s="219"/>
+      <c r="H68" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="I68" s="240"/>
-      <c r="J68" s="279" t="s">
+      <c r="I68" s="220"/>
+      <c r="J68" s="250" t="s">
         <v>18</v>
       </c>
-      <c r="K68" s="280"/>
-      <c r="L68" s="280" t="s">
+      <c r="K68" s="251"/>
+      <c r="L68" s="251" t="s">
         <v>19</v>
       </c>
-      <c r="M68" s="281"/>
+      <c r="M68" s="252"/>
       <c r="N68" s="69" t="s">
         <v>13</v>
       </c>
@@ -7481,26 +7545,26 @@
       <c r="E69" s="44">
         <v>0</v>
       </c>
-      <c r="F69" s="261">
+      <c r="F69" s="244">
         <f t="shared" ref="F69:F79" si="10">E69*G$67/(G$66+G$67)</f>
         <v>0</v>
       </c>
-      <c r="G69" s="275"/>
-      <c r="H69" s="275">
+      <c r="G69" s="245"/>
+      <c r="H69" s="245">
         <f t="shared" ref="H69:H79" si="11">F69*(1+I$66/I$67)</f>
         <v>0</v>
       </c>
-      <c r="I69" s="233"/>
-      <c r="J69" s="261">
+      <c r="I69" s="227"/>
+      <c r="J69" s="244">
         <f t="shared" ref="J69:J79" si="12">H69*K$67/(K$66+K$67)</f>
         <v>0</v>
       </c>
-      <c r="K69" s="275"/>
-      <c r="L69" s="275">
+      <c r="K69" s="245"/>
+      <c r="L69" s="245">
         <f t="shared" ref="L69:L79" si="13">J69*M$67/(M$66+M$67)</f>
         <v>0</v>
       </c>
-      <c r="M69" s="232"/>
+      <c r="M69" s="246"/>
       <c r="N69" s="17">
         <f>L69*4096/3.3</f>
         <v>0</v>
@@ -7514,26 +7578,26 @@
         <f>$E$67*D70/$E$66</f>
         <v>0.4</v>
       </c>
-      <c r="F70" s="234">
+      <c r="F70" s="242">
         <f t="shared" si="10"/>
         <v>0.38204393505253104</v>
       </c>
-      <c r="G70" s="274"/>
-      <c r="H70" s="274">
+      <c r="G70" s="243"/>
+      <c r="H70" s="243">
         <f t="shared" si="11"/>
         <v>1.1461318051575931</v>
       </c>
-      <c r="I70" s="218"/>
-      <c r="J70" s="234">
+      <c r="I70" s="225"/>
+      <c r="J70" s="242">
         <f t="shared" si="12"/>
         <v>0.57306590257879653</v>
       </c>
-      <c r="K70" s="274"/>
-      <c r="L70" s="274">
+      <c r="K70" s="243"/>
+      <c r="L70" s="243">
         <f t="shared" si="13"/>
         <v>0.30161363293620869</v>
       </c>
-      <c r="M70" s="217"/>
+      <c r="M70" s="238"/>
       <c r="N70" s="19">
         <f>L70*4096/3.3</f>
         <v>374.36649712324572</v>
@@ -7547,26 +7611,26 @@
         <f t="shared" ref="E71:E79" si="14">$E$67*D71/$E$66</f>
         <v>0.8</v>
       </c>
-      <c r="F71" s="234">
+      <c r="F71" s="242">
         <f t="shared" si="10"/>
         <v>0.76408787010506207</v>
       </c>
-      <c r="G71" s="274"/>
-      <c r="H71" s="274">
+      <c r="G71" s="243"/>
+      <c r="H71" s="243">
         <f t="shared" si="11"/>
         <v>2.2922636103151861</v>
       </c>
-      <c r="I71" s="218"/>
-      <c r="J71" s="234">
+      <c r="I71" s="225"/>
+      <c r="J71" s="242">
         <f t="shared" si="12"/>
         <v>1.1461318051575931</v>
       </c>
-      <c r="K71" s="274"/>
-      <c r="L71" s="274">
+      <c r="K71" s="243"/>
+      <c r="L71" s="243">
         <f t="shared" si="13"/>
         <v>0.60322726587241737</v>
       </c>
-      <c r="M71" s="217"/>
+      <c r="M71" s="238"/>
       <c r="N71" s="19">
         <f t="shared" ref="N71:N79" si="15">L71*4096/3.3</f>
         <v>748.73299424649144</v>
@@ -7580,26 +7644,26 @@
         <f t="shared" si="14"/>
         <v>1.2</v>
       </c>
-      <c r="F72" s="234">
+      <c r="F72" s="242">
         <f t="shared" si="10"/>
         <v>1.1461318051575931</v>
       </c>
-      <c r="G72" s="274"/>
-      <c r="H72" s="274">
+      <c r="G72" s="243"/>
+      <c r="H72" s="243">
         <f t="shared" si="11"/>
         <v>3.4383954154727792</v>
       </c>
-      <c r="I72" s="218"/>
-      <c r="J72" s="234">
+      <c r="I72" s="225"/>
+      <c r="J72" s="242">
         <f t="shared" si="12"/>
         <v>1.7191977077363894</v>
       </c>
-      <c r="K72" s="274"/>
-      <c r="L72" s="274">
+      <c r="K72" s="243"/>
+      <c r="L72" s="243">
         <f t="shared" si="13"/>
         <v>0.90484089880862584</v>
       </c>
-      <c r="M72" s="217"/>
+      <c r="M72" s="238"/>
       <c r="N72" s="19">
         <f t="shared" si="15"/>
         <v>1123.0994913697368</v>
@@ -7613,26 +7677,26 @@
         <f t="shared" si="14"/>
         <v>1.6</v>
       </c>
-      <c r="F73" s="234">
+      <c r="F73" s="242">
         <f t="shared" si="10"/>
         <v>1.5281757402101241</v>
       </c>
-      <c r="G73" s="274"/>
-      <c r="H73" s="274">
+      <c r="G73" s="243"/>
+      <c r="H73" s="243">
         <f t="shared" si="11"/>
         <v>4.5845272206303722</v>
       </c>
-      <c r="I73" s="218"/>
-      <c r="J73" s="234">
+      <c r="I73" s="225"/>
+      <c r="J73" s="242">
         <f t="shared" si="12"/>
         <v>2.2922636103151861</v>
       </c>
-      <c r="K73" s="274"/>
-      <c r="L73" s="274">
+      <c r="K73" s="243"/>
+      <c r="L73" s="243">
         <f t="shared" si="13"/>
         <v>1.2064545317448347</v>
       </c>
-      <c r="M73" s="217"/>
+      <c r="M73" s="238"/>
       <c r="N73" s="19">
         <f t="shared" si="15"/>
         <v>1497.4659884929829</v>
@@ -7646,26 +7710,26 @@
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="F74" s="264">
+      <c r="F74" s="261">
         <f t="shared" si="10"/>
         <v>1.910219675262655</v>
       </c>
-      <c r="G74" s="273"/>
-      <c r="H74" s="273">
+      <c r="G74" s="262"/>
+      <c r="H74" s="262">
         <f t="shared" si="11"/>
         <v>5.7306590257879648</v>
       </c>
-      <c r="I74" s="221"/>
-      <c r="J74" s="264">
+      <c r="I74" s="231"/>
+      <c r="J74" s="261">
         <f t="shared" si="12"/>
         <v>2.8653295128939824</v>
       </c>
-      <c r="K74" s="273"/>
-      <c r="L74" s="273">
+      <c r="K74" s="262"/>
+      <c r="L74" s="262">
         <f t="shared" si="13"/>
         <v>1.5080681646810434</v>
       </c>
-      <c r="M74" s="220"/>
+      <c r="M74" s="241"/>
       <c r="N74" s="64">
         <f t="shared" si="15"/>
         <v>1871.8324856162285</v>
@@ -7679,26 +7743,26 @@
         <f t="shared" si="14"/>
         <v>2.4</v>
       </c>
-      <c r="F75" s="269">
+      <c r="F75" s="257">
         <f t="shared" si="10"/>
         <v>2.2922636103151861</v>
       </c>
-      <c r="G75" s="270"/>
-      <c r="H75" s="270">
+      <c r="G75" s="258"/>
+      <c r="H75" s="258">
         <f t="shared" si="11"/>
         <v>6.8767908309455583</v>
       </c>
-      <c r="I75" s="271"/>
-      <c r="J75" s="269">
+      <c r="I75" s="259"/>
+      <c r="J75" s="257">
         <f t="shared" si="12"/>
         <v>3.4383954154727787</v>
       </c>
-      <c r="K75" s="270"/>
-      <c r="L75" s="270">
+      <c r="K75" s="258"/>
+      <c r="L75" s="258">
         <f t="shared" si="13"/>
         <v>1.8096817976172517</v>
       </c>
-      <c r="M75" s="272"/>
+      <c r="M75" s="260"/>
       <c r="N75" s="151">
         <f t="shared" si="15"/>
         <v>2246.1989827394736</v>
@@ -7712,26 +7776,26 @@
         <f t="shared" si="14"/>
         <v>2.8</v>
       </c>
-      <c r="F76" s="265">
+      <c r="F76" s="253">
         <f t="shared" si="10"/>
         <v>2.674307545367717</v>
       </c>
-      <c r="G76" s="266"/>
-      <c r="H76" s="266">
+      <c r="G76" s="254"/>
+      <c r="H76" s="254">
         <f t="shared" si="11"/>
         <v>8.02292263610315</v>
       </c>
-      <c r="I76" s="267"/>
-      <c r="J76" s="265">
+      <c r="I76" s="255"/>
+      <c r="J76" s="253">
         <f t="shared" si="12"/>
         <v>4.011461318051575</v>
       </c>
-      <c r="K76" s="266"/>
-      <c r="L76" s="266">
+      <c r="K76" s="254"/>
+      <c r="L76" s="254">
         <f t="shared" si="13"/>
         <v>2.1112954305534606</v>
       </c>
-      <c r="M76" s="268"/>
+      <c r="M76" s="256"/>
       <c r="N76" s="124">
         <f t="shared" si="15"/>
         <v>2620.5654798627197</v>
@@ -7745,26 +7809,26 @@
         <f t="shared" si="14"/>
         <v>3.2</v>
       </c>
-      <c r="F77" s="265">
+      <c r="F77" s="253">
         <f t="shared" si="10"/>
         <v>3.0563514804202483</v>
       </c>
-      <c r="G77" s="266"/>
-      <c r="H77" s="266">
+      <c r="G77" s="254"/>
+      <c r="H77" s="254">
         <f t="shared" si="11"/>
         <v>9.1690544412607444</v>
       </c>
-      <c r="I77" s="267"/>
-      <c r="J77" s="265">
+      <c r="I77" s="255"/>
+      <c r="J77" s="253">
         <f t="shared" si="12"/>
         <v>4.5845272206303722</v>
       </c>
-      <c r="K77" s="266"/>
-      <c r="L77" s="266">
+      <c r="K77" s="254"/>
+      <c r="L77" s="254">
         <f t="shared" si="13"/>
         <v>2.4129090634896695</v>
       </c>
-      <c r="M77" s="268"/>
+      <c r="M77" s="256"/>
       <c r="N77" s="124">
         <f t="shared" si="15"/>
         <v>2994.9319769859658</v>
@@ -7778,26 +7842,26 @@
         <f t="shared" si="14"/>
         <v>3.6</v>
       </c>
-      <c r="F78" s="265">
+      <c r="F78" s="253">
         <f t="shared" si="10"/>
         <v>3.4383954154727792</v>
       </c>
-      <c r="G78" s="266"/>
-      <c r="H78" s="266">
+      <c r="G78" s="254"/>
+      <c r="H78" s="254">
         <f t="shared" si="11"/>
         <v>10.315186246418337</v>
       </c>
-      <c r="I78" s="267"/>
-      <c r="J78" s="265">
+      <c r="I78" s="255"/>
+      <c r="J78" s="253">
         <f t="shared" si="12"/>
         <v>5.1575931232091685</v>
       </c>
-      <c r="K78" s="266"/>
-      <c r="L78" s="266">
+      <c r="K78" s="254"/>
+      <c r="L78" s="254">
         <f t="shared" si="13"/>
         <v>2.7145226964258784</v>
       </c>
-      <c r="M78" s="268"/>
+      <c r="M78" s="256"/>
       <c r="N78" s="124">
         <f t="shared" si="15"/>
         <v>3369.2984741092118</v>
@@ -7811,26 +7875,26 @@
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="F79" s="265">
+      <c r="F79" s="253">
         <f t="shared" si="10"/>
         <v>3.82043935052531</v>
       </c>
-      <c r="G79" s="266"/>
-      <c r="H79" s="266">
+      <c r="G79" s="254"/>
+      <c r="H79" s="254">
         <f t="shared" si="11"/>
         <v>11.46131805157593</v>
       </c>
-      <c r="I79" s="267"/>
-      <c r="J79" s="265">
+      <c r="I79" s="255"/>
+      <c r="J79" s="253">
         <f t="shared" si="12"/>
         <v>5.7306590257879648</v>
       </c>
-      <c r="K79" s="266"/>
-      <c r="L79" s="266">
+      <c r="K79" s="254"/>
+      <c r="L79" s="254">
         <f t="shared" si="13"/>
         <v>3.0161363293620869</v>
       </c>
-      <c r="M79" s="268"/>
+      <c r="M79" s="256"/>
       <c r="N79" s="124">
         <f t="shared" si="15"/>
         <v>3743.664971232457</v>
@@ -7855,29 +7919,29 @@
     </row>
     <row r="84" spans="3:15" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C84" s="2"/>
-      <c r="D84" s="213" t="s">
+      <c r="D84" s="289" t="s">
         <v>44</v>
       </c>
-      <c r="E84" s="238" t="s">
+      <c r="E84" s="217" t="s">
         <v>76</v>
       </c>
-      <c r="F84" s="239"/>
-      <c r="G84" s="239"/>
-      <c r="H84" s="239"/>
-      <c r="I84" s="239"/>
-      <c r="J84" s="259"/>
-      <c r="K84" s="238" t="s">
+      <c r="F84" s="219"/>
+      <c r="G84" s="219"/>
+      <c r="H84" s="219"/>
+      <c r="I84" s="219"/>
+      <c r="J84" s="218"/>
+      <c r="K84" s="217" t="s">
         <v>35</v>
       </c>
-      <c r="L84" s="239"/>
-      <c r="M84" s="239"/>
-      <c r="N84" s="240"/>
+      <c r="L84" s="219"/>
+      <c r="M84" s="219"/>
+      <c r="N84" s="220"/>
       <c r="O84" s="49" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="85" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="D85" s="214"/>
+      <c r="D85" s="290"/>
       <c r="E85" s="134" t="s">
         <v>195</v>
       </c>
@@ -7913,7 +7977,7 @@
       </c>
     </row>
     <row r="86" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D86" s="215"/>
+      <c r="D86" s="291"/>
       <c r="E86" s="121"/>
       <c r="F86" s="122"/>
       <c r="G86" s="117" t="s">
@@ -7954,22 +8018,22 @@
       <c r="F87" s="100" t="s">
         <v>162</v>
       </c>
-      <c r="G87" s="228" t="s">
+      <c r="G87" s="278" t="s">
         <v>77</v>
       </c>
-      <c r="H87" s="230"/>
-      <c r="I87" s="260" t="s">
+      <c r="H87" s="279"/>
+      <c r="I87" s="272" t="s">
         <v>80</v>
       </c>
-      <c r="J87" s="229"/>
-      <c r="K87" s="228" t="s">
+      <c r="J87" s="273"/>
+      <c r="K87" s="278" t="s">
         <v>18</v>
       </c>
-      <c r="L87" s="229"/>
-      <c r="M87" s="228" t="s">
+      <c r="L87" s="273"/>
+      <c r="M87" s="278" t="s">
         <v>17</v>
       </c>
-      <c r="N87" s="230"/>
+      <c r="N87" s="279"/>
       <c r="O87" s="75" t="s">
         <v>13</v>
       </c>
@@ -7986,26 +8050,26 @@
         <f>D88*E88</f>
         <v>0</v>
       </c>
-      <c r="G88" s="231">
+      <c r="G88" s="226">
         <f>E88*(1+H$85/H$86)</f>
         <v>0</v>
       </c>
-      <c r="H88" s="233"/>
-      <c r="I88" s="261">
+      <c r="H88" s="227"/>
+      <c r="I88" s="244">
         <f>G88*J$86/(J$85+J$86)</f>
         <v>0</v>
       </c>
-      <c r="J88" s="232"/>
-      <c r="K88" s="231">
+      <c r="J88" s="246"/>
+      <c r="K88" s="226">
         <f>I88*L$86/(L$85+L$86)</f>
         <v>0</v>
       </c>
-      <c r="L88" s="232"/>
-      <c r="M88" s="231">
+      <c r="L88" s="246"/>
+      <c r="M88" s="226">
         <f t="shared" ref="M88:M100" si="16">K88*N$86/(N$85+N$86)</f>
         <v>0</v>
       </c>
-      <c r="N88" s="233"/>
+      <c r="N88" s="227"/>
       <c r="O88" s="50">
         <f t="shared" ref="O88:O100" si="17">M88*4096/3.3</f>
         <v>0</v>
@@ -8023,26 +8087,26 @@
         <f>D89*E89</f>
         <v>5.000000000000001E-3</v>
       </c>
-      <c r="G89" s="216">
+      <c r="G89" s="224">
         <f>E89*(1+H$85/H$86)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="H89" s="218"/>
-      <c r="I89" s="234">
+      <c r="H89" s="225"/>
+      <c r="I89" s="242">
         <f t="shared" ref="I89:I100" si="19">G89*J$86/(J$85+J$86)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="J89" s="217"/>
-      <c r="K89" s="216">
+      <c r="J89" s="238"/>
+      <c r="K89" s="224">
         <f t="shared" ref="K89:K100" si="20">I89*L$86/(L$85+L$86)</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="L89" s="217"/>
-      <c r="M89" s="216">
+      <c r="L89" s="238"/>
+      <c r="M89" s="224">
         <f t="shared" si="16"/>
         <v>0.14473684210526316</v>
       </c>
-      <c r="N89" s="218"/>
+      <c r="N89" s="225"/>
       <c r="O89" s="51">
         <f t="shared" si="17"/>
         <v>179.64912280701756</v>
@@ -8060,26 +8124,26 @@
         <f t="shared" ref="F90:F100" si="21">D90*E90</f>
         <v>2.0000000000000004E-2</v>
       </c>
-      <c r="G90" s="222">
+      <c r="G90" s="280">
         <f>E90*(1+H$85/H$86)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H90" s="224"/>
-      <c r="I90" s="262">
+      <c r="H90" s="281"/>
+      <c r="I90" s="274">
         <f t="shared" si="19"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="J90" s="223"/>
-      <c r="K90" s="222">
+      <c r="J90" s="275"/>
+      <c r="K90" s="280">
         <f t="shared" si="20"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="L90" s="223"/>
-      <c r="M90" s="222">
+      <c r="L90" s="275"/>
+      <c r="M90" s="280">
         <f t="shared" si="16"/>
         <v>0.28947368421052633</v>
       </c>
-      <c r="N90" s="224"/>
+      <c r="N90" s="281"/>
       <c r="O90" s="54">
         <f t="shared" si="17"/>
         <v>359.29824561403512</v>
@@ -8097,26 +8161,26 @@
         <f t="shared" si="21"/>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="G91" s="225">
+      <c r="G91" s="282">
         <f t="shared" ref="G91:G100" si="22">E91*(1+H$85/H$86)</f>
         <v>1.65</v>
       </c>
-      <c r="H91" s="227"/>
-      <c r="I91" s="263">
+      <c r="H91" s="283"/>
+      <c r="I91" s="276">
         <f t="shared" si="19"/>
         <v>1.65</v>
       </c>
-      <c r="J91" s="226"/>
-      <c r="K91" s="225">
+      <c r="J91" s="277"/>
+      <c r="K91" s="282">
         <f t="shared" si="20"/>
         <v>0.82499999999999996</v>
       </c>
-      <c r="L91" s="226"/>
-      <c r="M91" s="225">
+      <c r="L91" s="277"/>
+      <c r="M91" s="282">
         <f t="shared" si="16"/>
         <v>0.43421052631578938</v>
       </c>
-      <c r="N91" s="227"/>
+      <c r="N91" s="283"/>
       <c r="O91" s="78">
         <f t="shared" si="17"/>
         <v>538.94736842105249</v>
@@ -8134,26 +8198,26 @@
         <f t="shared" si="21"/>
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="G92" s="216">
+      <c r="G92" s="224">
         <f t="shared" si="22"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="H92" s="218"/>
-      <c r="I92" s="234">
+      <c r="H92" s="225"/>
+      <c r="I92" s="242">
         <f t="shared" si="19"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="J92" s="217"/>
-      <c r="K92" s="216">
+      <c r="J92" s="238"/>
+      <c r="K92" s="224">
         <f t="shared" si="20"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="L92" s="217"/>
-      <c r="M92" s="216">
+      <c r="L92" s="238"/>
+      <c r="M92" s="224">
         <f t="shared" si="16"/>
         <v>0.57894736842105265</v>
       </c>
-      <c r="N92" s="218"/>
+      <c r="N92" s="225"/>
       <c r="O92" s="51">
         <f t="shared" si="17"/>
         <v>718.59649122807025</v>
@@ -8171,26 +8235,26 @@
         <f t="shared" si="21"/>
         <v>0.125</v>
       </c>
-      <c r="G93" s="216">
+      <c r="G93" s="224">
         <f t="shared" si="22"/>
         <v>2.75</v>
       </c>
-      <c r="H93" s="218"/>
-      <c r="I93" s="234">
+      <c r="H93" s="225"/>
+      <c r="I93" s="242">
         <f t="shared" si="19"/>
         <v>2.75</v>
       </c>
-      <c r="J93" s="217"/>
-      <c r="K93" s="216">
+      <c r="J93" s="238"/>
+      <c r="K93" s="224">
         <f t="shared" si="20"/>
         <v>1.375</v>
       </c>
-      <c r="L93" s="217"/>
-      <c r="M93" s="216">
+      <c r="L93" s="238"/>
+      <c r="M93" s="224">
         <f t="shared" si="16"/>
         <v>0.72368421052631582</v>
       </c>
-      <c r="N93" s="218"/>
+      <c r="N93" s="225"/>
       <c r="O93" s="51">
         <f t="shared" si="17"/>
         <v>898.24561403508778</v>
@@ -8208,26 +8272,26 @@
         <f t="shared" si="21"/>
         <v>0.18</v>
       </c>
-      <c r="G94" s="219">
+      <c r="G94" s="230">
         <f t="shared" si="22"/>
         <v>3.3</v>
       </c>
-      <c r="H94" s="221"/>
-      <c r="I94" s="264">
+      <c r="H94" s="231"/>
+      <c r="I94" s="261">
         <f t="shared" si="19"/>
         <v>3.3</v>
       </c>
-      <c r="J94" s="220"/>
-      <c r="K94" s="219">
+      <c r="J94" s="241"/>
+      <c r="K94" s="230">
         <f t="shared" si="20"/>
         <v>1.65</v>
       </c>
-      <c r="L94" s="220"/>
-      <c r="M94" s="219">
+      <c r="L94" s="241"/>
+      <c r="M94" s="230">
         <f t="shared" si="16"/>
         <v>0.86842105263157876</v>
       </c>
-      <c r="N94" s="221"/>
+      <c r="N94" s="231"/>
       <c r="O94" s="67">
         <f t="shared" si="17"/>
         <v>1077.894736842105</v>
@@ -8245,26 +8309,26 @@
         <f t="shared" si="21"/>
         <v>0.24499999999999997</v>
       </c>
-      <c r="G95" s="216">
+      <c r="G95" s="224">
         <f t="shared" si="22"/>
         <v>3.8499999999999996</v>
       </c>
-      <c r="H95" s="218"/>
-      <c r="I95" s="234">
+      <c r="H95" s="225"/>
+      <c r="I95" s="242">
         <f t="shared" si="19"/>
         <v>3.85</v>
       </c>
-      <c r="J95" s="217"/>
-      <c r="K95" s="216">
+      <c r="J95" s="238"/>
+      <c r="K95" s="224">
         <f t="shared" si="20"/>
         <v>1.9250000000000003</v>
       </c>
-      <c r="L95" s="217"/>
-      <c r="M95" s="216">
+      <c r="L95" s="238"/>
+      <c r="M95" s="224">
         <f t="shared" si="16"/>
         <v>1.013157894736842</v>
       </c>
-      <c r="N95" s="218"/>
+      <c r="N95" s="225"/>
       <c r="O95" s="51">
         <f t="shared" si="17"/>
         <v>1257.5438596491229</v>
@@ -8282,26 +8346,26 @@
         <f t="shared" si="21"/>
         <v>0.32000000000000006</v>
       </c>
-      <c r="G96" s="216">
+      <c r="G96" s="224">
         <f t="shared" si="22"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="H96" s="218"/>
-      <c r="I96" s="234">
+      <c r="H96" s="225"/>
+      <c r="I96" s="242">
         <f t="shared" si="19"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="J96" s="217"/>
-      <c r="K96" s="216">
+      <c r="J96" s="238"/>
+      <c r="K96" s="224">
         <f t="shared" si="20"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="L96" s="217"/>
-      <c r="M96" s="216">
+      <c r="L96" s="238"/>
+      <c r="M96" s="224">
         <f t="shared" si="16"/>
         <v>1.1578947368421053</v>
       </c>
-      <c r="N96" s="218"/>
+      <c r="N96" s="225"/>
       <c r="O96" s="51">
         <f t="shared" si="17"/>
         <v>1437.1929824561405</v>
@@ -8319,26 +8383,26 @@
         <f t="shared" si="21"/>
         <v>0.40500000000000003</v>
       </c>
-      <c r="G97" s="216">
+      <c r="G97" s="224">
         <f t="shared" si="22"/>
         <v>4.95</v>
       </c>
-      <c r="H97" s="218"/>
-      <c r="I97" s="234">
+      <c r="H97" s="225"/>
+      <c r="I97" s="242">
         <f t="shared" si="19"/>
         <v>4.95</v>
       </c>
-      <c r="J97" s="217"/>
-      <c r="K97" s="216">
+      <c r="J97" s="238"/>
+      <c r="K97" s="224">
         <f t="shared" si="20"/>
         <v>2.4750000000000001</v>
       </c>
-      <c r="L97" s="217"/>
-      <c r="M97" s="216">
+      <c r="L97" s="238"/>
+      <c r="M97" s="224">
         <f t="shared" si="16"/>
         <v>1.3026315789473686</v>
       </c>
-      <c r="N97" s="218"/>
+      <c r="N97" s="225"/>
       <c r="O97" s="51">
         <f t="shared" si="17"/>
         <v>1616.8421052631581</v>
@@ -8356,26 +8420,26 @@
         <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
-      <c r="G98" s="216">
+      <c r="G98" s="224">
         <f t="shared" si="22"/>
         <v>5.5</v>
       </c>
-      <c r="H98" s="218"/>
-      <c r="I98" s="234">
+      <c r="H98" s="225"/>
+      <c r="I98" s="242">
         <f t="shared" si="19"/>
         <v>5.5</v>
       </c>
-      <c r="J98" s="217"/>
-      <c r="K98" s="216">
+      <c r="J98" s="238"/>
+      <c r="K98" s="224">
         <f t="shared" si="20"/>
         <v>2.75</v>
       </c>
-      <c r="L98" s="217"/>
-      <c r="M98" s="216">
+      <c r="L98" s="238"/>
+      <c r="M98" s="224">
         <f t="shared" si="16"/>
         <v>1.4473684210526316</v>
       </c>
-      <c r="N98" s="218"/>
+      <c r="N98" s="225"/>
       <c r="O98" s="51">
         <f t="shared" si="17"/>
         <v>1796.4912280701756</v>
@@ -8393,26 +8457,26 @@
         <f t="shared" si="21"/>
         <v>0.60500000000000009</v>
       </c>
-      <c r="G99" s="216">
+      <c r="G99" s="224">
         <f t="shared" si="22"/>
         <v>6.0500000000000007</v>
       </c>
-      <c r="H99" s="218"/>
-      <c r="I99" s="234">
+      <c r="H99" s="225"/>
+      <c r="I99" s="242">
         <f t="shared" si="19"/>
         <v>6.0500000000000007</v>
       </c>
-      <c r="J99" s="217"/>
-      <c r="K99" s="216">
+      <c r="J99" s="238"/>
+      <c r="K99" s="224">
         <f t="shared" si="20"/>
         <v>3.0250000000000004</v>
       </c>
-      <c r="L99" s="217"/>
-      <c r="M99" s="216">
+      <c r="L99" s="238"/>
+      <c r="M99" s="224">
         <f t="shared" si="16"/>
         <v>1.5921052631578949</v>
       </c>
-      <c r="N99" s="218"/>
+      <c r="N99" s="225"/>
       <c r="O99" s="51">
         <f t="shared" si="17"/>
         <v>1976.1403508771932</v>
@@ -8430,26 +8494,26 @@
         <f t="shared" si="21"/>
         <v>0.72</v>
       </c>
-      <c r="G100" s="210">
+      <c r="G100" s="236">
         <f t="shared" si="22"/>
         <v>6.6</v>
       </c>
-      <c r="H100" s="212"/>
-      <c r="I100" s="258">
+      <c r="H100" s="237"/>
+      <c r="I100" s="271">
         <f t="shared" si="19"/>
         <v>6.6</v>
       </c>
-      <c r="J100" s="211"/>
-      <c r="K100" s="210">
+      <c r="J100" s="240"/>
+      <c r="K100" s="236">
         <f t="shared" si="20"/>
         <v>3.3</v>
       </c>
-      <c r="L100" s="211"/>
-      <c r="M100" s="210">
+      <c r="L100" s="240"/>
+      <c r="M100" s="236">
         <f t="shared" si="16"/>
         <v>1.7368421052631575</v>
       </c>
-      <c r="N100" s="212"/>
+      <c r="N100" s="237"/>
       <c r="O100" s="52">
         <f t="shared" si="17"/>
         <v>2155.78947368421</v>
@@ -8462,39 +8526,39 @@
     </row>
     <row r="103" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="104" spans="3:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D104" s="247" t="s">
+      <c r="D104" s="263" t="s">
         <v>16</v>
       </c>
-      <c r="E104" s="250" t="s">
+      <c r="E104" s="266" t="s">
         <v>215</v>
       </c>
-      <c r="F104" s="251"/>
-      <c r="G104" s="252" t="s">
+      <c r="F104" s="267"/>
+      <c r="G104" s="268" t="s">
         <v>12</v>
       </c>
-      <c r="H104" s="253"/>
-      <c r="I104" s="253"/>
-      <c r="J104" s="254"/>
+      <c r="H104" s="269"/>
+      <c r="I104" s="269"/>
+      <c r="J104" s="270"/>
       <c r="K104" s="25"/>
     </row>
     <row r="105" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="D105" s="248"/>
-      <c r="E105" s="255" t="s">
+      <c r="D105" s="264"/>
+      <c r="E105" s="284" t="s">
         <v>23</v>
       </c>
-      <c r="F105" s="256"/>
-      <c r="G105" s="255" t="s">
+      <c r="F105" s="285"/>
+      <c r="G105" s="284" t="s">
         <v>18</v>
       </c>
-      <c r="H105" s="257"/>
-      <c r="I105" s="257" t="s">
+      <c r="H105" s="286"/>
+      <c r="I105" s="286" t="s">
         <v>19</v>
       </c>
-      <c r="J105" s="256"/>
+      <c r="J105" s="285"/>
       <c r="K105" s="26"/>
     </row>
     <row r="106" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="D106" s="248"/>
+      <c r="D106" s="264"/>
       <c r="E106" s="8" t="s">
         <v>24</v>
       </c>
@@ -8518,7 +8582,7 @@
       </c>
     </row>
     <row r="107" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D107" s="249"/>
+      <c r="D107" s="265"/>
       <c r="E107" s="4" t="s">
         <v>27</v>
       </c>
@@ -8545,21 +8609,21 @@
       <c r="D108" s="31">
         <v>0</v>
       </c>
-      <c r="E108" s="235">
+      <c r="E108" s="214">
         <f>D108*F$107/(F$106+F$107)</f>
         <v>0</v>
       </c>
-      <c r="F108" s="236"/>
-      <c r="G108" s="235">
+      <c r="F108" s="215"/>
+      <c r="G108" s="214">
         <f>E108*H$107/(H$106+H$107)</f>
         <v>0</v>
       </c>
-      <c r="H108" s="237"/>
-      <c r="I108" s="237">
+      <c r="H108" s="216"/>
+      <c r="I108" s="216">
         <f>G108*J$107/(J$106+J$107)</f>
         <v>0</v>
       </c>
-      <c r="J108" s="236"/>
+      <c r="J108" s="215"/>
       <c r="K108" s="32">
         <f>I108*4096/3.3</f>
         <v>0</v>
@@ -8569,21 +8633,21 @@
       <c r="D109" s="33">
         <v>1</v>
       </c>
-      <c r="E109" s="235">
+      <c r="E109" s="214">
         <f t="shared" ref="E109:E120" si="23">D109*F$107/(F$106+F$107)</f>
         <v>0.99009900990099009</v>
       </c>
-      <c r="F109" s="236"/>
-      <c r="G109" s="235">
+      <c r="F109" s="215"/>
+      <c r="G109" s="214">
         <f t="shared" ref="G109:G120" si="24">E109*H$107/(H$106+H$107)</f>
         <v>0.49504950495049499</v>
       </c>
-      <c r="H109" s="237"/>
-      <c r="I109" s="237">
+      <c r="H109" s="216"/>
+      <c r="I109" s="216">
         <f t="shared" ref="I109:I120" si="25">G109*J$107/(J$106+J$107)</f>
         <v>0.2605523710265763</v>
       </c>
-      <c r="J109" s="236"/>
+      <c r="J109" s="215"/>
       <c r="K109" s="19">
         <f>I109*4096/3.3</f>
         <v>323.40076112874442</v>
@@ -8593,21 +8657,21 @@
       <c r="D110" s="33">
         <v>2</v>
       </c>
-      <c r="E110" s="235">
+      <c r="E110" s="214">
         <f t="shared" si="23"/>
         <v>1.9801980198019802</v>
       </c>
-      <c r="F110" s="236"/>
-      <c r="G110" s="235">
+      <c r="F110" s="215"/>
+      <c r="G110" s="214">
         <f t="shared" si="24"/>
         <v>0.99009900990098998</v>
       </c>
-      <c r="H110" s="237"/>
-      <c r="I110" s="237">
+      <c r="H110" s="216"/>
+      <c r="I110" s="216">
         <f t="shared" si="25"/>
         <v>0.5211047420531526</v>
       </c>
-      <c r="J110" s="236"/>
+      <c r="J110" s="215"/>
       <c r="K110" s="19">
         <f>I110*4096/3.3</f>
         <v>646.80152225748884</v>
@@ -8617,21 +8681,21 @@
       <c r="D111" s="33">
         <v>3</v>
       </c>
-      <c r="E111" s="235">
+      <c r="E111" s="214">
         <f t="shared" si="23"/>
         <v>2.9702970297029703</v>
       </c>
-      <c r="F111" s="236"/>
-      <c r="G111" s="235">
+      <c r="F111" s="215"/>
+      <c r="G111" s="214">
         <f t="shared" si="24"/>
         <v>1.4851485148514851</v>
       </c>
-      <c r="H111" s="237"/>
-      <c r="I111" s="237">
+      <c r="H111" s="216"/>
+      <c r="I111" s="216">
         <f t="shared" si="25"/>
         <v>0.78165711307972907</v>
       </c>
-      <c r="J111" s="236"/>
+      <c r="J111" s="215"/>
       <c r="K111" s="19">
         <f t="shared" ref="K111:K120" si="26">I111*4096/3.3</f>
         <v>970.20228338623349</v>
@@ -8641,21 +8705,21 @@
       <c r="D112" s="33">
         <v>4</v>
       </c>
-      <c r="E112" s="235">
+      <c r="E112" s="214">
         <f t="shared" si="23"/>
         <v>3.9603960396039604</v>
       </c>
-      <c r="F112" s="236"/>
-      <c r="G112" s="235">
+      <c r="F112" s="215"/>
+      <c r="G112" s="214">
         <f t="shared" si="24"/>
         <v>1.98019801980198</v>
       </c>
-      <c r="H112" s="237"/>
-      <c r="I112" s="237">
+      <c r="H112" s="216"/>
+      <c r="I112" s="216">
         <f t="shared" si="25"/>
         <v>1.0422094841063052</v>
       </c>
-      <c r="J112" s="236"/>
+      <c r="J112" s="215"/>
       <c r="K112" s="19">
         <f t="shared" si="26"/>
         <v>1293.6030445149777</v>
@@ -8665,21 +8729,21 @@
       <c r="D113" s="33">
         <v>5</v>
       </c>
-      <c r="E113" s="235">
+      <c r="E113" s="214">
         <f t="shared" si="23"/>
         <v>4.9504950495049505</v>
       </c>
-      <c r="F113" s="236"/>
-      <c r="G113" s="235">
+      <c r="F113" s="215"/>
+      <c r="G113" s="214">
         <f t="shared" si="24"/>
         <v>2.4752475247524752</v>
       </c>
-      <c r="H113" s="237"/>
-      <c r="I113" s="237">
+      <c r="H113" s="216"/>
+      <c r="I113" s="216">
         <f t="shared" si="25"/>
         <v>1.3027618551328817</v>
       </c>
-      <c r="J113" s="236"/>
+      <c r="J113" s="215"/>
       <c r="K113" s="19">
         <f t="shared" si="26"/>
         <v>1617.0038056437222</v>
@@ -8689,21 +8753,21 @@
       <c r="D114" s="33">
         <v>6</v>
       </c>
-      <c r="E114" s="235">
+      <c r="E114" s="214">
         <f t="shared" si="23"/>
         <v>5.9405940594059405</v>
       </c>
-      <c r="F114" s="236"/>
-      <c r="G114" s="235">
+      <c r="F114" s="215"/>
+      <c r="G114" s="214">
         <f t="shared" si="24"/>
         <v>2.9702970297029703</v>
       </c>
-      <c r="H114" s="237"/>
-      <c r="I114" s="237">
+      <c r="H114" s="216"/>
+      <c r="I114" s="216">
         <f t="shared" si="25"/>
         <v>1.5633142261594581</v>
       </c>
-      <c r="J114" s="236"/>
+      <c r="J114" s="215"/>
       <c r="K114" s="19">
         <f t="shared" si="26"/>
         <v>1940.404566772467</v>
@@ -8713,21 +8777,21 @@
       <c r="D115" s="35">
         <v>7</v>
       </c>
-      <c r="E115" s="244">
+      <c r="E115" s="208">
         <f t="shared" si="23"/>
         <v>6.9306930693069306</v>
       </c>
-      <c r="F115" s="245"/>
-      <c r="G115" s="244">
+      <c r="F115" s="209"/>
+      <c r="G115" s="208">
         <f t="shared" si="24"/>
         <v>3.4653465346534649</v>
       </c>
-      <c r="H115" s="246"/>
-      <c r="I115" s="246">
+      <c r="H115" s="210"/>
+      <c r="I115" s="210">
         <f t="shared" si="25"/>
         <v>1.8238665971860342</v>
       </c>
-      <c r="J115" s="245"/>
+      <c r="J115" s="209"/>
       <c r="K115" s="36">
         <f t="shared" si="26"/>
         <v>2263.8053279012111</v>
@@ -8737,21 +8801,21 @@
       <c r="D116" s="35">
         <v>8</v>
       </c>
-      <c r="E116" s="244">
+      <c r="E116" s="208">
         <f t="shared" si="23"/>
         <v>7.9207920792079207</v>
       </c>
-      <c r="F116" s="245"/>
-      <c r="G116" s="244">
+      <c r="F116" s="209"/>
+      <c r="G116" s="208">
         <f t="shared" si="24"/>
         <v>3.9603960396039599</v>
       </c>
-      <c r="H116" s="246"/>
-      <c r="I116" s="246">
+      <c r="H116" s="210"/>
+      <c r="I116" s="210">
         <f t="shared" si="25"/>
         <v>2.0844189682126104</v>
       </c>
-      <c r="J116" s="245"/>
+      <c r="J116" s="209"/>
       <c r="K116" s="36">
         <f t="shared" si="26"/>
         <v>2587.2060890299554</v>
@@ -8761,21 +8825,21 @@
       <c r="D117" s="35">
         <v>9</v>
       </c>
-      <c r="E117" s="244">
+      <c r="E117" s="208">
         <f t="shared" si="23"/>
         <v>8.9108910891089117</v>
       </c>
-      <c r="F117" s="245"/>
-      <c r="G117" s="244">
+      <c r="F117" s="209"/>
+      <c r="G117" s="208">
         <f t="shared" si="24"/>
         <v>4.4554455445544559</v>
       </c>
-      <c r="H117" s="246"/>
-      <c r="I117" s="246">
+      <c r="H117" s="210"/>
+      <c r="I117" s="210">
         <f t="shared" si="25"/>
         <v>2.3449713392391871</v>
       </c>
-      <c r="J117" s="245"/>
+      <c r="J117" s="209"/>
       <c r="K117" s="36">
         <f t="shared" si="26"/>
         <v>2910.6068501587001</v>
@@ -8785,21 +8849,21 @@
       <c r="D118" s="35">
         <v>10</v>
       </c>
-      <c r="E118" s="244">
+      <c r="E118" s="208">
         <f t="shared" si="23"/>
         <v>9.9009900990099009</v>
       </c>
-      <c r="F118" s="245"/>
-      <c r="G118" s="244">
+      <c r="F118" s="209"/>
+      <c r="G118" s="208">
         <f t="shared" si="24"/>
         <v>4.9504950495049505</v>
       </c>
-      <c r="H118" s="246"/>
-      <c r="I118" s="246">
+      <c r="H118" s="210"/>
+      <c r="I118" s="210">
         <f t="shared" si="25"/>
         <v>2.6055237102657633</v>
       </c>
-      <c r="J118" s="245"/>
+      <c r="J118" s="209"/>
       <c r="K118" s="36">
         <f t="shared" si="26"/>
         <v>3234.0076112874444</v>
@@ -8809,21 +8873,21 @@
       <c r="D119" s="35">
         <v>11</v>
       </c>
-      <c r="E119" s="244">
+      <c r="E119" s="208">
         <f t="shared" si="23"/>
         <v>10.891089108910892</v>
       </c>
-      <c r="F119" s="245"/>
-      <c r="G119" s="244">
+      <c r="F119" s="209"/>
+      <c r="G119" s="208">
         <f t="shared" si="24"/>
         <v>5.4455445544554459</v>
       </c>
-      <c r="H119" s="246"/>
-      <c r="I119" s="246">
+      <c r="H119" s="210"/>
+      <c r="I119" s="210">
         <f t="shared" si="25"/>
         <v>2.86607608129234</v>
       </c>
-      <c r="J119" s="245"/>
+      <c r="J119" s="209"/>
       <c r="K119" s="36">
         <f t="shared" si="26"/>
         <v>3557.4083724161896</v>
@@ -8833,21 +8897,21 @@
       <c r="D120" s="35">
         <v>12</v>
       </c>
-      <c r="E120" s="241">
+      <c r="E120" s="211">
         <f t="shared" si="23"/>
         <v>11.881188118811881</v>
       </c>
-      <c r="F120" s="242"/>
-      <c r="G120" s="241">
+      <c r="F120" s="212"/>
+      <c r="G120" s="211">
         <f t="shared" si="24"/>
         <v>5.9405940594059405</v>
       </c>
-      <c r="H120" s="243"/>
-      <c r="I120" s="243">
+      <c r="H120" s="213"/>
+      <c r="I120" s="213">
         <f t="shared" si="25"/>
         <v>3.1266284523189163</v>
       </c>
-      <c r="J120" s="242"/>
+      <c r="J120" s="212"/>
       <c r="K120" s="37">
         <f t="shared" si="26"/>
         <v>3880.809133544934</v>
@@ -8860,39 +8924,39 @@
     </row>
     <row r="123" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="124" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D124" s="247" t="s">
+      <c r="D124" s="263" t="s">
         <v>16</v>
       </c>
-      <c r="E124" s="250" t="s">
+      <c r="E124" s="266" t="s">
         <v>215</v>
       </c>
-      <c r="F124" s="251"/>
-      <c r="G124" s="252" t="s">
+      <c r="F124" s="267"/>
+      <c r="G124" s="268" t="s">
         <v>12</v>
       </c>
-      <c r="H124" s="253"/>
-      <c r="I124" s="253"/>
-      <c r="J124" s="254"/>
+      <c r="H124" s="269"/>
+      <c r="I124" s="269"/>
+      <c r="J124" s="270"/>
       <c r="K124" s="25"/>
     </row>
     <row r="125" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D125" s="248"/>
-      <c r="E125" s="255" t="s">
+      <c r="D125" s="264"/>
+      <c r="E125" s="284" t="s">
         <v>23</v>
       </c>
-      <c r="F125" s="256"/>
-      <c r="G125" s="255" t="s">
+      <c r="F125" s="285"/>
+      <c r="G125" s="284" t="s">
         <v>18</v>
       </c>
-      <c r="H125" s="257"/>
-      <c r="I125" s="257" t="s">
+      <c r="H125" s="286"/>
+      <c r="I125" s="286" t="s">
         <v>19</v>
       </c>
-      <c r="J125" s="256"/>
+      <c r="J125" s="285"/>
       <c r="K125" s="26"/>
     </row>
     <row r="126" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D126" s="248"/>
+      <c r="D126" s="264"/>
       <c r="E126" s="113" t="s">
         <v>24</v>
       </c>
@@ -8916,7 +8980,7 @@
       </c>
     </row>
     <row r="127" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D127" s="249"/>
+      <c r="D127" s="265"/>
       <c r="E127" s="4" t="s">
         <v>27</v>
       </c>
@@ -8943,21 +9007,21 @@
       <c r="D128" s="31">
         <v>0</v>
       </c>
-      <c r="E128" s="235">
+      <c r="E128" s="214">
         <f>D128*F$107/(F$106+F$107)</f>
         <v>0</v>
       </c>
-      <c r="F128" s="236"/>
-      <c r="G128" s="235">
+      <c r="F128" s="215"/>
+      <c r="G128" s="214">
         <f>E128*H$107/(H$106+H$107)</f>
         <v>0</v>
       </c>
-      <c r="H128" s="237"/>
-      <c r="I128" s="237">
+      <c r="H128" s="216"/>
+      <c r="I128" s="216">
         <f>G128*J$107/(J$106+J$107)</f>
         <v>0</v>
       </c>
-      <c r="J128" s="236"/>
+      <c r="J128" s="215"/>
       <c r="K128" s="32">
         <f>I128*4096/3.3</f>
         <v>0</v>
@@ -8967,21 +9031,21 @@
       <c r="D129" s="33">
         <v>1</v>
       </c>
-      <c r="E129" s="235">
+      <c r="E129" s="214">
         <f t="shared" ref="E129:E140" si="27">D129*F$107/(F$106+F$107)</f>
         <v>0.99009900990099009</v>
       </c>
-      <c r="F129" s="236"/>
-      <c r="G129" s="235">
+      <c r="F129" s="215"/>
+      <c r="G129" s="214">
         <f t="shared" ref="G129:G140" si="28">E129*H$107/(H$106+H$107)</f>
         <v>0.49504950495049499</v>
       </c>
-      <c r="H129" s="237"/>
-      <c r="I129" s="237">
+      <c r="H129" s="216"/>
+      <c r="I129" s="216">
         <f t="shared" ref="I129:I140" si="29">G129*J$107/(J$106+J$107)</f>
         <v>0.2605523710265763</v>
       </c>
-      <c r="J129" s="236"/>
+      <c r="J129" s="215"/>
       <c r="K129" s="19">
         <f>I129*4096/3.3</f>
         <v>323.40076112874442</v>
@@ -8991,21 +9055,21 @@
       <c r="D130" s="33">
         <v>2</v>
       </c>
-      <c r="E130" s="235">
+      <c r="E130" s="214">
         <f t="shared" si="27"/>
         <v>1.9801980198019802</v>
       </c>
-      <c r="F130" s="236"/>
-      <c r="G130" s="235">
+      <c r="F130" s="215"/>
+      <c r="G130" s="214">
         <f t="shared" si="28"/>
         <v>0.99009900990098998</v>
       </c>
-      <c r="H130" s="237"/>
-      <c r="I130" s="237">
+      <c r="H130" s="216"/>
+      <c r="I130" s="216">
         <f t="shared" si="29"/>
         <v>0.5211047420531526</v>
       </c>
-      <c r="J130" s="236"/>
+      <c r="J130" s="215"/>
       <c r="K130" s="19">
         <f>I130*4096/3.3</f>
         <v>646.80152225748884</v>
@@ -9015,21 +9079,21 @@
       <c r="D131" s="33">
         <v>3</v>
       </c>
-      <c r="E131" s="235">
+      <c r="E131" s="214">
         <f t="shared" si="27"/>
         <v>2.9702970297029703</v>
       </c>
-      <c r="F131" s="236"/>
-      <c r="G131" s="235">
+      <c r="F131" s="215"/>
+      <c r="G131" s="214">
         <f t="shared" si="28"/>
         <v>1.4851485148514851</v>
       </c>
-      <c r="H131" s="237"/>
-      <c r="I131" s="237">
+      <c r="H131" s="216"/>
+      <c r="I131" s="216">
         <f t="shared" si="29"/>
         <v>0.78165711307972907</v>
       </c>
-      <c r="J131" s="236"/>
+      <c r="J131" s="215"/>
       <c r="K131" s="19">
         <f t="shared" ref="K131:K140" si="30">I131*4096/3.3</f>
         <v>970.20228338623349</v>
@@ -9039,21 +9103,21 @@
       <c r="D132" s="33">
         <v>4</v>
       </c>
-      <c r="E132" s="235">
+      <c r="E132" s="214">
         <f t="shared" si="27"/>
         <v>3.9603960396039604</v>
       </c>
-      <c r="F132" s="236"/>
-      <c r="G132" s="235">
+      <c r="F132" s="215"/>
+      <c r="G132" s="214">
         <f t="shared" si="28"/>
         <v>1.98019801980198</v>
       </c>
-      <c r="H132" s="237"/>
-      <c r="I132" s="237">
+      <c r="H132" s="216"/>
+      <c r="I132" s="216">
         <f t="shared" si="29"/>
         <v>1.0422094841063052</v>
       </c>
-      <c r="J132" s="236"/>
+      <c r="J132" s="215"/>
       <c r="K132" s="19">
         <f t="shared" si="30"/>
         <v>1293.6030445149777</v>
@@ -9063,21 +9127,21 @@
       <c r="D133" s="33">
         <v>5</v>
       </c>
-      <c r="E133" s="235">
+      <c r="E133" s="214">
         <f t="shared" si="27"/>
         <v>4.9504950495049505</v>
       </c>
-      <c r="F133" s="236"/>
-      <c r="G133" s="235">
+      <c r="F133" s="215"/>
+      <c r="G133" s="214">
         <f t="shared" si="28"/>
         <v>2.4752475247524752</v>
       </c>
-      <c r="H133" s="237"/>
-      <c r="I133" s="237">
+      <c r="H133" s="216"/>
+      <c r="I133" s="216">
         <f t="shared" si="29"/>
         <v>1.3027618551328817</v>
       </c>
-      <c r="J133" s="236"/>
+      <c r="J133" s="215"/>
       <c r="K133" s="19">
         <f t="shared" si="30"/>
         <v>1617.0038056437222</v>
@@ -9087,21 +9151,21 @@
       <c r="D134" s="33">
         <v>6</v>
       </c>
-      <c r="E134" s="235">
+      <c r="E134" s="214">
         <f t="shared" si="27"/>
         <v>5.9405940594059405</v>
       </c>
-      <c r="F134" s="236"/>
-      <c r="G134" s="235">
+      <c r="F134" s="215"/>
+      <c r="G134" s="214">
         <f t="shared" si="28"/>
         <v>2.9702970297029703</v>
       </c>
-      <c r="H134" s="237"/>
-      <c r="I134" s="237">
+      <c r="H134" s="216"/>
+      <c r="I134" s="216">
         <f t="shared" si="29"/>
         <v>1.5633142261594581</v>
       </c>
-      <c r="J134" s="236"/>
+      <c r="J134" s="215"/>
       <c r="K134" s="19">
         <f t="shared" si="30"/>
         <v>1940.404566772467</v>
@@ -9111,21 +9175,21 @@
       <c r="D135" s="35">
         <v>7</v>
       </c>
-      <c r="E135" s="244">
+      <c r="E135" s="208">
         <f t="shared" si="27"/>
         <v>6.9306930693069306</v>
       </c>
-      <c r="F135" s="245"/>
-      <c r="G135" s="244">
+      <c r="F135" s="209"/>
+      <c r="G135" s="208">
         <f t="shared" si="28"/>
         <v>3.4653465346534649</v>
       </c>
-      <c r="H135" s="246"/>
-      <c r="I135" s="246">
+      <c r="H135" s="210"/>
+      <c r="I135" s="210">
         <f t="shared" si="29"/>
         <v>1.8238665971860342</v>
       </c>
-      <c r="J135" s="245"/>
+      <c r="J135" s="209"/>
       <c r="K135" s="36">
         <f t="shared" si="30"/>
         <v>2263.8053279012111</v>
@@ -9135,21 +9199,21 @@
       <c r="D136" s="35">
         <v>8</v>
       </c>
-      <c r="E136" s="244">
+      <c r="E136" s="208">
         <f t="shared" si="27"/>
         <v>7.9207920792079207</v>
       </c>
-      <c r="F136" s="245"/>
-      <c r="G136" s="244">
+      <c r="F136" s="209"/>
+      <c r="G136" s="208">
         <f t="shared" si="28"/>
         <v>3.9603960396039599</v>
       </c>
-      <c r="H136" s="246"/>
-      <c r="I136" s="246">
+      <c r="H136" s="210"/>
+      <c r="I136" s="210">
         <f t="shared" si="29"/>
         <v>2.0844189682126104</v>
       </c>
-      <c r="J136" s="245"/>
+      <c r="J136" s="209"/>
       <c r="K136" s="36">
         <f t="shared" si="30"/>
         <v>2587.2060890299554</v>
@@ -9159,21 +9223,21 @@
       <c r="D137" s="35">
         <v>9</v>
       </c>
-      <c r="E137" s="244">
+      <c r="E137" s="208">
         <f t="shared" si="27"/>
         <v>8.9108910891089117</v>
       </c>
-      <c r="F137" s="245"/>
-      <c r="G137" s="244">
+      <c r="F137" s="209"/>
+      <c r="G137" s="208">
         <f t="shared" si="28"/>
         <v>4.4554455445544559</v>
       </c>
-      <c r="H137" s="246"/>
-      <c r="I137" s="246">
+      <c r="H137" s="210"/>
+      <c r="I137" s="210">
         <f t="shared" si="29"/>
         <v>2.3449713392391871</v>
       </c>
-      <c r="J137" s="245"/>
+      <c r="J137" s="209"/>
       <c r="K137" s="36">
         <f t="shared" si="30"/>
         <v>2910.6068501587001</v>
@@ -9183,21 +9247,21 @@
       <c r="D138" s="35">
         <v>10</v>
       </c>
-      <c r="E138" s="244">
+      <c r="E138" s="208">
         <f t="shared" si="27"/>
         <v>9.9009900990099009</v>
       </c>
-      <c r="F138" s="245"/>
-      <c r="G138" s="244">
+      <c r="F138" s="209"/>
+      <c r="G138" s="208">
         <f t="shared" si="28"/>
         <v>4.9504950495049505</v>
       </c>
-      <c r="H138" s="246"/>
-      <c r="I138" s="246">
+      <c r="H138" s="210"/>
+      <c r="I138" s="210">
         <f t="shared" si="29"/>
         <v>2.6055237102657633</v>
       </c>
-      <c r="J138" s="245"/>
+      <c r="J138" s="209"/>
       <c r="K138" s="36">
         <f t="shared" si="30"/>
         <v>3234.0076112874444</v>
@@ -9207,21 +9271,21 @@
       <c r="D139" s="35">
         <v>11</v>
       </c>
-      <c r="E139" s="244">
+      <c r="E139" s="208">
         <f t="shared" si="27"/>
         <v>10.891089108910892</v>
       </c>
-      <c r="F139" s="245"/>
-      <c r="G139" s="244">
+      <c r="F139" s="209"/>
+      <c r="G139" s="208">
         <f t="shared" si="28"/>
         <v>5.4455445544554459</v>
       </c>
-      <c r="H139" s="246"/>
-      <c r="I139" s="246">
+      <c r="H139" s="210"/>
+      <c r="I139" s="210">
         <f t="shared" si="29"/>
         <v>2.86607608129234</v>
       </c>
-      <c r="J139" s="245"/>
+      <c r="J139" s="209"/>
       <c r="K139" s="36">
         <f t="shared" si="30"/>
         <v>3557.4083724161896</v>
@@ -9231,21 +9295,21 @@
       <c r="D140" s="35">
         <v>12</v>
       </c>
-      <c r="E140" s="241">
+      <c r="E140" s="211">
         <f t="shared" si="27"/>
         <v>11.881188118811881</v>
       </c>
-      <c r="F140" s="242"/>
-      <c r="G140" s="241">
+      <c r="F140" s="212"/>
+      <c r="G140" s="211">
         <f t="shared" si="28"/>
         <v>5.9405940594059405</v>
       </c>
-      <c r="H140" s="243"/>
-      <c r="I140" s="243">
+      <c r="H140" s="213"/>
+      <c r="I140" s="213">
         <f t="shared" si="29"/>
         <v>3.1266284523189163</v>
       </c>
-      <c r="J140" s="242"/>
+      <c r="J140" s="212"/>
       <c r="K140" s="37">
         <f t="shared" si="30"/>
         <v>3880.809133544934</v>
@@ -9253,221 +9317,41 @@
     </row>
   </sheetData>
   <mergeCells count="274">
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="I139:J139"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="I140:J140"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="I136:J136"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="I137:J137"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="I138:J138"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="I133:J133"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="I134:J134"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="I135:J135"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="I130:J130"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="I132:J132"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="D104:D107"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="G104:J104"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="E84:J84"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="I112:J112"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="K96:L96"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="K95:L95"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="I95:J95"/>
     <mergeCell ref="E128:F128"/>
     <mergeCell ref="G128:H128"/>
     <mergeCell ref="I128:J128"/>
@@ -9492,41 +9376,221 @@
     <mergeCell ref="G94:H94"/>
     <mergeCell ref="G95:H95"/>
     <mergeCell ref="G96:H96"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="K100:L100"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="K96:L96"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="K97:L97"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="K95:L95"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="I112:J112"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="D104:D107"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="G104:J104"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="E84:J84"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="I135:J135"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="I139:J139"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="I140:J140"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="I136:J136"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="I137:J137"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="I138:J138"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9630,18 +9694,18 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="314" t="s">
+      <c r="F11" s="292" t="s">
         <v>214</v>
       </c>
-      <c r="G11" s="315"/>
-      <c r="H11" s="315"/>
-      <c r="I11" s="316"/>
-      <c r="J11" s="238" t="s">
+      <c r="G11" s="293"/>
+      <c r="H11" s="293"/>
+      <c r="I11" s="294"/>
+      <c r="J11" s="217" t="s">
         <v>94</v>
       </c>
-      <c r="K11" s="239"/>
-      <c r="L11" s="239"/>
-      <c r="M11" s="240"/>
+      <c r="K11" s="219"/>
+      <c r="L11" s="219"/>
+      <c r="M11" s="220"/>
       <c r="N11" s="82" t="s">
         <v>36</v>
       </c>
@@ -9750,22 +9814,22 @@
       <c r="E15" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="238" t="s">
+      <c r="F15" s="217" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="259"/>
-      <c r="H15" s="315" t="s">
+      <c r="G15" s="218"/>
+      <c r="H15" s="293" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="316"/>
-      <c r="J15" s="238" t="s">
+      <c r="I15" s="294"/>
+      <c r="J15" s="217" t="s">
         <v>102</v>
       </c>
-      <c r="K15" s="240"/>
-      <c r="L15" s="278" t="s">
+      <c r="K15" s="220"/>
+      <c r="L15" s="249" t="s">
         <v>103</v>
       </c>
-      <c r="M15" s="239"/>
+      <c r="M15" s="219"/>
       <c r="N15" s="161" t="s">
         <v>222</v>
       </c>
@@ -9780,26 +9844,26 @@
         <f t="shared" ref="E16:E43" si="0">10*EXP(E$5*(1/(D16+273)-1/(25+273)))</f>
         <v>28.736182350842125</v>
       </c>
-      <c r="F16" s="235">
+      <c r="F16" s="214">
         <f>G$12*G$14/(G$13+$E16+G$14)</f>
         <v>0.7331337461034948</v>
       </c>
-      <c r="G16" s="282"/>
-      <c r="H16" s="235">
+      <c r="G16" s="239"/>
+      <c r="H16" s="214">
         <f>F16*I$14/(I$13/2+I$14)</f>
         <v>0.72948631453084067</v>
       </c>
-      <c r="I16" s="282"/>
-      <c r="J16" s="235">
+      <c r="I16" s="239"/>
+      <c r="J16" s="214">
         <f>H16*K$14/(K$13+K$14)</f>
         <v>0.66316937684621879</v>
       </c>
-      <c r="K16" s="236"/>
-      <c r="L16" s="313">
+      <c r="K16" s="215"/>
+      <c r="L16" s="295">
         <f>J16*M$14/(M$13+M$14)</f>
         <v>0.3490365141295888</v>
       </c>
-      <c r="M16" s="237"/>
+      <c r="M16" s="216"/>
       <c r="N16" s="32">
         <f>L16*4096/3.3</f>
         <v>433.22835208327149</v>
@@ -9815,26 +9879,26 @@
         <f t="shared" si="0"/>
         <v>22.916440146739884</v>
       </c>
-      <c r="F17" s="216">
+      <c r="F17" s="224">
         <f t="shared" ref="F17:F43" si="1">G$12*G$14/(G$13+$E17+G$14)</f>
         <v>0.89164837062998015</v>
       </c>
-      <c r="G17" s="217"/>
-      <c r="H17" s="235">
+      <c r="G17" s="238"/>
+      <c r="H17" s="214">
         <f t="shared" ref="H17:H43" si="2">F17*I$14/(I$13/2+I$14)</f>
         <v>0.88721230908455739</v>
       </c>
-      <c r="I17" s="282"/>
-      <c r="J17" s="235">
+      <c r="I17" s="239"/>
+      <c r="J17" s="214">
         <f t="shared" ref="J17:J43" si="3">H17*K$14/(K$13+K$14)</f>
         <v>0.80655664462232479</v>
       </c>
-      <c r="K17" s="236"/>
-      <c r="L17" s="234">
+      <c r="K17" s="215"/>
+      <c r="L17" s="242">
         <f t="shared" ref="L17:L43" si="4">J17*M$14/(M$13+M$14)</f>
         <v>0.42450349716964458</v>
       </c>
-      <c r="M17" s="274"/>
+      <c r="M17" s="243"/>
       <c r="N17" s="32">
         <f t="shared" ref="N17:N43" si="5">L17*4096/3.3</f>
         <v>526.8988861838983</v>
@@ -9850,26 +9914,26 @@
         <f t="shared" si="0"/>
         <v>18.422056005235852</v>
       </c>
-      <c r="F18" s="216">
+      <c r="F18" s="224">
         <f t="shared" si="1"/>
         <v>1.0703746344401102</v>
       </c>
-      <c r="G18" s="217"/>
-      <c r="H18" s="235">
+      <c r="G18" s="238"/>
+      <c r="H18" s="214">
         <f t="shared" si="2"/>
         <v>1.0650493875025973</v>
       </c>
-      <c r="I18" s="282"/>
-      <c r="J18" s="235">
+      <c r="I18" s="239"/>
+      <c r="J18" s="214">
         <f t="shared" si="3"/>
         <v>0.96822671591145204</v>
       </c>
-      <c r="K18" s="236"/>
-      <c r="L18" s="234">
+      <c r="K18" s="215"/>
+      <c r="L18" s="242">
         <f t="shared" si="4"/>
         <v>0.50959300837444843</v>
       </c>
-      <c r="M18" s="274"/>
+      <c r="M18" s="243"/>
       <c r="N18" s="32">
         <f t="shared" si="5"/>
         <v>632.51301887931538</v>
@@ -9885,26 +9949,26 @@
         <f t="shared" si="0"/>
         <v>14.921793401776517</v>
       </c>
-      <c r="F19" s="216">
+      <c r="F19" s="224">
         <f t="shared" si="1"/>
         <v>1.2683787149767052</v>
       </c>
-      <c r="G19" s="217"/>
-      <c r="H19" s="235">
+      <c r="G19" s="238"/>
+      <c r="H19" s="214">
         <f t="shared" si="2"/>
         <v>1.2620683731111495</v>
       </c>
-      <c r="I19" s="282"/>
-      <c r="J19" s="235">
+      <c r="I19" s="239"/>
+      <c r="J19" s="214">
         <f t="shared" si="3"/>
         <v>1.1473348846464995</v>
       </c>
-      <c r="K19" s="236"/>
-      <c r="L19" s="234">
+      <c r="K19" s="215"/>
+      <c r="L19" s="242">
         <f t="shared" si="4"/>
         <v>0.60386046560342077</v>
       </c>
-      <c r="M19" s="274"/>
+      <c r="M19" s="243"/>
       <c r="N19" s="32">
         <f t="shared" si="5"/>
         <v>749.51892942776112</v>
@@ -9920,26 +9984,26 @@
         <f t="shared" si="0"/>
         <v>12.173834597770357</v>
       </c>
-      <c r="F20" s="216">
+      <c r="F20" s="224">
         <f t="shared" si="1"/>
         <v>1.4838781647555934</v>
       </c>
-      <c r="G20" s="217"/>
-      <c r="H20" s="235">
+      <c r="G20" s="238"/>
+      <c r="H20" s="214">
         <f t="shared" si="2"/>
         <v>1.4764956863239738</v>
       </c>
-      <c r="I20" s="282"/>
-      <c r="J20" s="235">
+      <c r="I20" s="239"/>
+      <c r="J20" s="214">
         <f t="shared" si="3"/>
         <v>1.342268805749067</v>
       </c>
-      <c r="K20" s="236"/>
-      <c r="L20" s="234">
+      <c r="K20" s="215"/>
+      <c r="L20" s="242">
         <f t="shared" si="4"/>
         <v>0.7064572661837194</v>
       </c>
-      <c r="M20" s="274"/>
+      <c r="M20" s="243"/>
       <c r="N20" s="32">
         <f t="shared" si="5"/>
         <v>876.86332190561052</v>
@@ -9955,26 +10019,26 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F21" s="283">
+      <c r="F21" s="228">
         <f t="shared" si="1"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="G21" s="307"/>
-      <c r="H21" s="308">
+      <c r="G21" s="296"/>
+      <c r="H21" s="297">
         <f t="shared" si="2"/>
         <v>1.7057569296375266</v>
       </c>
-      <c r="I21" s="309"/>
-      <c r="J21" s="308">
+      <c r="I21" s="298"/>
+      <c r="J21" s="297">
         <f t="shared" si="3"/>
         <v>1.5506881178522969</v>
       </c>
-      <c r="K21" s="310"/>
-      <c r="L21" s="311">
+      <c r="K21" s="299"/>
+      <c r="L21" s="300">
         <f t="shared" si="4"/>
         <v>0.81615164097489312</v>
       </c>
-      <c r="M21" s="312"/>
+      <c r="M21" s="301"/>
       <c r="N21" s="88">
         <f t="shared" si="5"/>
         <v>1013.0173095252007</v>
@@ -9990,26 +10054,26 @@
         <f t="shared" si="0"/>
         <v>8.2678385850558751</v>
       </c>
-      <c r="F22" s="216">
+      <c r="F22" s="224">
         <f t="shared" si="1"/>
         <v>1.9563348371110549</v>
       </c>
-      <c r="G22" s="217"/>
-      <c r="H22" s="235">
+      <c r="G22" s="238"/>
+      <c r="H22" s="214">
         <f t="shared" si="2"/>
         <v>1.9466018279711987</v>
       </c>
-      <c r="I22" s="282"/>
-      <c r="J22" s="235">
+      <c r="I22" s="239"/>
+      <c r="J22" s="214">
         <f t="shared" si="3"/>
         <v>1.7696380254283626</v>
       </c>
-      <c r="K22" s="236"/>
-      <c r="L22" s="234">
+      <c r="K22" s="215"/>
+      <c r="L22" s="242">
         <f t="shared" si="4"/>
         <v>0.93138843443598029</v>
       </c>
-      <c r="M22" s="274"/>
+      <c r="M22" s="243"/>
       <c r="N22" s="32">
         <f t="shared" si="5"/>
         <v>1156.05061437872</v>
@@ -10025,26 +10089,26 @@
         <f t="shared" si="0"/>
         <v>6.8780615308459092</v>
       </c>
-      <c r="F23" s="216">
+      <c r="F23" s="224">
         <f t="shared" si="1"/>
         <v>2.2062754408904039</v>
       </c>
-      <c r="G23" s="217"/>
-      <c r="H23" s="235">
+      <c r="G23" s="238"/>
+      <c r="H23" s="214">
         <f t="shared" si="2"/>
         <v>2.195298946159606</v>
       </c>
-      <c r="I23" s="282"/>
-      <c r="J23" s="235">
+      <c r="I23" s="239"/>
+      <c r="J23" s="214">
         <f t="shared" si="3"/>
         <v>1.9957263146905511</v>
       </c>
-      <c r="K23" s="236"/>
-      <c r="L23" s="234">
+      <c r="K23" s="215"/>
+      <c r="L23" s="242">
         <f t="shared" si="4"/>
         <v>1.0503822708897637</v>
       </c>
-      <c r="M23" s="274"/>
+      <c r="M23" s="243"/>
       <c r="N23" s="32">
         <f t="shared" si="5"/>
         <v>1303.7472065346885</v>
@@ -10060,26 +10124,26 @@
         <f t="shared" si="0"/>
         <v>5.7556406120696577</v>
       </c>
-      <c r="F24" s="216">
+      <c r="F24" s="224">
         <f t="shared" si="1"/>
         <v>2.4601152250634621</v>
       </c>
-      <c r="G24" s="217"/>
-      <c r="H24" s="235">
+      <c r="G24" s="238"/>
+      <c r="H24" s="214">
         <f t="shared" si="2"/>
         <v>2.4478758458342909</v>
       </c>
-      <c r="I24" s="282"/>
-      <c r="J24" s="235">
+      <c r="I24" s="239"/>
+      <c r="J24" s="214">
         <f t="shared" si="3"/>
         <v>2.2253416780311737</v>
       </c>
-      <c r="K24" s="236"/>
-      <c r="L24" s="234">
+      <c r="K24" s="215"/>
+      <c r="L24" s="242">
         <f t="shared" si="4"/>
         <v>1.1712324621216703</v>
       </c>
-      <c r="M24" s="274"/>
+      <c r="M24" s="243"/>
       <c r="N24" s="32">
         <f t="shared" si="5"/>
         <v>1453.747928742534</v>
@@ -10095,26 +10159,26 @@
         <f t="shared" si="0"/>
         <v>4.8434450167968297</v>
       </c>
-      <c r="F25" s="216">
+      <c r="F25" s="224">
         <f t="shared" si="1"/>
         <v>2.7138745086802158</v>
       </c>
-      <c r="G25" s="217"/>
-      <c r="H25" s="235">
+      <c r="G25" s="238"/>
+      <c r="H25" s="214">
         <f t="shared" si="2"/>
         <v>2.7003726454529509</v>
       </c>
-      <c r="I25" s="282"/>
-      <c r="J25" s="235">
+      <c r="I25" s="239"/>
+      <c r="J25" s="214">
         <f t="shared" si="3"/>
         <v>2.4548842231390462</v>
       </c>
-      <c r="K25" s="236"/>
-      <c r="L25" s="234">
+      <c r="K25" s="215"/>
+      <c r="L25" s="242">
         <f t="shared" si="4"/>
         <v>1.292044327967919</v>
       </c>
-      <c r="M25" s="274"/>
+      <c r="M25" s="243"/>
       <c r="N25" s="32">
         <f t="shared" si="5"/>
         <v>1603.7010810171505</v>
@@ -10130,26 +10194,26 @@
         <f t="shared" si="0"/>
         <v>4.0976530296287903</v>
       </c>
-      <c r="F26" s="216">
+      <c r="F26" s="224">
         <f t="shared" si="1"/>
         <v>2.9638217286151365</v>
       </c>
-      <c r="G26" s="217"/>
-      <c r="H26" s="235">
+      <c r="G26" s="238"/>
+      <c r="H26" s="214">
         <f t="shared" si="2"/>
         <v>2.9490763468807328</v>
       </c>
-      <c r="I26" s="282"/>
-      <c r="J26" s="235">
+      <c r="I26" s="239"/>
+      <c r="J26" s="214">
         <f t="shared" si="3"/>
         <v>2.6809784971643027</v>
       </c>
-      <c r="K26" s="236"/>
-      <c r="L26" s="234">
+      <c r="K26" s="215"/>
+      <c r="L26" s="242">
         <f t="shared" si="4"/>
         <v>1.4110413142970015</v>
       </c>
-      <c r="M26" s="274"/>
+      <c r="M26" s="243"/>
       <c r="N26" s="32">
         <f t="shared" si="5"/>
         <v>1751.4015828365207</v>
@@ -10165,26 +10229,26 @@
         <f t="shared" si="0"/>
         <v>3.4844159169752453</v>
       </c>
-      <c r="F27" s="216">
+      <c r="F27" s="224">
         <f t="shared" si="1"/>
         <v>3.2066630537683118</v>
       </c>
-      <c r="G27" s="217"/>
-      <c r="H27" s="235">
+      <c r="G27" s="238"/>
+      <c r="H27" s="214">
         <f t="shared" si="2"/>
         <v>3.190709506237126</v>
       </c>
-      <c r="I27" s="282"/>
-      <c r="J27" s="235">
+      <c r="I27" s="239"/>
+      <c r="J27" s="214">
         <f t="shared" si="3"/>
         <v>2.9006450056701145</v>
       </c>
-      <c r="K27" s="236"/>
-      <c r="L27" s="234">
+      <c r="K27" s="215"/>
+      <c r="L27" s="242">
         <f t="shared" si="4"/>
         <v>1.5266552661421655</v>
       </c>
-      <c r="M27" s="274"/>
+      <c r="M27" s="243"/>
       <c r="N27" s="32">
         <f t="shared" si="5"/>
         <v>1894.9030212479729</v>
@@ -10200,26 +10264,26 @@
         <f t="shared" si="0"/>
         <v>2.9774129048675317</v>
       </c>
-      <c r="F28" s="216">
+      <c r="F28" s="224">
         <f t="shared" si="1"/>
         <v>3.4396703086407996</v>
       </c>
-      <c r="G28" s="217"/>
-      <c r="H28" s="235">
+      <c r="G28" s="238"/>
+      <c r="H28" s="214">
         <f t="shared" si="2"/>
         <v>3.4225575210356212</v>
       </c>
-      <c r="I28" s="282"/>
-      <c r="J28" s="235">
+      <c r="I28" s="239"/>
+      <c r="J28" s="214">
         <f t="shared" si="3"/>
         <v>3.1114159282142011</v>
       </c>
-      <c r="K28" s="236"/>
-      <c r="L28" s="234">
+      <c r="K28" s="215"/>
+      <c r="L28" s="242">
         <f t="shared" si="4"/>
         <v>1.6375873306390532</v>
       </c>
-      <c r="M28" s="274"/>
+      <c r="M28" s="243"/>
       <c r="N28" s="32">
         <f t="shared" si="5"/>
         <v>2032.5932443325946</v>
@@ -10235,26 +10299,26 @@
         <f t="shared" si="0"/>
         <v>2.5560455288640753</v>
       </c>
-      <c r="F29" s="300">
+      <c r="F29" s="302">
         <f t="shared" si="1"/>
         <v>3.6607433390045916</v>
       </c>
-      <c r="G29" s="301"/>
-      <c r="H29" s="302">
+      <c r="G29" s="303"/>
+      <c r="H29" s="304">
         <f t="shared" si="2"/>
         <v>3.6425306855767081</v>
       </c>
-      <c r="I29" s="303"/>
-      <c r="J29" s="302">
+      <c r="I29" s="305"/>
+      <c r="J29" s="304">
         <f t="shared" si="3"/>
         <v>3.3113915323424621</v>
       </c>
-      <c r="K29" s="304"/>
-      <c r="L29" s="305">
+      <c r="K29" s="306"/>
+      <c r="L29" s="307">
         <f t="shared" si="4"/>
         <v>1.7428376486012958</v>
       </c>
-      <c r="M29" s="306"/>
+      <c r="M29" s="308"/>
       <c r="N29" s="167">
         <f t="shared" si="5"/>
         <v>2163.2312147487601</v>
@@ -10270,26 +10334,26 @@
         <f t="shared" si="0"/>
         <v>2.2040943852236698</v>
       </c>
-      <c r="F30" s="300">
+      <c r="F30" s="302">
         <f t="shared" si="1"/>
         <v>3.8684131010580609</v>
       </c>
-      <c r="G30" s="301"/>
-      <c r="H30" s="302">
+      <c r="G30" s="303"/>
+      <c r="H30" s="304">
         <f t="shared" si="2"/>
         <v>3.8491672647343891</v>
       </c>
-      <c r="I30" s="303"/>
-      <c r="J30" s="302">
+      <c r="I30" s="305"/>
+      <c r="J30" s="304">
         <f t="shared" si="3"/>
         <v>3.4992429679403538</v>
       </c>
-      <c r="K30" s="304"/>
-      <c r="L30" s="305">
+      <c r="K30" s="306"/>
+      <c r="L30" s="307">
         <f t="shared" si="4"/>
         <v>1.841706825231765</v>
       </c>
-      <c r="M30" s="306"/>
+      <c r="M30" s="308"/>
       <c r="N30" s="167">
         <f t="shared" si="5"/>
         <v>2285.9488351967607</v>
@@ -10305,26 +10369,26 @@
         <f t="shared" si="0"/>
         <v>1.9087128427862368</v>
       </c>
-      <c r="F31" s="300">
+      <c r="F31" s="302">
         <f t="shared" si="1"/>
         <v>4.0617983372302229</v>
       </c>
-      <c r="G31" s="301"/>
-      <c r="H31" s="302">
+      <c r="G31" s="303"/>
+      <c r="H31" s="304">
         <f t="shared" si="2"/>
         <v>4.0415903853037038</v>
       </c>
-      <c r="I31" s="303"/>
-      <c r="J31" s="302">
+      <c r="I31" s="305"/>
+      <c r="J31" s="304">
         <f t="shared" si="3"/>
         <v>3.6741730775488217</v>
       </c>
-      <c r="K31" s="304"/>
-      <c r="L31" s="305">
+      <c r="K31" s="306"/>
+      <c r="L31" s="307">
         <f t="shared" si="4"/>
         <v>1.9337753039730639</v>
       </c>
-      <c r="M31" s="306"/>
+      <c r="M31" s="308"/>
       <c r="N31" s="167">
         <f t="shared" si="5"/>
         <v>2400.2253469920211</v>
@@ -10340,26 +10404,26 @@
         <f t="shared" si="0"/>
         <v>1.659668099602003</v>
       </c>
-      <c r="F32" s="216">
+      <c r="F32" s="224">
         <f t="shared" si="1"/>
         <v>4.2405313487707375</v>
       </c>
-      <c r="G32" s="217"/>
-      <c r="H32" s="235">
+      <c r="G32" s="238"/>
+      <c r="H32" s="214">
         <f t="shared" si="2"/>
         <v>4.2194341778813307</v>
       </c>
-      <c r="I32" s="282"/>
-      <c r="J32" s="235">
+      <c r="I32" s="239"/>
+      <c r="J32" s="214">
         <f t="shared" si="3"/>
         <v>3.8358492526193917</v>
       </c>
-      <c r="K32" s="236"/>
-      <c r="L32" s="234">
+      <c r="K32" s="215"/>
+      <c r="L32" s="242">
         <f t="shared" si="4"/>
         <v>2.0188680276944164</v>
       </c>
-      <c r="M32" s="274"/>
+      <c r="M32" s="243"/>
       <c r="N32" s="32">
         <f t="shared" si="5"/>
         <v>2505.8434671019181</v>
@@ -10375,26 +10439,26 @@
         <f t="shared" si="0"/>
         <v>1.4487650768972604</v>
       </c>
-      <c r="F33" s="293">
+      <c r="F33" s="309">
         <f t="shared" si="1"/>
         <v>4.4046677845884554</v>
       </c>
-      <c r="G33" s="294"/>
-      <c r="H33" s="295">
+      <c r="G33" s="310"/>
+      <c r="H33" s="311">
         <f t="shared" si="2"/>
         <v>4.3827540145158759</v>
       </c>
-      <c r="I33" s="296"/>
-      <c r="J33" s="295">
+      <c r="I33" s="312"/>
+      <c r="J33" s="311">
         <f t="shared" si="3"/>
         <v>3.9843218313780686</v>
       </c>
-      <c r="K33" s="297"/>
-      <c r="L33" s="298">
+      <c r="K33" s="313"/>
+      <c r="L33" s="314">
         <f t="shared" si="4"/>
         <v>2.0970114901989834</v>
       </c>
-      <c r="M33" s="299"/>
+      <c r="M33" s="315"/>
       <c r="N33" s="87">
         <f t="shared" si="5"/>
         <v>2602.8360799560714</v>
@@ -10410,26 +10474,26 @@
         <f t="shared" si="0"/>
         <v>1.269406378592723</v>
       </c>
-      <c r="F34" s="216">
+      <c r="F34" s="224">
         <f t="shared" si="1"/>
         <v>4.5545927331589811</v>
       </c>
-      <c r="G34" s="217"/>
-      <c r="H34" s="235">
+      <c r="G34" s="238"/>
+      <c r="H34" s="214">
         <f t="shared" si="2"/>
         <v>4.5319330678198817</v>
       </c>
-      <c r="I34" s="282"/>
-      <c r="J34" s="235">
+      <c r="I34" s="239"/>
+      <c r="J34" s="214">
         <f t="shared" si="3"/>
         <v>4.1199391525635285</v>
       </c>
-      <c r="K34" s="236"/>
-      <c r="L34" s="234">
+      <c r="K34" s="215"/>
+      <c r="L34" s="242">
         <f t="shared" si="4"/>
         <v>2.1683890276650151</v>
       </c>
-      <c r="M34" s="274"/>
+      <c r="M34" s="243"/>
       <c r="N34" s="32">
         <f t="shared" si="5"/>
         <v>2691.4307446411826</v>
@@ -10445,26 +10509,26 @@
         <f t="shared" si="0"/>
         <v>1.1162541665631174</v>
       </c>
-      <c r="F35" s="216">
+      <c r="F35" s="224">
         <f t="shared" si="1"/>
         <v>4.6909319237597966</v>
       </c>
-      <c r="G35" s="217"/>
-      <c r="H35" s="235">
+      <c r="G35" s="238"/>
+      <c r="H35" s="214">
         <f t="shared" si="2"/>
         <v>4.6675939539898472</v>
       </c>
-      <c r="I35" s="282"/>
-      <c r="J35" s="235">
+      <c r="I35" s="239"/>
+      <c r="J35" s="214">
         <f t="shared" si="3"/>
         <v>4.2432672308998614</v>
       </c>
-      <c r="K35" s="236"/>
-      <c r="L35" s="234">
+      <c r="K35" s="215"/>
+      <c r="L35" s="242">
         <f t="shared" si="4"/>
         <v>2.2332985425788743</v>
       </c>
-      <c r="M35" s="274"/>
+      <c r="M35" s="243"/>
       <c r="N35" s="32">
         <f t="shared" si="5"/>
         <v>2771.9972213342635</v>
@@ -10480,26 +10544,26 @@
         <f t="shared" si="0"/>
         <v>0.9849688495932919</v>
       </c>
-      <c r="F36" s="216">
+      <c r="F36" s="224">
         <f t="shared" si="1"/>
         <v>4.8144734148054074</v>
       </c>
-      <c r="G36" s="217"/>
-      <c r="H36" s="235">
+      <c r="G36" s="238"/>
+      <c r="H36" s="214">
         <f t="shared" si="2"/>
         <v>4.7905208107516488</v>
       </c>
-      <c r="I36" s="282"/>
-      <c r="J36" s="235">
+      <c r="I36" s="239"/>
+      <c r="J36" s="214">
         <f t="shared" si="3"/>
         <v>4.3550189188651354</v>
       </c>
-      <c r="K36" s="236"/>
-      <c r="L36" s="234">
+      <c r="K36" s="215"/>
+      <c r="L36" s="242">
         <f t="shared" si="4"/>
         <v>2.2921152204553343</v>
       </c>
-      <c r="M36" s="274"/>
+      <c r="M36" s="243"/>
       <c r="N36" s="32">
         <f t="shared" si="5"/>
         <v>2845.0011948439546</v>
@@ -10515,26 +10579,26 @@
         <f t="shared" si="0"/>
         <v>0.87200601488917528</v>
       </c>
-      <c r="F37" s="216">
+      <c r="F37" s="224">
         <f t="shared" si="1"/>
         <v>4.9261022927012821</v>
       </c>
-      <c r="G37" s="217"/>
-      <c r="H37" s="235">
+      <c r="G37" s="238"/>
+      <c r="H37" s="214">
         <f t="shared" si="2"/>
         <v>4.9015943210958035</v>
       </c>
-      <c r="I37" s="282"/>
-      <c r="J37" s="235">
+      <c r="I37" s="239"/>
+      <c r="J37" s="214">
         <f t="shared" si="3"/>
         <v>4.455994837359821</v>
       </c>
-      <c r="K37" s="236"/>
-      <c r="L37" s="234">
+      <c r="K37" s="215"/>
+      <c r="L37" s="242">
         <f t="shared" si="4"/>
         <v>2.3452604407156952</v>
       </c>
-      <c r="M37" s="274"/>
+      <c r="M37" s="243"/>
       <c r="N37" s="32">
         <f t="shared" si="5"/>
         <v>2910.9656864156022</v>
@@ -10550,26 +10614,26 @@
         <f t="shared" si="0"/>
         <v>0.77445777684075767</v>
       </c>
-      <c r="F38" s="216">
+      <c r="F38" s="224">
         <f t="shared" si="1"/>
         <v>5.0267488208641602</v>
       </c>
-      <c r="G38" s="217"/>
-      <c r="H38" s="235">
+      <c r="G38" s="238"/>
+      <c r="H38" s="214">
         <f t="shared" si="2"/>
         <v>5.0017401202628458</v>
       </c>
-      <c r="I38" s="282"/>
-      <c r="J38" s="235">
+      <c r="I38" s="239"/>
+      <c r="J38" s="214">
         <f t="shared" si="3"/>
         <v>4.5470364729662229</v>
       </c>
-      <c r="K38" s="236"/>
-      <c r="L38" s="234">
+      <c r="K38" s="215"/>
+      <c r="L38" s="242">
         <f t="shared" si="4"/>
         <v>2.393177091034854</v>
       </c>
-      <c r="M38" s="274"/>
+      <c r="M38" s="243"/>
       <c r="N38" s="32">
         <f t="shared" si="5"/>
         <v>2970.4404135996251</v>
@@ -10583,26 +10647,26 @@
         <f t="shared" si="0"/>
         <v>0.68992818874834783</v>
       </c>
-      <c r="F39" s="216">
+      <c r="F39" s="224">
         <f t="shared" si="1"/>
         <v>5.1173491435494967</v>
       </c>
-      <c r="G39" s="217"/>
-      <c r="H39" s="235">
+      <c r="G39" s="238"/>
+      <c r="H39" s="214">
         <f t="shared" si="2"/>
         <v>5.0918896950741264</v>
       </c>
-      <c r="I39" s="282"/>
-      <c r="J39" s="235">
+      <c r="I39" s="239"/>
+      <c r="J39" s="214">
         <f t="shared" si="3"/>
         <v>4.6289906318855696</v>
       </c>
-      <c r="K39" s="236"/>
-      <c r="L39" s="234">
+      <c r="K39" s="215"/>
+      <c r="L39" s="242">
         <f t="shared" si="4"/>
         <v>2.4363108588871416</v>
       </c>
-      <c r="M39" s="274"/>
+      <c r="M39" s="243"/>
       <c r="N39" s="32">
         <f t="shared" si="5"/>
         <v>3023.9785690914341</v>
@@ -10616,26 +10680,26 @@
         <f t="shared" si="0"/>
         <v>0.61643491771497372</v>
       </c>
-      <c r="F40" s="216">
+      <c r="F40" s="224">
         <f t="shared" si="1"/>
         <v>5.1988169286007029</v>
       </c>
-      <c r="G40" s="217"/>
-      <c r="H40" s="235">
+      <c r="G40" s="238"/>
+      <c r="H40" s="214">
         <f t="shared" si="2"/>
         <v>5.1729521677618937</v>
       </c>
-      <c r="I40" s="282"/>
-      <c r="J40" s="235">
+      <c r="I40" s="239"/>
+      <c r="J40" s="214">
         <f t="shared" si="3"/>
         <v>4.7026837888744488</v>
       </c>
-      <c r="K40" s="236"/>
-      <c r="L40" s="234">
+      <c r="K40" s="215"/>
+      <c r="L40" s="242">
         <f t="shared" si="4"/>
         <v>2.4750967309865519</v>
       </c>
-      <c r="M40" s="274"/>
+      <c r="M40" s="243"/>
       <c r="N40" s="32">
         <f t="shared" si="5"/>
         <v>3072.120063673005</v>
@@ -10649,26 +10713,26 @@
         <f t="shared" si="0"/>
         <v>0.55233127421944694</v>
       </c>
-      <c r="F41" s="216">
+      <c r="F41" s="224">
         <f t="shared" si="1"/>
         <v>5.2720240585116676</v>
       </c>
-      <c r="G41" s="217"/>
-      <c r="H41" s="235">
+      <c r="G41" s="238"/>
+      <c r="H41" s="214">
         <f t="shared" si="2"/>
         <v>5.245795083096187</v>
       </c>
-      <c r="I41" s="282"/>
-      <c r="J41" s="235">
+      <c r="I41" s="239"/>
+      <c r="J41" s="214">
         <f t="shared" si="3"/>
         <v>4.7689046209965333</v>
       </c>
-      <c r="K41" s="236"/>
-      <c r="L41" s="234">
+      <c r="K41" s="215"/>
+      <c r="L41" s="242">
         <f t="shared" si="4"/>
         <v>2.5099498005244913</v>
       </c>
-      <c r="M41" s="274"/>
+      <c r="M41" s="243"/>
       <c r="N41" s="32">
         <f t="shared" si="5"/>
         <v>3115.3801160449448</v>
@@ -10682,26 +10746,26 @@
         <f t="shared" si="0"/>
         <v>0.49624409633915206</v>
       </c>
-      <c r="F42" s="216">
+      <c r="F42" s="224">
         <f t="shared" si="1"/>
         <v>5.3377884931871984</v>
       </c>
-      <c r="G42" s="217"/>
-      <c r="H42" s="235">
+      <c r="G42" s="238"/>
+      <c r="H42" s="214">
         <f t="shared" si="2"/>
         <v>5.3112323315295509</v>
       </c>
-      <c r="I42" s="282"/>
-      <c r="J42" s="235">
+      <c r="I42" s="239"/>
+      <c r="J42" s="214">
         <f t="shared" si="3"/>
         <v>4.8283930286632284</v>
       </c>
-      <c r="K42" s="236"/>
-      <c r="L42" s="234">
+      <c r="K42" s="215"/>
+      <c r="L42" s="242">
         <f t="shared" si="4"/>
         <v>2.5412594887701201</v>
       </c>
-      <c r="M42" s="274"/>
+      <c r="M42" s="243"/>
       <c r="N42" s="32">
         <f t="shared" si="5"/>
         <v>3154.2420806067917</v>
@@ -10715,26 +10779,26 @@
         <f t="shared" si="0"/>
         <v>0.44702404336298512</v>
       </c>
-      <c r="F43" s="210">
+      <c r="F43" s="236">
         <f t="shared" si="1"/>
         <v>5.3968676053863689</v>
       </c>
-      <c r="G43" s="211"/>
-      <c r="H43" s="235">
+      <c r="G43" s="240"/>
+      <c r="H43" s="214">
         <f t="shared" si="2"/>
         <v>5.3700175177973817</v>
       </c>
-      <c r="I43" s="282"/>
-      <c r="J43" s="235">
+      <c r="I43" s="239"/>
+      <c r="J43" s="214">
         <f t="shared" si="3"/>
         <v>4.8818341070885287</v>
       </c>
-      <c r="K43" s="236"/>
-      <c r="L43" s="258">
+      <c r="K43" s="215"/>
+      <c r="L43" s="271">
         <f t="shared" si="4"/>
         <v>2.5693863721518571</v>
       </c>
-      <c r="M43" s="292"/>
+      <c r="M43" s="316"/>
       <c r="N43" s="32">
         <f t="shared" si="5"/>
         <v>3189.1535091921232</v>
@@ -10742,28 +10806,86 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="J22:K22"/>
@@ -10780,86 +10902,28 @@
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="L21:M21"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12484,4 +12548,224 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="20.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G4" t="s">
+        <v>385</v>
+      </c>
+      <c r="H4" t="s">
+        <v>387</v>
+      </c>
+      <c r="I4" t="s">
+        <v>388</v>
+      </c>
+      <c r="J4" t="s">
+        <v>386</v>
+      </c>
+      <c r="K4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>397</v>
+      </c>
+      <c r="D5">
+        <v>35.549999999999997</v>
+      </c>
+      <c r="E5">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>12.7</v>
+      </c>
+      <c r="G5">
+        <v>885</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>1704</v>
+      </c>
+      <c r="J5">
+        <v>4.8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>391</v>
+      </c>
+      <c r="D6">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>13.2</v>
+      </c>
+      <c r="F6">
+        <v>6.35</v>
+      </c>
+      <c r="G6">
+        <v>470</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>1704</v>
+      </c>
+      <c r="J6">
+        <v>6.5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D7">
+        <v>26.9</v>
+      </c>
+      <c r="E7">
+        <v>14.5</v>
+      </c>
+      <c r="F7">
+        <v>11.1</v>
+      </c>
+      <c r="G7">
+        <v>11.6</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>85.2</v>
+      </c>
+      <c r="J7">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D8">
+        <v>26.9</v>
+      </c>
+      <c r="E8">
+        <v>14.5</v>
+      </c>
+      <c r="F8">
+        <v>11.1</v>
+      </c>
+      <c r="G8">
+        <v>13.5</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>85.2</v>
+      </c>
+      <c r="J8">
+        <v>8.6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>392</v>
+      </c>
+      <c r="D9">
+        <v>12.7</v>
+      </c>
+      <c r="E9">
+        <v>7.7</v>
+      </c>
+      <c r="F9">
+        <v>4.83</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>0.1</v>
+      </c>
+      <c r="I9">
+        <v>8.5</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>392</v>
+      </c>
+      <c r="D10">
+        <v>12.7</v>
+      </c>
+      <c r="E10">
+        <v>7.7</v>
+      </c>
+      <c r="F10">
+        <v>4.83</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>0.25</v>
+      </c>
+      <c r="I10">
+        <v>21.3</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>
--- a/1_Schematic/Build V1.0/RF Generator Review Data_20191112.xlsx
+++ b/1_Schematic/Build V1.0/RF Generator Review Data_20191112.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="400">
   <si>
     <t>VIN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1673,6 +1673,14 @@
     <t>FT140-43</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>air core coil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.w6pql.com/1_8_to_54_mhz_combiner_set.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1683,7 +1691,7 @@
     <numFmt numFmtId="177" formatCode="0.0&quot;%&quot;"/>
     <numFmt numFmtId="178" formatCode="0.0&quot;V&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1752,6 +1760,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2672,10 +2688,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="329">
+  <cellXfs count="330">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3102,6 +3119,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3109,162 +3234,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3291,68 +3260,182 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3361,72 +3444,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3465,9 +3482,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -3758,11 +3777,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="129605632"/>
-        <c:axId val="129092416"/>
+        <c:axId val="231752704"/>
+        <c:axId val="222476480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129605632"/>
+        <c:axId val="231752704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3805,7 +3824,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129092416"/>
+        <c:crossAx val="222476480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3813,7 +3832,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129092416"/>
+        <c:axId val="222476480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3864,7 +3883,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129605632"/>
+        <c:crossAx val="231752704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4496,7 +4515,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB107259-0367-470F-9CFD-CE7EC231CCE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB107259-0367-470F-9CFD-CE7EC231CCE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4540,7 +4559,7 @@
         <xdr:cNvPr id="3" name="차트 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CA2094-6349-4FC9-9C2E-379947A73744}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5CA2094-6349-4FC9-9C2E-379947A73744}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4581,7 +4600,7 @@
         <xdr:cNvPr id="3" name="직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AB039ED-9206-4062-8CE8-D6A6ACEDACC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5AB039ED-9206-4062-8CE8-D6A6ACEDACC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4648,7 +4667,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFEBB7B3-B7C1-4EAB-AA1A-0A30DFEB31F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CFEBB7B3-B7C1-4EAB-AA1A-0A30DFEB31F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4713,7 +4732,7 @@
         <xdr:cNvPr id="6" name="직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7049C463-F1B4-4B9B-A03C-9A7E975698A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7049C463-F1B4-4B9B-A03C-9A7E975698A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4790,7 +4809,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE056398-8981-4500-99D2-6F2A7CEA4350}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE056398-8981-4500-99D2-6F2A7CEA4350}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4855,7 +4874,7 @@
         <xdr:cNvPr id="8" name="직사각형 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A9CB46-1959-47C3-832C-7AAFD0272295}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45A9CB46-1959-47C3-832C-7AAFD0272295}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4932,7 +4951,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7950D314-EA34-4F28-B2CB-BED5FE2828DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7950D314-EA34-4F28-B2CB-BED5FE2828DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4997,7 +5016,7 @@
         <xdr:cNvPr id="11" name="직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA37F16-6C2D-4934-B2D5-CC672FE03581}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DEA37F16-6C2D-4934-B2D5-CC672FE03581}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5074,7 +5093,7 @@
         <xdr:cNvPr id="12" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33B78126-6D73-4FA6-8F23-79BE961DE326}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33B78126-6D73-4FA6-8F23-79BE961DE326}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5134,7 +5153,7 @@
         <xdr:cNvPr id="13" name="TextBox 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F500A6D6-8638-4B56-B4B3-208B58F8C281}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F500A6D6-8638-4B56-B4B3-208B58F8C281}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5194,7 +5213,7 @@
         <xdr:cNvPr id="14" name="TextBox 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5160A9E2-0E2A-4C6B-A5A2-F13286FDDBD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5160A9E2-0E2A-4C6B-A5A2-F13286FDDBD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5259,7 +5278,7 @@
         <xdr:cNvPr id="15" name="직사각형 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4729C4BE-619A-4B85-9D7B-3ADFBF9C3886}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4729C4BE-619A-4B85-9D7B-3ADFBF9C3886}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5347,7 +5366,7 @@
         <xdr:cNvPr id="17" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7874FDA6-8099-4CAF-9111-77982D6A7348}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7874FDA6-8099-4CAF-9111-77982D6A7348}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5543,7 +5562,7 @@
         <xdr:cNvPr id="18" name="TextBox 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{421F7876-9F23-4395-899C-88972D72577C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{421F7876-9F23-4395-899C-88972D72577C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5772,7 +5791,7 @@
         <xdr:cNvPr id="19" name="직사각형 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2FDBB60-27E7-4A81-80AC-6D5C28C2F430}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A2FDBB60-27E7-4A81-80AC-6D5C28C2F430}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5856,7 +5875,7 @@
         <xdr:cNvPr id="20" name="직사각형 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A98080-FFEF-4DFB-8ADB-2310264B7DDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10A98080-FFEF-4DFB-8ADB-2310264B7DDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6304,16 +6323,16 @@
     <row r="12" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="217" t="s">
+      <c r="D12" s="238" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="218"/>
-      <c r="F12" s="217" t="s">
+      <c r="E12" s="259"/>
+      <c r="F12" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="219"/>
-      <c r="H12" s="219"/>
-      <c r="I12" s="220"/>
+      <c r="G12" s="239"/>
+      <c r="H12" s="239"/>
+      <c r="I12" s="240"/>
       <c r="J12" s="49" t="s">
         <v>36</v>
       </c>
@@ -6388,14 +6407,14 @@
       <c r="E15" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="221" t="s">
+      <c r="F15" s="289" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="222"/>
-      <c r="H15" s="221" t="s">
+      <c r="G15" s="290"/>
+      <c r="H15" s="289" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="223"/>
+      <c r="I15" s="291"/>
       <c r="J15" s="62" t="s">
         <v>13</v>
       </c>
@@ -6423,16 +6442,16 @@
         <f t="shared" ref="E16:E33" si="0">$D16*E$14/(E$13+E$14)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="226">
+      <c r="F16" s="231">
         <f t="shared" ref="F16:F28" si="1">E16*G$14/(G$13+G$14)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="227"/>
-      <c r="H16" s="226">
+      <c r="G16" s="233"/>
+      <c r="H16" s="231">
         <f t="shared" ref="H16:H28" si="2">F16*I$14/(I$13+I$14)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="227"/>
+      <c r="I16" s="233"/>
       <c r="J16" s="17">
         <f>H16*4095/3.3</f>
         <v>0</v>
@@ -6461,16 +6480,16 @@
         <f t="shared" si="0"/>
         <v>0.68851328044153159</v>
       </c>
-      <c r="F17" s="224">
+      <c r="F17" s="216">
         <f t="shared" si="1"/>
         <v>0.3442566402207658</v>
       </c>
-      <c r="G17" s="225"/>
-      <c r="H17" s="224">
+      <c r="G17" s="218"/>
+      <c r="H17" s="216">
         <f t="shared" si="2"/>
         <v>0.18118770537935042</v>
       </c>
-      <c r="I17" s="225"/>
+      <c r="I17" s="218"/>
       <c r="J17" s="19">
         <f t="shared" ref="J17:J30" si="3">H17*4095/3.3</f>
         <v>224.83747076619395</v>
@@ -6502,16 +6521,16 @@
         <f t="shared" si="0"/>
         <v>1.3770265608830632</v>
       </c>
-      <c r="F18" s="224">
+      <c r="F18" s="216">
         <f t="shared" si="1"/>
         <v>0.68851328044153159</v>
       </c>
-      <c r="G18" s="225"/>
-      <c r="H18" s="224">
+      <c r="G18" s="218"/>
+      <c r="H18" s="216">
         <f t="shared" si="2"/>
         <v>0.36237541075870083</v>
       </c>
-      <c r="I18" s="225"/>
+      <c r="I18" s="218"/>
       <c r="J18" s="19">
         <f t="shared" si="3"/>
         <v>449.67494153238789</v>
@@ -6543,16 +6562,16 @@
         <f t="shared" si="0"/>
         <v>2.0655398413245947</v>
       </c>
-      <c r="F19" s="224">
+      <c r="F19" s="216">
         <f t="shared" si="1"/>
         <v>1.0327699206622973</v>
       </c>
-      <c r="G19" s="225"/>
-      <c r="H19" s="224">
+      <c r="G19" s="218"/>
+      <c r="H19" s="216">
         <f t="shared" si="2"/>
         <v>0.54356311613805119</v>
       </c>
-      <c r="I19" s="225"/>
+      <c r="I19" s="218"/>
       <c r="J19" s="19">
         <f t="shared" si="3"/>
         <v>674.51241229858169</v>
@@ -6584,16 +6603,16 @@
         <f t="shared" si="0"/>
         <v>2.7540531217661264</v>
       </c>
-      <c r="F20" s="224">
+      <c r="F20" s="216">
         <f t="shared" si="1"/>
         <v>1.3770265608830632</v>
       </c>
-      <c r="G20" s="225"/>
-      <c r="H20" s="224">
+      <c r="G20" s="218"/>
+      <c r="H20" s="216">
         <f t="shared" si="2"/>
         <v>0.72475082151740167</v>
       </c>
-      <c r="I20" s="225"/>
+      <c r="I20" s="218"/>
       <c r="J20" s="19">
         <f t="shared" si="3"/>
         <v>899.34988306477578</v>
@@ -6607,16 +6626,16 @@
         <f t="shared" si="0"/>
         <v>3.4425664022076581</v>
       </c>
-      <c r="F21" s="224">
+      <c r="F21" s="216">
         <f t="shared" si="1"/>
         <v>1.721283201103829</v>
       </c>
-      <c r="G21" s="225"/>
-      <c r="H21" s="224">
+      <c r="G21" s="218"/>
+      <c r="H21" s="216">
         <f t="shared" si="2"/>
         <v>0.90593852689675203</v>
       </c>
-      <c r="I21" s="225"/>
+      <c r="I21" s="218"/>
       <c r="J21" s="19">
         <f t="shared" si="3"/>
         <v>1124.1873538309696</v>
@@ -6630,16 +6649,16 @@
         <f t="shared" si="0"/>
         <v>4.1310796826491893</v>
       </c>
-      <c r="F22" s="224">
+      <c r="F22" s="216">
         <f t="shared" si="1"/>
         <v>2.0655398413245947</v>
       </c>
-      <c r="G22" s="225"/>
-      <c r="H22" s="224">
+      <c r="G22" s="218"/>
+      <c r="H22" s="216">
         <f t="shared" si="2"/>
         <v>1.0871262322761024</v>
       </c>
-      <c r="I22" s="225"/>
+      <c r="I22" s="218"/>
       <c r="J22" s="19">
         <f t="shared" si="3"/>
         <v>1349.0248245971634</v>
@@ -6653,16 +6672,16 @@
         <f t="shared" si="0"/>
         <v>4.8195929630907202</v>
       </c>
-      <c r="F23" s="224">
+      <c r="F23" s="216">
         <f t="shared" si="1"/>
         <v>2.4097964815453601</v>
       </c>
-      <c r="G23" s="225"/>
-      <c r="H23" s="224">
+      <c r="G23" s="218"/>
+      <c r="H23" s="216">
         <f t="shared" si="2"/>
         <v>1.2683139376554526</v>
       </c>
-      <c r="I23" s="225"/>
+      <c r="I23" s="218"/>
       <c r="J23" s="19">
         <f t="shared" si="3"/>
         <v>1573.8622953633571</v>
@@ -6676,16 +6695,16 @@
         <f t="shared" si="0"/>
         <v>5.5081062435322528</v>
       </c>
-      <c r="F24" s="224">
+      <c r="F24" s="216">
         <f t="shared" si="1"/>
         <v>2.7540531217661264</v>
       </c>
-      <c r="G24" s="225"/>
-      <c r="H24" s="224">
+      <c r="G24" s="218"/>
+      <c r="H24" s="216">
         <f t="shared" si="2"/>
         <v>1.4495016430348033</v>
       </c>
-      <c r="I24" s="225"/>
+      <c r="I24" s="218"/>
       <c r="J24" s="19">
         <f t="shared" si="3"/>
         <v>1798.6997661295516</v>
@@ -6699,16 +6718,16 @@
         <f t="shared" si="0"/>
         <v>6.1966195239737845</v>
       </c>
-      <c r="F25" s="224">
+      <c r="F25" s="216">
         <f t="shared" si="1"/>
         <v>3.0983097619868922</v>
       </c>
-      <c r="G25" s="225"/>
-      <c r="H25" s="224">
+      <c r="G25" s="218"/>
+      <c r="H25" s="216">
         <f t="shared" si="2"/>
         <v>1.6306893484141538</v>
       </c>
-      <c r="I25" s="225"/>
+      <c r="I25" s="218"/>
       <c r="J25" s="19">
         <f t="shared" si="3"/>
         <v>2023.5372368957455</v>
@@ -6722,16 +6741,16 @@
         <f t="shared" si="0"/>
         <v>6.8851328044153162</v>
       </c>
-      <c r="F26" s="228">
+      <c r="F26" s="283">
         <f t="shared" si="1"/>
         <v>3.4425664022076581</v>
       </c>
-      <c r="G26" s="229"/>
-      <c r="H26" s="228">
+      <c r="G26" s="284"/>
+      <c r="H26" s="283">
         <f t="shared" si="2"/>
         <v>1.8118770537935041</v>
       </c>
-      <c r="I26" s="229"/>
+      <c r="I26" s="284"/>
       <c r="J26" s="34">
         <f t="shared" si="3"/>
         <v>2248.3747076619393</v>
@@ -6745,16 +6764,16 @@
         <f t="shared" si="0"/>
         <v>7.573646084856847</v>
       </c>
-      <c r="F27" s="228">
+      <c r="F27" s="283">
         <f t="shared" si="1"/>
         <v>3.786823042428423</v>
       </c>
-      <c r="G27" s="229"/>
-      <c r="H27" s="228">
+      <c r="G27" s="284"/>
+      <c r="H27" s="283">
         <f t="shared" si="2"/>
         <v>1.9930647591728541</v>
       </c>
-      <c r="I27" s="229"/>
+      <c r="I27" s="284"/>
       <c r="J27" s="34">
         <f t="shared" si="3"/>
         <v>2473.2121784281326</v>
@@ -6768,16 +6787,16 @@
         <f t="shared" si="0"/>
         <v>8.2621593652983787</v>
       </c>
-      <c r="F28" s="230">
+      <c r="F28" s="219">
         <f t="shared" si="1"/>
         <v>4.1310796826491893</v>
       </c>
-      <c r="G28" s="231"/>
-      <c r="H28" s="230">
+      <c r="G28" s="221"/>
+      <c r="H28" s="219">
         <f t="shared" si="2"/>
         <v>2.1742524645522048</v>
       </c>
-      <c r="I28" s="231"/>
+      <c r="I28" s="221"/>
       <c r="J28" s="64">
         <f>H28*4095/3.3</f>
         <v>2698.0496491943268</v>
@@ -6791,16 +6810,16 @@
         <f t="shared" si="0"/>
         <v>8.9506726457399104</v>
       </c>
-      <c r="F29" s="228">
+      <c r="F29" s="283">
         <f>E29*G$14/(G$13+G$14)</f>
         <v>4.4753363228699552</v>
       </c>
-      <c r="G29" s="229"/>
-      <c r="H29" s="228">
+      <c r="G29" s="284"/>
+      <c r="H29" s="283">
         <f>F29*I$14/(I$13+I$14)</f>
         <v>2.3554401699315552</v>
       </c>
-      <c r="I29" s="229"/>
+      <c r="I29" s="284"/>
       <c r="J29" s="34">
         <f t="shared" si="3"/>
         <v>2922.887119960521</v>
@@ -6814,16 +6833,16 @@
         <f t="shared" si="0"/>
         <v>9.6391859261814403</v>
       </c>
-      <c r="F30" s="228">
+      <c r="F30" s="283">
         <f>E30*G$14/(G$13+G$14)</f>
         <v>4.8195929630907202</v>
       </c>
-      <c r="G30" s="229"/>
-      <c r="H30" s="228">
+      <c r="G30" s="284"/>
+      <c r="H30" s="283">
         <f>F30*I$14/(I$13+I$14)</f>
         <v>2.5366278753109053</v>
       </c>
-      <c r="I30" s="229"/>
+      <c r="I30" s="284"/>
       <c r="J30" s="34">
         <f t="shared" si="3"/>
         <v>3147.7245907267143</v>
@@ -6837,16 +6856,16 @@
         <f t="shared" si="0"/>
         <v>10.327699206622974</v>
       </c>
-      <c r="F31" s="232">
+      <c r="F31" s="285">
         <f>E31*G$14/(G$13+G$14)</f>
         <v>5.1638496033114869</v>
       </c>
-      <c r="G31" s="233"/>
-      <c r="H31" s="224">
+      <c r="G31" s="286"/>
+      <c r="H31" s="216">
         <f>F31*I$14/(I$13+I$14)</f>
         <v>2.7178155806902562</v>
       </c>
-      <c r="I31" s="225"/>
+      <c r="I31" s="218"/>
       <c r="J31" s="19">
         <f t="shared" ref="J31" si="4">H31*4095/3.3</f>
         <v>3372.5620614929089</v>
@@ -6860,16 +6879,16 @@
         <f t="shared" si="0"/>
         <v>11.016212487064506</v>
       </c>
-      <c r="F32" s="232">
+      <c r="F32" s="285">
         <f>E32*G$14/(G$13+G$14)</f>
         <v>5.5081062435322528</v>
       </c>
-      <c r="G32" s="233"/>
-      <c r="H32" s="224">
+      <c r="G32" s="286"/>
+      <c r="H32" s="216">
         <f>F32*I$14/(I$13+I$14)</f>
         <v>2.8990032860696067</v>
       </c>
-      <c r="I32" s="225"/>
+      <c r="I32" s="218"/>
       <c r="J32" s="19">
         <f t="shared" ref="J32:J33" si="5">H32*4095/3.3</f>
         <v>3597.3995322591031</v>
@@ -6883,16 +6902,16 @@
         <f t="shared" si="0"/>
         <v>11.704725767506035</v>
       </c>
-      <c r="F33" s="234">
+      <c r="F33" s="287">
         <f>E33*G$14/(G$13+G$14)</f>
         <v>5.8523628837530177</v>
       </c>
-      <c r="G33" s="235"/>
-      <c r="H33" s="236">
+      <c r="G33" s="288"/>
+      <c r="H33" s="210">
         <f>F33*I$14/(I$13+I$14)</f>
         <v>3.0801909914489567</v>
       </c>
-      <c r="I33" s="237"/>
+      <c r="I33" s="212"/>
       <c r="J33" s="24">
         <f t="shared" si="5"/>
         <v>3822.2370030252964</v>
@@ -6933,16 +6952,16 @@
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D39" s="217" t="s">
+      <c r="D39" s="238" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="218"/>
-      <c r="F39" s="217" t="s">
+      <c r="E39" s="259"/>
+      <c r="F39" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="219"/>
-      <c r="H39" s="219"/>
-      <c r="I39" s="220"/>
+      <c r="G39" s="239"/>
+      <c r="H39" s="239"/>
+      <c r="I39" s="240"/>
       <c r="J39" s="49" t="s">
         <v>36</v>
       </c>
@@ -7000,14 +7019,14 @@
       <c r="E42" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="217" t="s">
+      <c r="F42" s="238" t="s">
         <v>33</v>
       </c>
-      <c r="G42" s="218"/>
-      <c r="H42" s="217" t="s">
+      <c r="G42" s="259"/>
+      <c r="H42" s="238" t="s">
         <v>42</v>
       </c>
-      <c r="I42" s="220"/>
+      <c r="I42" s="240"/>
       <c r="J42" s="49" t="s">
         <v>13</v>
       </c>
@@ -7020,16 +7039,16 @@
         <f t="shared" ref="E43:E57" si="6">$D43*E$41/(E$40+E$41)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="214">
+      <c r="F43" s="235">
         <f t="shared" ref="F43:F57" si="7">E43*G$41/(G$40+G$41)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="239"/>
-      <c r="H43" s="214">
+      <c r="G43" s="282"/>
+      <c r="H43" s="235">
         <f t="shared" ref="H43:H57" si="8">F43*I$41/(I$40+I$41)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="215"/>
+      <c r="I43" s="236"/>
       <c r="J43" s="66">
         <f>H43*4095/3.3</f>
         <v>0</v>
@@ -7043,16 +7062,16 @@
         <f t="shared" si="6"/>
         <v>0.68851328044153159</v>
       </c>
-      <c r="F44" s="224">
+      <c r="F44" s="216">
         <f t="shared" si="7"/>
         <v>0.3442566402207658</v>
       </c>
-      <c r="G44" s="238"/>
-      <c r="H44" s="224">
+      <c r="G44" s="217"/>
+      <c r="H44" s="216">
         <f t="shared" si="8"/>
         <v>0.18118770537935042</v>
       </c>
-      <c r="I44" s="225"/>
+      <c r="I44" s="218"/>
       <c r="J44" s="51">
         <f>H44*4095/3.3</f>
         <v>224.83747076619395</v>
@@ -7066,16 +7085,16 @@
         <f t="shared" si="6"/>
         <v>1.3770265608830632</v>
       </c>
-      <c r="F45" s="224">
+      <c r="F45" s="216">
         <f t="shared" si="7"/>
         <v>0.68851328044153159</v>
       </c>
-      <c r="G45" s="238"/>
-      <c r="H45" s="224">
+      <c r="G45" s="217"/>
+      <c r="H45" s="216">
         <f t="shared" si="8"/>
         <v>0.36237541075870083</v>
       </c>
-      <c r="I45" s="225"/>
+      <c r="I45" s="218"/>
       <c r="J45" s="51">
         <f t="shared" ref="J45:J57" si="9">H45*4095/3.3</f>
         <v>449.67494153238789</v>
@@ -7089,16 +7108,16 @@
         <f t="shared" si="6"/>
         <v>2.0655398413245947</v>
       </c>
-      <c r="F46" s="224">
+      <c r="F46" s="216">
         <f t="shared" si="7"/>
         <v>1.0327699206622973</v>
       </c>
-      <c r="G46" s="238"/>
-      <c r="H46" s="224">
+      <c r="G46" s="217"/>
+      <c r="H46" s="216">
         <f t="shared" si="8"/>
         <v>0.54356311613805119</v>
       </c>
-      <c r="I46" s="225"/>
+      <c r="I46" s="218"/>
       <c r="J46" s="51">
         <f t="shared" si="9"/>
         <v>674.51241229858169</v>
@@ -7112,16 +7131,16 @@
         <f t="shared" si="6"/>
         <v>2.7540531217661264</v>
       </c>
-      <c r="F47" s="224">
+      <c r="F47" s="216">
         <f t="shared" si="7"/>
         <v>1.3770265608830632</v>
       </c>
-      <c r="G47" s="238"/>
-      <c r="H47" s="224">
+      <c r="G47" s="217"/>
+      <c r="H47" s="216">
         <f t="shared" si="8"/>
         <v>0.72475082151740167</v>
       </c>
-      <c r="I47" s="225"/>
+      <c r="I47" s="218"/>
       <c r="J47" s="51">
         <f t="shared" si="9"/>
         <v>899.34988306477578</v>
@@ -7135,16 +7154,16 @@
         <f t="shared" si="6"/>
         <v>3.4425664022076581</v>
       </c>
-      <c r="F48" s="224">
+      <c r="F48" s="216">
         <f t="shared" si="7"/>
         <v>1.721283201103829</v>
       </c>
-      <c r="G48" s="238"/>
-      <c r="H48" s="224">
+      <c r="G48" s="217"/>
+      <c r="H48" s="216">
         <f t="shared" si="8"/>
         <v>0.90593852689675203</v>
       </c>
-      <c r="I48" s="225"/>
+      <c r="I48" s="218"/>
       <c r="J48" s="51">
         <f t="shared" si="9"/>
         <v>1124.1873538309696</v>
@@ -7158,16 +7177,16 @@
         <f t="shared" si="6"/>
         <v>4.1310796826491893</v>
       </c>
-      <c r="F49" s="224">
+      <c r="F49" s="216">
         <f t="shared" si="7"/>
         <v>2.0655398413245947</v>
       </c>
-      <c r="G49" s="238"/>
-      <c r="H49" s="224">
+      <c r="G49" s="217"/>
+      <c r="H49" s="216">
         <f t="shared" si="8"/>
         <v>1.0871262322761024</v>
       </c>
-      <c r="I49" s="225"/>
+      <c r="I49" s="218"/>
       <c r="J49" s="51">
         <f>H49*4095/3.3</f>
         <v>1349.0248245971634</v>
@@ -7181,16 +7200,16 @@
         <f t="shared" si="6"/>
         <v>4.8195929630907202</v>
       </c>
-      <c r="F50" s="224">
+      <c r="F50" s="216">
         <f t="shared" si="7"/>
         <v>2.4097964815453601</v>
       </c>
-      <c r="G50" s="238"/>
-      <c r="H50" s="224">
+      <c r="G50" s="217"/>
+      <c r="H50" s="216">
         <f t="shared" si="8"/>
         <v>1.2683139376554526</v>
       </c>
-      <c r="I50" s="225"/>
+      <c r="I50" s="218"/>
       <c r="J50" s="51">
         <f t="shared" si="9"/>
         <v>1573.8622953633571</v>
@@ -7204,16 +7223,16 @@
         <f t="shared" si="6"/>
         <v>5.5081062435322528</v>
       </c>
-      <c r="F51" s="224">
+      <c r="F51" s="216">
         <f t="shared" si="7"/>
         <v>2.7540531217661264</v>
       </c>
-      <c r="G51" s="238"/>
-      <c r="H51" s="224">
+      <c r="G51" s="217"/>
+      <c r="H51" s="216">
         <f t="shared" si="8"/>
         <v>1.4495016430348033</v>
       </c>
-      <c r="I51" s="225"/>
+      <c r="I51" s="218"/>
       <c r="J51" s="51">
         <f t="shared" si="9"/>
         <v>1798.6997661295516</v>
@@ -7227,16 +7246,16 @@
         <f t="shared" si="6"/>
         <v>6.6097274922387026</v>
       </c>
-      <c r="F52" s="224">
+      <c r="F52" s="216">
         <f t="shared" si="7"/>
         <v>3.3048637461193513</v>
       </c>
-      <c r="G52" s="238"/>
-      <c r="H52" s="224">
+      <c r="G52" s="217"/>
+      <c r="H52" s="216">
         <f t="shared" si="8"/>
         <v>1.7394019716417637</v>
       </c>
-      <c r="I52" s="225"/>
+      <c r="I52" s="218"/>
       <c r="J52" s="51">
         <f t="shared" si="9"/>
         <v>2158.4397193554614</v>
@@ -7250,16 +7269,16 @@
         <f t="shared" si="6"/>
         <v>6.8851328044153162</v>
       </c>
-      <c r="F53" s="224">
+      <c r="F53" s="216">
         <f t="shared" si="7"/>
         <v>3.4425664022076581</v>
       </c>
-      <c r="G53" s="238"/>
-      <c r="H53" s="224">
+      <c r="G53" s="217"/>
+      <c r="H53" s="216">
         <f t="shared" si="8"/>
         <v>1.8118770537935041</v>
       </c>
-      <c r="I53" s="225"/>
+      <c r="I53" s="218"/>
       <c r="J53" s="51">
         <f t="shared" si="9"/>
         <v>2248.3747076619393</v>
@@ -7273,16 +7292,16 @@
         <f t="shared" si="6"/>
         <v>7.573646084856847</v>
       </c>
-      <c r="F54" s="224">
+      <c r="F54" s="216">
         <f t="shared" si="7"/>
         <v>3.786823042428423</v>
       </c>
-      <c r="G54" s="238"/>
-      <c r="H54" s="224">
+      <c r="G54" s="217"/>
+      <c r="H54" s="216">
         <f t="shared" si="8"/>
         <v>1.9930647591728541</v>
       </c>
-      <c r="I54" s="225"/>
+      <c r="I54" s="218"/>
       <c r="J54" s="51">
         <f t="shared" si="9"/>
         <v>2473.2121784281326</v>
@@ -7296,16 +7315,16 @@
         <f t="shared" si="6"/>
         <v>8.2621593652983787</v>
       </c>
-      <c r="F55" s="230">
+      <c r="F55" s="219">
         <f t="shared" si="7"/>
         <v>4.1310796826491893</v>
       </c>
-      <c r="G55" s="241"/>
-      <c r="H55" s="230">
+      <c r="G55" s="220"/>
+      <c r="H55" s="219">
         <f t="shared" si="8"/>
         <v>2.1742524645522048</v>
       </c>
-      <c r="I55" s="231"/>
+      <c r="I55" s="221"/>
       <c r="J55" s="67">
         <f t="shared" si="9"/>
         <v>2698.0496491943268</v>
@@ -7319,16 +7338,16 @@
         <f t="shared" si="6"/>
         <v>8.9506726457399104</v>
       </c>
-      <c r="F56" s="224">
+      <c r="F56" s="216">
         <f t="shared" si="7"/>
         <v>4.4753363228699552</v>
       </c>
-      <c r="G56" s="238"/>
-      <c r="H56" s="224">
+      <c r="G56" s="217"/>
+      <c r="H56" s="216">
         <f t="shared" si="8"/>
         <v>2.3554401699315552</v>
       </c>
-      <c r="I56" s="225"/>
+      <c r="I56" s="218"/>
       <c r="J56" s="51">
         <f t="shared" si="9"/>
         <v>2922.887119960521</v>
@@ -7342,16 +7361,16 @@
         <f t="shared" si="6"/>
         <v>9.6391859261814403</v>
       </c>
-      <c r="F57" s="236">
+      <c r="F57" s="210">
         <f t="shared" si="7"/>
         <v>4.8195929630907202</v>
       </c>
-      <c r="G57" s="240"/>
-      <c r="H57" s="236">
+      <c r="G57" s="211"/>
+      <c r="H57" s="210">
         <f t="shared" si="8"/>
         <v>2.5366278753109053</v>
       </c>
-      <c r="I57" s="237"/>
+      <c r="I57" s="212"/>
       <c r="J57" s="52">
         <f t="shared" si="9"/>
         <v>3147.7245907267143</v>
@@ -7421,22 +7440,22 @@
       </c>
     </row>
     <row r="65" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D65" s="287" t="s">
+      <c r="D65" s="208" t="s">
         <v>158</v>
       </c>
-      <c r="E65" s="288"/>
-      <c r="F65" s="247" t="s">
+      <c r="E65" s="209"/>
+      <c r="F65" s="276" t="s">
         <v>34</v>
       </c>
-      <c r="G65" s="247"/>
-      <c r="H65" s="247"/>
-      <c r="I65" s="248"/>
-      <c r="J65" s="217" t="s">
+      <c r="G65" s="276"/>
+      <c r="H65" s="276"/>
+      <c r="I65" s="277"/>
+      <c r="J65" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="K65" s="219"/>
-      <c r="L65" s="219"/>
-      <c r="M65" s="220"/>
+      <c r="K65" s="239"/>
+      <c r="L65" s="239"/>
+      <c r="M65" s="240"/>
       <c r="N65" s="49" t="s">
         <v>36</v>
       </c>
@@ -7518,22 +7537,22 @@
       <c r="E68" s="125" t="s">
         <v>159</v>
       </c>
-      <c r="F68" s="249" t="s">
+      <c r="F68" s="278" t="s">
         <v>18</v>
       </c>
-      <c r="G68" s="219"/>
-      <c r="H68" s="219" t="s">
+      <c r="G68" s="239"/>
+      <c r="H68" s="239" t="s">
         <v>17</v>
       </c>
-      <c r="I68" s="220"/>
-      <c r="J68" s="250" t="s">
+      <c r="I68" s="240"/>
+      <c r="J68" s="279" t="s">
         <v>18</v>
       </c>
-      <c r="K68" s="251"/>
-      <c r="L68" s="251" t="s">
+      <c r="K68" s="280"/>
+      <c r="L68" s="280" t="s">
         <v>19</v>
       </c>
-      <c r="M68" s="252"/>
+      <c r="M68" s="281"/>
       <c r="N68" s="69" t="s">
         <v>13</v>
       </c>
@@ -7545,26 +7564,26 @@
       <c r="E69" s="44">
         <v>0</v>
       </c>
-      <c r="F69" s="244">
+      <c r="F69" s="261">
         <f t="shared" ref="F69:F79" si="10">E69*G$67/(G$66+G$67)</f>
         <v>0</v>
       </c>
-      <c r="G69" s="245"/>
-      <c r="H69" s="245">
+      <c r="G69" s="275"/>
+      <c r="H69" s="275">
         <f t="shared" ref="H69:H79" si="11">F69*(1+I$66/I$67)</f>
         <v>0</v>
       </c>
-      <c r="I69" s="227"/>
-      <c r="J69" s="244">
+      <c r="I69" s="233"/>
+      <c r="J69" s="261">
         <f t="shared" ref="J69:J79" si="12">H69*K$67/(K$66+K$67)</f>
         <v>0</v>
       </c>
-      <c r="K69" s="245"/>
-      <c r="L69" s="245">
+      <c r="K69" s="275"/>
+      <c r="L69" s="275">
         <f t="shared" ref="L69:L79" si="13">J69*M$67/(M$66+M$67)</f>
         <v>0</v>
       </c>
-      <c r="M69" s="246"/>
+      <c r="M69" s="232"/>
       <c r="N69" s="17">
         <f>L69*4096/3.3</f>
         <v>0</v>
@@ -7578,26 +7597,26 @@
         <f>$E$67*D70/$E$66</f>
         <v>0.4</v>
       </c>
-      <c r="F70" s="242">
+      <c r="F70" s="234">
         <f t="shared" si="10"/>
         <v>0.38204393505253104</v>
       </c>
-      <c r="G70" s="243"/>
-      <c r="H70" s="243">
+      <c r="G70" s="274"/>
+      <c r="H70" s="274">
         <f t="shared" si="11"/>
         <v>1.1461318051575931</v>
       </c>
-      <c r="I70" s="225"/>
-      <c r="J70" s="242">
+      <c r="I70" s="218"/>
+      <c r="J70" s="234">
         <f t="shared" si="12"/>
         <v>0.57306590257879653</v>
       </c>
-      <c r="K70" s="243"/>
-      <c r="L70" s="243">
+      <c r="K70" s="274"/>
+      <c r="L70" s="274">
         <f t="shared" si="13"/>
         <v>0.30161363293620869</v>
       </c>
-      <c r="M70" s="238"/>
+      <c r="M70" s="217"/>
       <c r="N70" s="19">
         <f>L70*4096/3.3</f>
         <v>374.36649712324572</v>
@@ -7611,26 +7630,26 @@
         <f t="shared" ref="E71:E79" si="14">$E$67*D71/$E$66</f>
         <v>0.8</v>
       </c>
-      <c r="F71" s="242">
+      <c r="F71" s="234">
         <f t="shared" si="10"/>
         <v>0.76408787010506207</v>
       </c>
-      <c r="G71" s="243"/>
-      <c r="H71" s="243">
+      <c r="G71" s="274"/>
+      <c r="H71" s="274">
         <f t="shared" si="11"/>
         <v>2.2922636103151861</v>
       </c>
-      <c r="I71" s="225"/>
-      <c r="J71" s="242">
+      <c r="I71" s="218"/>
+      <c r="J71" s="234">
         <f t="shared" si="12"/>
         <v>1.1461318051575931</v>
       </c>
-      <c r="K71" s="243"/>
-      <c r="L71" s="243">
+      <c r="K71" s="274"/>
+      <c r="L71" s="274">
         <f t="shared" si="13"/>
         <v>0.60322726587241737</v>
       </c>
-      <c r="M71" s="238"/>
+      <c r="M71" s="217"/>
       <c r="N71" s="19">
         <f t="shared" ref="N71:N79" si="15">L71*4096/3.3</f>
         <v>748.73299424649144</v>
@@ -7644,26 +7663,26 @@
         <f t="shared" si="14"/>
         <v>1.2</v>
       </c>
-      <c r="F72" s="242">
+      <c r="F72" s="234">
         <f t="shared" si="10"/>
         <v>1.1461318051575931</v>
       </c>
-      <c r="G72" s="243"/>
-      <c r="H72" s="243">
+      <c r="G72" s="274"/>
+      <c r="H72" s="274">
         <f t="shared" si="11"/>
         <v>3.4383954154727792</v>
       </c>
-      <c r="I72" s="225"/>
-      <c r="J72" s="242">
+      <c r="I72" s="218"/>
+      <c r="J72" s="234">
         <f t="shared" si="12"/>
         <v>1.7191977077363894</v>
       </c>
-      <c r="K72" s="243"/>
-      <c r="L72" s="243">
+      <c r="K72" s="274"/>
+      <c r="L72" s="274">
         <f t="shared" si="13"/>
         <v>0.90484089880862584</v>
       </c>
-      <c r="M72" s="238"/>
+      <c r="M72" s="217"/>
       <c r="N72" s="19">
         <f t="shared" si="15"/>
         <v>1123.0994913697368</v>
@@ -7677,26 +7696,26 @@
         <f t="shared" si="14"/>
         <v>1.6</v>
       </c>
-      <c r="F73" s="242">
+      <c r="F73" s="234">
         <f t="shared" si="10"/>
         <v>1.5281757402101241</v>
       </c>
-      <c r="G73" s="243"/>
-      <c r="H73" s="243">
+      <c r="G73" s="274"/>
+      <c r="H73" s="274">
         <f t="shared" si="11"/>
         <v>4.5845272206303722</v>
       </c>
-      <c r="I73" s="225"/>
-      <c r="J73" s="242">
+      <c r="I73" s="218"/>
+      <c r="J73" s="234">
         <f t="shared" si="12"/>
         <v>2.2922636103151861</v>
       </c>
-      <c r="K73" s="243"/>
-      <c r="L73" s="243">
+      <c r="K73" s="274"/>
+      <c r="L73" s="274">
         <f t="shared" si="13"/>
         <v>1.2064545317448347</v>
       </c>
-      <c r="M73" s="238"/>
+      <c r="M73" s="217"/>
       <c r="N73" s="19">
         <f t="shared" si="15"/>
         <v>1497.4659884929829</v>
@@ -7710,26 +7729,26 @@
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="F74" s="261">
+      <c r="F74" s="264">
         <f t="shared" si="10"/>
         <v>1.910219675262655</v>
       </c>
-      <c r="G74" s="262"/>
-      <c r="H74" s="262">
+      <c r="G74" s="273"/>
+      <c r="H74" s="273">
         <f t="shared" si="11"/>
         <v>5.7306590257879648</v>
       </c>
-      <c r="I74" s="231"/>
-      <c r="J74" s="261">
+      <c r="I74" s="221"/>
+      <c r="J74" s="264">
         <f t="shared" si="12"/>
         <v>2.8653295128939824</v>
       </c>
-      <c r="K74" s="262"/>
-      <c r="L74" s="262">
+      <c r="K74" s="273"/>
+      <c r="L74" s="273">
         <f t="shared" si="13"/>
         <v>1.5080681646810434</v>
       </c>
-      <c r="M74" s="241"/>
+      <c r="M74" s="220"/>
       <c r="N74" s="64">
         <f t="shared" si="15"/>
         <v>1871.8324856162285</v>
@@ -7743,26 +7762,26 @@
         <f t="shared" si="14"/>
         <v>2.4</v>
       </c>
-      <c r="F75" s="257">
+      <c r="F75" s="269">
         <f t="shared" si="10"/>
         <v>2.2922636103151861</v>
       </c>
-      <c r="G75" s="258"/>
-      <c r="H75" s="258">
+      <c r="G75" s="270"/>
+      <c r="H75" s="270">
         <f t="shared" si="11"/>
         <v>6.8767908309455583</v>
       </c>
-      <c r="I75" s="259"/>
-      <c r="J75" s="257">
+      <c r="I75" s="271"/>
+      <c r="J75" s="269">
         <f t="shared" si="12"/>
         <v>3.4383954154727787</v>
       </c>
-      <c r="K75" s="258"/>
-      <c r="L75" s="258">
+      <c r="K75" s="270"/>
+      <c r="L75" s="270">
         <f t="shared" si="13"/>
         <v>1.8096817976172517</v>
       </c>
-      <c r="M75" s="260"/>
+      <c r="M75" s="272"/>
       <c r="N75" s="151">
         <f t="shared" si="15"/>
         <v>2246.1989827394736</v>
@@ -7776,26 +7795,26 @@
         <f t="shared" si="14"/>
         <v>2.8</v>
       </c>
-      <c r="F76" s="253">
+      <c r="F76" s="265">
         <f t="shared" si="10"/>
         <v>2.674307545367717</v>
       </c>
-      <c r="G76" s="254"/>
-      <c r="H76" s="254">
+      <c r="G76" s="266"/>
+      <c r="H76" s="266">
         <f t="shared" si="11"/>
         <v>8.02292263610315</v>
       </c>
-      <c r="I76" s="255"/>
-      <c r="J76" s="253">
+      <c r="I76" s="267"/>
+      <c r="J76" s="265">
         <f t="shared" si="12"/>
         <v>4.011461318051575</v>
       </c>
-      <c r="K76" s="254"/>
-      <c r="L76" s="254">
+      <c r="K76" s="266"/>
+      <c r="L76" s="266">
         <f t="shared" si="13"/>
         <v>2.1112954305534606</v>
       </c>
-      <c r="M76" s="256"/>
+      <c r="M76" s="268"/>
       <c r="N76" s="124">
         <f t="shared" si="15"/>
         <v>2620.5654798627197</v>
@@ -7809,26 +7828,26 @@
         <f t="shared" si="14"/>
         <v>3.2</v>
       </c>
-      <c r="F77" s="253">
+      <c r="F77" s="265">
         <f t="shared" si="10"/>
         <v>3.0563514804202483</v>
       </c>
-      <c r="G77" s="254"/>
-      <c r="H77" s="254">
+      <c r="G77" s="266"/>
+      <c r="H77" s="266">
         <f t="shared" si="11"/>
         <v>9.1690544412607444</v>
       </c>
-      <c r="I77" s="255"/>
-      <c r="J77" s="253">
+      <c r="I77" s="267"/>
+      <c r="J77" s="265">
         <f t="shared" si="12"/>
         <v>4.5845272206303722</v>
       </c>
-      <c r="K77" s="254"/>
-      <c r="L77" s="254">
+      <c r="K77" s="266"/>
+      <c r="L77" s="266">
         <f t="shared" si="13"/>
         <v>2.4129090634896695</v>
       </c>
-      <c r="M77" s="256"/>
+      <c r="M77" s="268"/>
       <c r="N77" s="124">
         <f t="shared" si="15"/>
         <v>2994.9319769859658</v>
@@ -7842,26 +7861,26 @@
         <f t="shared" si="14"/>
         <v>3.6</v>
       </c>
-      <c r="F78" s="253">
+      <c r="F78" s="265">
         <f t="shared" si="10"/>
         <v>3.4383954154727792</v>
       </c>
-      <c r="G78" s="254"/>
-      <c r="H78" s="254">
+      <c r="G78" s="266"/>
+      <c r="H78" s="266">
         <f t="shared" si="11"/>
         <v>10.315186246418337</v>
       </c>
-      <c r="I78" s="255"/>
-      <c r="J78" s="253">
+      <c r="I78" s="267"/>
+      <c r="J78" s="265">
         <f t="shared" si="12"/>
         <v>5.1575931232091685</v>
       </c>
-      <c r="K78" s="254"/>
-      <c r="L78" s="254">
+      <c r="K78" s="266"/>
+      <c r="L78" s="266">
         <f t="shared" si="13"/>
         <v>2.7145226964258784</v>
       </c>
-      <c r="M78" s="256"/>
+      <c r="M78" s="268"/>
       <c r="N78" s="124">
         <f t="shared" si="15"/>
         <v>3369.2984741092118</v>
@@ -7875,26 +7894,26 @@
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="F79" s="253">
+      <c r="F79" s="265">
         <f t="shared" si="10"/>
         <v>3.82043935052531</v>
       </c>
-      <c r="G79" s="254"/>
-      <c r="H79" s="254">
+      <c r="G79" s="266"/>
+      <c r="H79" s="266">
         <f t="shared" si="11"/>
         <v>11.46131805157593</v>
       </c>
-      <c r="I79" s="255"/>
-      <c r="J79" s="253">
+      <c r="I79" s="267"/>
+      <c r="J79" s="265">
         <f t="shared" si="12"/>
         <v>5.7306590257879648</v>
       </c>
-      <c r="K79" s="254"/>
-      <c r="L79" s="254">
+      <c r="K79" s="266"/>
+      <c r="L79" s="266">
         <f t="shared" si="13"/>
         <v>3.0161363293620869</v>
       </c>
-      <c r="M79" s="256"/>
+      <c r="M79" s="268"/>
       <c r="N79" s="124">
         <f t="shared" si="15"/>
         <v>3743.664971232457</v>
@@ -7919,29 +7938,29 @@
     </row>
     <row r="84" spans="3:15" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C84" s="2"/>
-      <c r="D84" s="289" t="s">
+      <c r="D84" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="E84" s="217" t="s">
+      <c r="E84" s="238" t="s">
         <v>76</v>
       </c>
-      <c r="F84" s="219"/>
-      <c r="G84" s="219"/>
-      <c r="H84" s="219"/>
-      <c r="I84" s="219"/>
-      <c r="J84" s="218"/>
-      <c r="K84" s="217" t="s">
+      <c r="F84" s="239"/>
+      <c r="G84" s="239"/>
+      <c r="H84" s="239"/>
+      <c r="I84" s="239"/>
+      <c r="J84" s="259"/>
+      <c r="K84" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="L84" s="219"/>
-      <c r="M84" s="219"/>
-      <c r="N84" s="220"/>
+      <c r="L84" s="239"/>
+      <c r="M84" s="239"/>
+      <c r="N84" s="240"/>
       <c r="O84" s="49" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="85" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="D85" s="290"/>
+      <c r="D85" s="214"/>
       <c r="E85" s="134" t="s">
         <v>195</v>
       </c>
@@ -7977,7 +7996,7 @@
       </c>
     </row>
     <row r="86" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D86" s="291"/>
+      <c r="D86" s="215"/>
       <c r="E86" s="121"/>
       <c r="F86" s="122"/>
       <c r="G86" s="117" t="s">
@@ -8018,22 +8037,22 @@
       <c r="F87" s="100" t="s">
         <v>162</v>
       </c>
-      <c r="G87" s="278" t="s">
+      <c r="G87" s="228" t="s">
         <v>77</v>
       </c>
-      <c r="H87" s="279"/>
-      <c r="I87" s="272" t="s">
+      <c r="H87" s="230"/>
+      <c r="I87" s="260" t="s">
         <v>80</v>
       </c>
-      <c r="J87" s="273"/>
-      <c r="K87" s="278" t="s">
+      <c r="J87" s="229"/>
+      <c r="K87" s="228" t="s">
         <v>18</v>
       </c>
-      <c r="L87" s="273"/>
-      <c r="M87" s="278" t="s">
+      <c r="L87" s="229"/>
+      <c r="M87" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="N87" s="279"/>
+      <c r="N87" s="230"/>
       <c r="O87" s="75" t="s">
         <v>13</v>
       </c>
@@ -8050,26 +8069,26 @@
         <f>D88*E88</f>
         <v>0</v>
       </c>
-      <c r="G88" s="226">
+      <c r="G88" s="231">
         <f>E88*(1+H$85/H$86)</f>
         <v>0</v>
       </c>
-      <c r="H88" s="227"/>
-      <c r="I88" s="244">
+      <c r="H88" s="233"/>
+      <c r="I88" s="261">
         <f>G88*J$86/(J$85+J$86)</f>
         <v>0</v>
       </c>
-      <c r="J88" s="246"/>
-      <c r="K88" s="226">
+      <c r="J88" s="232"/>
+      <c r="K88" s="231">
         <f>I88*L$86/(L$85+L$86)</f>
         <v>0</v>
       </c>
-      <c r="L88" s="246"/>
-      <c r="M88" s="226">
+      <c r="L88" s="232"/>
+      <c r="M88" s="231">
         <f t="shared" ref="M88:M100" si="16">K88*N$86/(N$85+N$86)</f>
         <v>0</v>
       </c>
-      <c r="N88" s="227"/>
+      <c r="N88" s="233"/>
       <c r="O88" s="50">
         <f t="shared" ref="O88:O100" si="17">M88*4096/3.3</f>
         <v>0</v>
@@ -8087,26 +8106,26 @@
         <f>D89*E89</f>
         <v>5.000000000000001E-3</v>
       </c>
-      <c r="G89" s="224">
+      <c r="G89" s="216">
         <f>E89*(1+H$85/H$86)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="H89" s="225"/>
-      <c r="I89" s="242">
+      <c r="H89" s="218"/>
+      <c r="I89" s="234">
         <f t="shared" ref="I89:I100" si="19">G89*J$86/(J$85+J$86)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="J89" s="238"/>
-      <c r="K89" s="224">
+      <c r="J89" s="217"/>
+      <c r="K89" s="216">
         <f t="shared" ref="K89:K100" si="20">I89*L$86/(L$85+L$86)</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="L89" s="238"/>
-      <c r="M89" s="224">
+      <c r="L89" s="217"/>
+      <c r="M89" s="216">
         <f t="shared" si="16"/>
         <v>0.14473684210526316</v>
       </c>
-      <c r="N89" s="225"/>
+      <c r="N89" s="218"/>
       <c r="O89" s="51">
         <f t="shared" si="17"/>
         <v>179.64912280701756</v>
@@ -8124,26 +8143,26 @@
         <f t="shared" ref="F90:F100" si="21">D90*E90</f>
         <v>2.0000000000000004E-2</v>
       </c>
-      <c r="G90" s="280">
+      <c r="G90" s="222">
         <f>E90*(1+H$85/H$86)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H90" s="281"/>
-      <c r="I90" s="274">
+      <c r="H90" s="224"/>
+      <c r="I90" s="262">
         <f t="shared" si="19"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="J90" s="275"/>
-      <c r="K90" s="280">
+      <c r="J90" s="223"/>
+      <c r="K90" s="222">
         <f t="shared" si="20"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="L90" s="275"/>
-      <c r="M90" s="280">
+      <c r="L90" s="223"/>
+      <c r="M90" s="222">
         <f t="shared" si="16"/>
         <v>0.28947368421052633</v>
       </c>
-      <c r="N90" s="281"/>
+      <c r="N90" s="224"/>
       <c r="O90" s="54">
         <f t="shared" si="17"/>
         <v>359.29824561403512</v>
@@ -8161,26 +8180,26 @@
         <f t="shared" si="21"/>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="G91" s="282">
+      <c r="G91" s="225">
         <f t="shared" ref="G91:G100" si="22">E91*(1+H$85/H$86)</f>
         <v>1.65</v>
       </c>
-      <c r="H91" s="283"/>
-      <c r="I91" s="276">
+      <c r="H91" s="227"/>
+      <c r="I91" s="263">
         <f t="shared" si="19"/>
         <v>1.65</v>
       </c>
-      <c r="J91" s="277"/>
-      <c r="K91" s="282">
+      <c r="J91" s="226"/>
+      <c r="K91" s="225">
         <f t="shared" si="20"/>
         <v>0.82499999999999996</v>
       </c>
-      <c r="L91" s="277"/>
-      <c r="M91" s="282">
+      <c r="L91" s="226"/>
+      <c r="M91" s="225">
         <f t="shared" si="16"/>
         <v>0.43421052631578938</v>
       </c>
-      <c r="N91" s="283"/>
+      <c r="N91" s="227"/>
       <c r="O91" s="78">
         <f t="shared" si="17"/>
         <v>538.94736842105249</v>
@@ -8198,26 +8217,26 @@
         <f t="shared" si="21"/>
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="G92" s="224">
+      <c r="G92" s="216">
         <f t="shared" si="22"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="H92" s="225"/>
-      <c r="I92" s="242">
+      <c r="H92" s="218"/>
+      <c r="I92" s="234">
         <f t="shared" si="19"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="J92" s="238"/>
-      <c r="K92" s="224">
+      <c r="J92" s="217"/>
+      <c r="K92" s="216">
         <f t="shared" si="20"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="L92" s="238"/>
-      <c r="M92" s="224">
+      <c r="L92" s="217"/>
+      <c r="M92" s="216">
         <f t="shared" si="16"/>
         <v>0.57894736842105265</v>
       </c>
-      <c r="N92" s="225"/>
+      <c r="N92" s="218"/>
       <c r="O92" s="51">
         <f t="shared" si="17"/>
         <v>718.59649122807025</v>
@@ -8235,26 +8254,26 @@
         <f t="shared" si="21"/>
         <v>0.125</v>
       </c>
-      <c r="G93" s="224">
+      <c r="G93" s="216">
         <f t="shared" si="22"/>
         <v>2.75</v>
       </c>
-      <c r="H93" s="225"/>
-      <c r="I93" s="242">
+      <c r="H93" s="218"/>
+      <c r="I93" s="234">
         <f t="shared" si="19"/>
         <v>2.75</v>
       </c>
-      <c r="J93" s="238"/>
-      <c r="K93" s="224">
+      <c r="J93" s="217"/>
+      <c r="K93" s="216">
         <f t="shared" si="20"/>
         <v>1.375</v>
       </c>
-      <c r="L93" s="238"/>
-      <c r="M93" s="224">
+      <c r="L93" s="217"/>
+      <c r="M93" s="216">
         <f t="shared" si="16"/>
         <v>0.72368421052631582</v>
       </c>
-      <c r="N93" s="225"/>
+      <c r="N93" s="218"/>
       <c r="O93" s="51">
         <f t="shared" si="17"/>
         <v>898.24561403508778</v>
@@ -8272,26 +8291,26 @@
         <f t="shared" si="21"/>
         <v>0.18</v>
       </c>
-      <c r="G94" s="230">
+      <c r="G94" s="219">
         <f t="shared" si="22"/>
         <v>3.3</v>
       </c>
-      <c r="H94" s="231"/>
-      <c r="I94" s="261">
+      <c r="H94" s="221"/>
+      <c r="I94" s="264">
         <f t="shared" si="19"/>
         <v>3.3</v>
       </c>
-      <c r="J94" s="241"/>
-      <c r="K94" s="230">
+      <c r="J94" s="220"/>
+      <c r="K94" s="219">
         <f t="shared" si="20"/>
         <v>1.65</v>
       </c>
-      <c r="L94" s="241"/>
-      <c r="M94" s="230">
+      <c r="L94" s="220"/>
+      <c r="M94" s="219">
         <f t="shared" si="16"/>
         <v>0.86842105263157876</v>
       </c>
-      <c r="N94" s="231"/>
+      <c r="N94" s="221"/>
       <c r="O94" s="67">
         <f t="shared" si="17"/>
         <v>1077.894736842105</v>
@@ -8309,26 +8328,26 @@
         <f t="shared" si="21"/>
         <v>0.24499999999999997</v>
       </c>
-      <c r="G95" s="224">
+      <c r="G95" s="216">
         <f t="shared" si="22"/>
         <v>3.8499999999999996</v>
       </c>
-      <c r="H95" s="225"/>
-      <c r="I95" s="242">
+      <c r="H95" s="218"/>
+      <c r="I95" s="234">
         <f t="shared" si="19"/>
         <v>3.85</v>
       </c>
-      <c r="J95" s="238"/>
-      <c r="K95" s="224">
+      <c r="J95" s="217"/>
+      <c r="K95" s="216">
         <f t="shared" si="20"/>
         <v>1.9250000000000003</v>
       </c>
-      <c r="L95" s="238"/>
-      <c r="M95" s="224">
+      <c r="L95" s="217"/>
+      <c r="M95" s="216">
         <f t="shared" si="16"/>
         <v>1.013157894736842</v>
       </c>
-      <c r="N95" s="225"/>
+      <c r="N95" s="218"/>
       <c r="O95" s="51">
         <f t="shared" si="17"/>
         <v>1257.5438596491229</v>
@@ -8346,26 +8365,26 @@
         <f t="shared" si="21"/>
         <v>0.32000000000000006</v>
       </c>
-      <c r="G96" s="224">
+      <c r="G96" s="216">
         <f t="shared" si="22"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="H96" s="225"/>
-      <c r="I96" s="242">
+      <c r="H96" s="218"/>
+      <c r="I96" s="234">
         <f t="shared" si="19"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="J96" s="238"/>
-      <c r="K96" s="224">
+      <c r="J96" s="217"/>
+      <c r="K96" s="216">
         <f t="shared" si="20"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="L96" s="238"/>
-      <c r="M96" s="224">
+      <c r="L96" s="217"/>
+      <c r="M96" s="216">
         <f t="shared" si="16"/>
         <v>1.1578947368421053</v>
       </c>
-      <c r="N96" s="225"/>
+      <c r="N96" s="218"/>
       <c r="O96" s="51">
         <f t="shared" si="17"/>
         <v>1437.1929824561405</v>
@@ -8383,26 +8402,26 @@
         <f t="shared" si="21"/>
         <v>0.40500000000000003</v>
       </c>
-      <c r="G97" s="224">
+      <c r="G97" s="216">
         <f t="shared" si="22"/>
         <v>4.95</v>
       </c>
-      <c r="H97" s="225"/>
-      <c r="I97" s="242">
+      <c r="H97" s="218"/>
+      <c r="I97" s="234">
         <f t="shared" si="19"/>
         <v>4.95</v>
       </c>
-      <c r="J97" s="238"/>
-      <c r="K97" s="224">
+      <c r="J97" s="217"/>
+      <c r="K97" s="216">
         <f t="shared" si="20"/>
         <v>2.4750000000000001</v>
       </c>
-      <c r="L97" s="238"/>
-      <c r="M97" s="224">
+      <c r="L97" s="217"/>
+      <c r="M97" s="216">
         <f t="shared" si="16"/>
         <v>1.3026315789473686</v>
       </c>
-      <c r="N97" s="225"/>
+      <c r="N97" s="218"/>
       <c r="O97" s="51">
         <f t="shared" si="17"/>
         <v>1616.8421052631581</v>
@@ -8420,26 +8439,26 @@
         <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
-      <c r="G98" s="224">
+      <c r="G98" s="216">
         <f t="shared" si="22"/>
         <v>5.5</v>
       </c>
-      <c r="H98" s="225"/>
-      <c r="I98" s="242">
+      <c r="H98" s="218"/>
+      <c r="I98" s="234">
         <f t="shared" si="19"/>
         <v>5.5</v>
       </c>
-      <c r="J98" s="238"/>
-      <c r="K98" s="224">
+      <c r="J98" s="217"/>
+      <c r="K98" s="216">
         <f t="shared" si="20"/>
         <v>2.75</v>
       </c>
-      <c r="L98" s="238"/>
-      <c r="M98" s="224">
+      <c r="L98" s="217"/>
+      <c r="M98" s="216">
         <f t="shared" si="16"/>
         <v>1.4473684210526316</v>
       </c>
-      <c r="N98" s="225"/>
+      <c r="N98" s="218"/>
       <c r="O98" s="51">
         <f t="shared" si="17"/>
         <v>1796.4912280701756</v>
@@ -8457,26 +8476,26 @@
         <f t="shared" si="21"/>
         <v>0.60500000000000009</v>
       </c>
-      <c r="G99" s="224">
+      <c r="G99" s="216">
         <f t="shared" si="22"/>
         <v>6.0500000000000007</v>
       </c>
-      <c r="H99" s="225"/>
-      <c r="I99" s="242">
+      <c r="H99" s="218"/>
+      <c r="I99" s="234">
         <f t="shared" si="19"/>
         <v>6.0500000000000007</v>
       </c>
-      <c r="J99" s="238"/>
-      <c r="K99" s="224">
+      <c r="J99" s="217"/>
+      <c r="K99" s="216">
         <f t="shared" si="20"/>
         <v>3.0250000000000004</v>
       </c>
-      <c r="L99" s="238"/>
-      <c r="M99" s="224">
+      <c r="L99" s="217"/>
+      <c r="M99" s="216">
         <f t="shared" si="16"/>
         <v>1.5921052631578949</v>
       </c>
-      <c r="N99" s="225"/>
+      <c r="N99" s="218"/>
       <c r="O99" s="51">
         <f t="shared" si="17"/>
         <v>1976.1403508771932</v>
@@ -8494,26 +8513,26 @@
         <f t="shared" si="21"/>
         <v>0.72</v>
       </c>
-      <c r="G100" s="236">
+      <c r="G100" s="210">
         <f t="shared" si="22"/>
         <v>6.6</v>
       </c>
-      <c r="H100" s="237"/>
-      <c r="I100" s="271">
+      <c r="H100" s="212"/>
+      <c r="I100" s="258">
         <f t="shared" si="19"/>
         <v>6.6</v>
       </c>
-      <c r="J100" s="240"/>
-      <c r="K100" s="236">
+      <c r="J100" s="211"/>
+      <c r="K100" s="210">
         <f t="shared" si="20"/>
         <v>3.3</v>
       </c>
-      <c r="L100" s="240"/>
-      <c r="M100" s="236">
+      <c r="L100" s="211"/>
+      <c r="M100" s="210">
         <f t="shared" si="16"/>
         <v>1.7368421052631575</v>
       </c>
-      <c r="N100" s="237"/>
+      <c r="N100" s="212"/>
       <c r="O100" s="52">
         <f t="shared" si="17"/>
         <v>2155.78947368421</v>
@@ -8526,39 +8545,39 @@
     </row>
     <row r="103" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="104" spans="3:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D104" s="263" t="s">
+      <c r="D104" s="247" t="s">
         <v>16</v>
       </c>
-      <c r="E104" s="266" t="s">
+      <c r="E104" s="250" t="s">
         <v>215</v>
       </c>
-      <c r="F104" s="267"/>
-      <c r="G104" s="268" t="s">
+      <c r="F104" s="251"/>
+      <c r="G104" s="252" t="s">
         <v>12</v>
       </c>
-      <c r="H104" s="269"/>
-      <c r="I104" s="269"/>
-      <c r="J104" s="270"/>
+      <c r="H104" s="253"/>
+      <c r="I104" s="253"/>
+      <c r="J104" s="254"/>
       <c r="K104" s="25"/>
     </row>
     <row r="105" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="D105" s="264"/>
-      <c r="E105" s="284" t="s">
+      <c r="D105" s="248"/>
+      <c r="E105" s="255" t="s">
         <v>23</v>
       </c>
-      <c r="F105" s="285"/>
-      <c r="G105" s="284" t="s">
+      <c r="F105" s="256"/>
+      <c r="G105" s="255" t="s">
         <v>18</v>
       </c>
-      <c r="H105" s="286"/>
-      <c r="I105" s="286" t="s">
+      <c r="H105" s="257"/>
+      <c r="I105" s="257" t="s">
         <v>19</v>
       </c>
-      <c r="J105" s="285"/>
+      <c r="J105" s="256"/>
       <c r="K105" s="26"/>
     </row>
     <row r="106" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="D106" s="264"/>
+      <c r="D106" s="248"/>
       <c r="E106" s="8" t="s">
         <v>24</v>
       </c>
@@ -8582,7 +8601,7 @@
       </c>
     </row>
     <row r="107" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D107" s="265"/>
+      <c r="D107" s="249"/>
       <c r="E107" s="4" t="s">
         <v>27</v>
       </c>
@@ -8609,21 +8628,21 @@
       <c r="D108" s="31">
         <v>0</v>
       </c>
-      <c r="E108" s="214">
+      <c r="E108" s="235">
         <f>D108*F$107/(F$106+F$107)</f>
         <v>0</v>
       </c>
-      <c r="F108" s="215"/>
-      <c r="G108" s="214">
+      <c r="F108" s="236"/>
+      <c r="G108" s="235">
         <f>E108*H$107/(H$106+H$107)</f>
         <v>0</v>
       </c>
-      <c r="H108" s="216"/>
-      <c r="I108" s="216">
+      <c r="H108" s="237"/>
+      <c r="I108" s="237">
         <f>G108*J$107/(J$106+J$107)</f>
         <v>0</v>
       </c>
-      <c r="J108" s="215"/>
+      <c r="J108" s="236"/>
       <c r="K108" s="32">
         <f>I108*4096/3.3</f>
         <v>0</v>
@@ -8633,21 +8652,21 @@
       <c r="D109" s="33">
         <v>1</v>
       </c>
-      <c r="E109" s="214">
+      <c r="E109" s="235">
         <f t="shared" ref="E109:E120" si="23">D109*F$107/(F$106+F$107)</f>
         <v>0.99009900990099009</v>
       </c>
-      <c r="F109" s="215"/>
-      <c r="G109" s="214">
+      <c r="F109" s="236"/>
+      <c r="G109" s="235">
         <f t="shared" ref="G109:G120" si="24">E109*H$107/(H$106+H$107)</f>
         <v>0.49504950495049499</v>
       </c>
-      <c r="H109" s="216"/>
-      <c r="I109" s="216">
+      <c r="H109" s="237"/>
+      <c r="I109" s="237">
         <f t="shared" ref="I109:I120" si="25">G109*J$107/(J$106+J$107)</f>
         <v>0.2605523710265763</v>
       </c>
-      <c r="J109" s="215"/>
+      <c r="J109" s="236"/>
       <c r="K109" s="19">
         <f>I109*4096/3.3</f>
         <v>323.40076112874442</v>
@@ -8657,21 +8676,21 @@
       <c r="D110" s="33">
         <v>2</v>
       </c>
-      <c r="E110" s="214">
+      <c r="E110" s="235">
         <f t="shared" si="23"/>
         <v>1.9801980198019802</v>
       </c>
-      <c r="F110" s="215"/>
-      <c r="G110" s="214">
+      <c r="F110" s="236"/>
+      <c r="G110" s="235">
         <f t="shared" si="24"/>
         <v>0.99009900990098998</v>
       </c>
-      <c r="H110" s="216"/>
-      <c r="I110" s="216">
+      <c r="H110" s="237"/>
+      <c r="I110" s="237">
         <f t="shared" si="25"/>
         <v>0.5211047420531526</v>
       </c>
-      <c r="J110" s="215"/>
+      <c r="J110" s="236"/>
       <c r="K110" s="19">
         <f>I110*4096/3.3</f>
         <v>646.80152225748884</v>
@@ -8681,21 +8700,21 @@
       <c r="D111" s="33">
         <v>3</v>
       </c>
-      <c r="E111" s="214">
+      <c r="E111" s="235">
         <f t="shared" si="23"/>
         <v>2.9702970297029703</v>
       </c>
-      <c r="F111" s="215"/>
-      <c r="G111" s="214">
+      <c r="F111" s="236"/>
+      <c r="G111" s="235">
         <f t="shared" si="24"/>
         <v>1.4851485148514851</v>
       </c>
-      <c r="H111" s="216"/>
-      <c r="I111" s="216">
+      <c r="H111" s="237"/>
+      <c r="I111" s="237">
         <f t="shared" si="25"/>
         <v>0.78165711307972907</v>
       </c>
-      <c r="J111" s="215"/>
+      <c r="J111" s="236"/>
       <c r="K111" s="19">
         <f t="shared" ref="K111:K120" si="26">I111*4096/3.3</f>
         <v>970.20228338623349</v>
@@ -8705,21 +8724,21 @@
       <c r="D112" s="33">
         <v>4</v>
       </c>
-      <c r="E112" s="214">
+      <c r="E112" s="235">
         <f t="shared" si="23"/>
         <v>3.9603960396039604</v>
       </c>
-      <c r="F112" s="215"/>
-      <c r="G112" s="214">
+      <c r="F112" s="236"/>
+      <c r="G112" s="235">
         <f t="shared" si="24"/>
         <v>1.98019801980198</v>
       </c>
-      <c r="H112" s="216"/>
-      <c r="I112" s="216">
+      <c r="H112" s="237"/>
+      <c r="I112" s="237">
         <f t="shared" si="25"/>
         <v>1.0422094841063052</v>
       </c>
-      <c r="J112" s="215"/>
+      <c r="J112" s="236"/>
       <c r="K112" s="19">
         <f t="shared" si="26"/>
         <v>1293.6030445149777</v>
@@ -8729,21 +8748,21 @@
       <c r="D113" s="33">
         <v>5</v>
       </c>
-      <c r="E113" s="214">
+      <c r="E113" s="235">
         <f t="shared" si="23"/>
         <v>4.9504950495049505</v>
       </c>
-      <c r="F113" s="215"/>
-      <c r="G113" s="214">
+      <c r="F113" s="236"/>
+      <c r="G113" s="235">
         <f t="shared" si="24"/>
         <v>2.4752475247524752</v>
       </c>
-      <c r="H113" s="216"/>
-      <c r="I113" s="216">
+      <c r="H113" s="237"/>
+      <c r="I113" s="237">
         <f t="shared" si="25"/>
         <v>1.3027618551328817</v>
       </c>
-      <c r="J113" s="215"/>
+      <c r="J113" s="236"/>
       <c r="K113" s="19">
         <f t="shared" si="26"/>
         <v>1617.0038056437222</v>
@@ -8753,21 +8772,21 @@
       <c r="D114" s="33">
         <v>6</v>
       </c>
-      <c r="E114" s="214">
+      <c r="E114" s="235">
         <f t="shared" si="23"/>
         <v>5.9405940594059405</v>
       </c>
-      <c r="F114" s="215"/>
-      <c r="G114" s="214">
+      <c r="F114" s="236"/>
+      <c r="G114" s="235">
         <f t="shared" si="24"/>
         <v>2.9702970297029703</v>
       </c>
-      <c r="H114" s="216"/>
-      <c r="I114" s="216">
+      <c r="H114" s="237"/>
+      <c r="I114" s="237">
         <f t="shared" si="25"/>
         <v>1.5633142261594581</v>
       </c>
-      <c r="J114" s="215"/>
+      <c r="J114" s="236"/>
       <c r="K114" s="19">
         <f t="shared" si="26"/>
         <v>1940.404566772467</v>
@@ -8777,21 +8796,21 @@
       <c r="D115" s="35">
         <v>7</v>
       </c>
-      <c r="E115" s="208">
+      <c r="E115" s="244">
         <f t="shared" si="23"/>
         <v>6.9306930693069306</v>
       </c>
-      <c r="F115" s="209"/>
-      <c r="G115" s="208">
+      <c r="F115" s="245"/>
+      <c r="G115" s="244">
         <f t="shared" si="24"/>
         <v>3.4653465346534649</v>
       </c>
-      <c r="H115" s="210"/>
-      <c r="I115" s="210">
+      <c r="H115" s="246"/>
+      <c r="I115" s="246">
         <f t="shared" si="25"/>
         <v>1.8238665971860342</v>
       </c>
-      <c r="J115" s="209"/>
+      <c r="J115" s="245"/>
       <c r="K115" s="36">
         <f t="shared" si="26"/>
         <v>2263.8053279012111</v>
@@ -8801,21 +8820,21 @@
       <c r="D116" s="35">
         <v>8</v>
       </c>
-      <c r="E116" s="208">
+      <c r="E116" s="244">
         <f t="shared" si="23"/>
         <v>7.9207920792079207</v>
       </c>
-      <c r="F116" s="209"/>
-      <c r="G116" s="208">
+      <c r="F116" s="245"/>
+      <c r="G116" s="244">
         <f t="shared" si="24"/>
         <v>3.9603960396039599</v>
       </c>
-      <c r="H116" s="210"/>
-      <c r="I116" s="210">
+      <c r="H116" s="246"/>
+      <c r="I116" s="246">
         <f t="shared" si="25"/>
         <v>2.0844189682126104</v>
       </c>
-      <c r="J116" s="209"/>
+      <c r="J116" s="245"/>
       <c r="K116" s="36">
         <f t="shared" si="26"/>
         <v>2587.2060890299554</v>
@@ -8825,21 +8844,21 @@
       <c r="D117" s="35">
         <v>9</v>
       </c>
-      <c r="E117" s="208">
+      <c r="E117" s="244">
         <f t="shared" si="23"/>
         <v>8.9108910891089117</v>
       </c>
-      <c r="F117" s="209"/>
-      <c r="G117" s="208">
+      <c r="F117" s="245"/>
+      <c r="G117" s="244">
         <f t="shared" si="24"/>
         <v>4.4554455445544559</v>
       </c>
-      <c r="H117" s="210"/>
-      <c r="I117" s="210">
+      <c r="H117" s="246"/>
+      <c r="I117" s="246">
         <f t="shared" si="25"/>
         <v>2.3449713392391871</v>
       </c>
-      <c r="J117" s="209"/>
+      <c r="J117" s="245"/>
       <c r="K117" s="36">
         <f t="shared" si="26"/>
         <v>2910.6068501587001</v>
@@ -8849,21 +8868,21 @@
       <c r="D118" s="35">
         <v>10</v>
       </c>
-      <c r="E118" s="208">
+      <c r="E118" s="244">
         <f t="shared" si="23"/>
         <v>9.9009900990099009</v>
       </c>
-      <c r="F118" s="209"/>
-      <c r="G118" s="208">
+      <c r="F118" s="245"/>
+      <c r="G118" s="244">
         <f t="shared" si="24"/>
         <v>4.9504950495049505</v>
       </c>
-      <c r="H118" s="210"/>
-      <c r="I118" s="210">
+      <c r="H118" s="246"/>
+      <c r="I118" s="246">
         <f t="shared" si="25"/>
         <v>2.6055237102657633</v>
       </c>
-      <c r="J118" s="209"/>
+      <c r="J118" s="245"/>
       <c r="K118" s="36">
         <f t="shared" si="26"/>
         <v>3234.0076112874444</v>
@@ -8873,21 +8892,21 @@
       <c r="D119" s="35">
         <v>11</v>
       </c>
-      <c r="E119" s="208">
+      <c r="E119" s="244">
         <f t="shared" si="23"/>
         <v>10.891089108910892</v>
       </c>
-      <c r="F119" s="209"/>
-      <c r="G119" s="208">
+      <c r="F119" s="245"/>
+      <c r="G119" s="244">
         <f t="shared" si="24"/>
         <v>5.4455445544554459</v>
       </c>
-      <c r="H119" s="210"/>
-      <c r="I119" s="210">
+      <c r="H119" s="246"/>
+      <c r="I119" s="246">
         <f t="shared" si="25"/>
         <v>2.86607608129234</v>
       </c>
-      <c r="J119" s="209"/>
+      <c r="J119" s="245"/>
       <c r="K119" s="36">
         <f t="shared" si="26"/>
         <v>3557.4083724161896</v>
@@ -8897,21 +8916,21 @@
       <c r="D120" s="35">
         <v>12</v>
       </c>
-      <c r="E120" s="211">
+      <c r="E120" s="241">
         <f t="shared" si="23"/>
         <v>11.881188118811881</v>
       </c>
-      <c r="F120" s="212"/>
-      <c r="G120" s="211">
+      <c r="F120" s="242"/>
+      <c r="G120" s="241">
         <f t="shared" si="24"/>
         <v>5.9405940594059405</v>
       </c>
-      <c r="H120" s="213"/>
-      <c r="I120" s="213">
+      <c r="H120" s="243"/>
+      <c r="I120" s="243">
         <f t="shared" si="25"/>
         <v>3.1266284523189163</v>
       </c>
-      <c r="J120" s="212"/>
+      <c r="J120" s="242"/>
       <c r="K120" s="37">
         <f t="shared" si="26"/>
         <v>3880.809133544934</v>
@@ -8924,39 +8943,39 @@
     </row>
     <row r="123" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="124" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D124" s="263" t="s">
+      <c r="D124" s="247" t="s">
         <v>16</v>
       </c>
-      <c r="E124" s="266" t="s">
+      <c r="E124" s="250" t="s">
         <v>215</v>
       </c>
-      <c r="F124" s="267"/>
-      <c r="G124" s="268" t="s">
+      <c r="F124" s="251"/>
+      <c r="G124" s="252" t="s">
         <v>12</v>
       </c>
-      <c r="H124" s="269"/>
-      <c r="I124" s="269"/>
-      <c r="J124" s="270"/>
+      <c r="H124" s="253"/>
+      <c r="I124" s="253"/>
+      <c r="J124" s="254"/>
       <c r="K124" s="25"/>
     </row>
     <row r="125" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D125" s="264"/>
-      <c r="E125" s="284" t="s">
+      <c r="D125" s="248"/>
+      <c r="E125" s="255" t="s">
         <v>23</v>
       </c>
-      <c r="F125" s="285"/>
-      <c r="G125" s="284" t="s">
+      <c r="F125" s="256"/>
+      <c r="G125" s="255" t="s">
         <v>18</v>
       </c>
-      <c r="H125" s="286"/>
-      <c r="I125" s="286" t="s">
+      <c r="H125" s="257"/>
+      <c r="I125" s="257" t="s">
         <v>19</v>
       </c>
-      <c r="J125" s="285"/>
+      <c r="J125" s="256"/>
       <c r="K125" s="26"/>
     </row>
     <row r="126" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D126" s="264"/>
+      <c r="D126" s="248"/>
       <c r="E126" s="113" t="s">
         <v>24</v>
       </c>
@@ -8980,7 +8999,7 @@
       </c>
     </row>
     <row r="127" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D127" s="265"/>
+      <c r="D127" s="249"/>
       <c r="E127" s="4" t="s">
         <v>27</v>
       </c>
@@ -9007,21 +9026,21 @@
       <c r="D128" s="31">
         <v>0</v>
       </c>
-      <c r="E128" s="214">
+      <c r="E128" s="235">
         <f>D128*F$107/(F$106+F$107)</f>
         <v>0</v>
       </c>
-      <c r="F128" s="215"/>
-      <c r="G128" s="214">
+      <c r="F128" s="236"/>
+      <c r="G128" s="235">
         <f>E128*H$107/(H$106+H$107)</f>
         <v>0</v>
       </c>
-      <c r="H128" s="216"/>
-      <c r="I128" s="216">
+      <c r="H128" s="237"/>
+      <c r="I128" s="237">
         <f>G128*J$107/(J$106+J$107)</f>
         <v>0</v>
       </c>
-      <c r="J128" s="215"/>
+      <c r="J128" s="236"/>
       <c r="K128" s="32">
         <f>I128*4096/3.3</f>
         <v>0</v>
@@ -9031,21 +9050,21 @@
       <c r="D129" s="33">
         <v>1</v>
       </c>
-      <c r="E129" s="214">
+      <c r="E129" s="235">
         <f t="shared" ref="E129:E140" si="27">D129*F$107/(F$106+F$107)</f>
         <v>0.99009900990099009</v>
       </c>
-      <c r="F129" s="215"/>
-      <c r="G129" s="214">
+      <c r="F129" s="236"/>
+      <c r="G129" s="235">
         <f t="shared" ref="G129:G140" si="28">E129*H$107/(H$106+H$107)</f>
         <v>0.49504950495049499</v>
       </c>
-      <c r="H129" s="216"/>
-      <c r="I129" s="216">
+      <c r="H129" s="237"/>
+      <c r="I129" s="237">
         <f t="shared" ref="I129:I140" si="29">G129*J$107/(J$106+J$107)</f>
         <v>0.2605523710265763</v>
       </c>
-      <c r="J129" s="215"/>
+      <c r="J129" s="236"/>
       <c r="K129" s="19">
         <f>I129*4096/3.3</f>
         <v>323.40076112874442</v>
@@ -9055,21 +9074,21 @@
       <c r="D130" s="33">
         <v>2</v>
       </c>
-      <c r="E130" s="214">
+      <c r="E130" s="235">
         <f t="shared" si="27"/>
         <v>1.9801980198019802</v>
       </c>
-      <c r="F130" s="215"/>
-      <c r="G130" s="214">
+      <c r="F130" s="236"/>
+      <c r="G130" s="235">
         <f t="shared" si="28"/>
         <v>0.99009900990098998</v>
       </c>
-      <c r="H130" s="216"/>
-      <c r="I130" s="216">
+      <c r="H130" s="237"/>
+      <c r="I130" s="237">
         <f t="shared" si="29"/>
         <v>0.5211047420531526</v>
       </c>
-      <c r="J130" s="215"/>
+      <c r="J130" s="236"/>
       <c r="K130" s="19">
         <f>I130*4096/3.3</f>
         <v>646.80152225748884</v>
@@ -9079,21 +9098,21 @@
       <c r="D131" s="33">
         <v>3</v>
       </c>
-      <c r="E131" s="214">
+      <c r="E131" s="235">
         <f t="shared" si="27"/>
         <v>2.9702970297029703</v>
       </c>
-      <c r="F131" s="215"/>
-      <c r="G131" s="214">
+      <c r="F131" s="236"/>
+      <c r="G131" s="235">
         <f t="shared" si="28"/>
         <v>1.4851485148514851</v>
       </c>
-      <c r="H131" s="216"/>
-      <c r="I131" s="216">
+      <c r="H131" s="237"/>
+      <c r="I131" s="237">
         <f t="shared" si="29"/>
         <v>0.78165711307972907</v>
       </c>
-      <c r="J131" s="215"/>
+      <c r="J131" s="236"/>
       <c r="K131" s="19">
         <f t="shared" ref="K131:K140" si="30">I131*4096/3.3</f>
         <v>970.20228338623349</v>
@@ -9103,21 +9122,21 @@
       <c r="D132" s="33">
         <v>4</v>
       </c>
-      <c r="E132" s="214">
+      <c r="E132" s="235">
         <f t="shared" si="27"/>
         <v>3.9603960396039604</v>
       </c>
-      <c r="F132" s="215"/>
-      <c r="G132" s="214">
+      <c r="F132" s="236"/>
+      <c r="G132" s="235">
         <f t="shared" si="28"/>
         <v>1.98019801980198</v>
       </c>
-      <c r="H132" s="216"/>
-      <c r="I132" s="216">
+      <c r="H132" s="237"/>
+      <c r="I132" s="237">
         <f t="shared" si="29"/>
         <v>1.0422094841063052</v>
       </c>
-      <c r="J132" s="215"/>
+      <c r="J132" s="236"/>
       <c r="K132" s="19">
         <f t="shared" si="30"/>
         <v>1293.6030445149777</v>
@@ -9127,21 +9146,21 @@
       <c r="D133" s="33">
         <v>5</v>
       </c>
-      <c r="E133" s="214">
+      <c r="E133" s="235">
         <f t="shared" si="27"/>
         <v>4.9504950495049505</v>
       </c>
-      <c r="F133" s="215"/>
-      <c r="G133" s="214">
+      <c r="F133" s="236"/>
+      <c r="G133" s="235">
         <f t="shared" si="28"/>
         <v>2.4752475247524752</v>
       </c>
-      <c r="H133" s="216"/>
-      <c r="I133" s="216">
+      <c r="H133" s="237"/>
+      <c r="I133" s="237">
         <f t="shared" si="29"/>
         <v>1.3027618551328817</v>
       </c>
-      <c r="J133" s="215"/>
+      <c r="J133" s="236"/>
       <c r="K133" s="19">
         <f t="shared" si="30"/>
         <v>1617.0038056437222</v>
@@ -9151,21 +9170,21 @@
       <c r="D134" s="33">
         <v>6</v>
       </c>
-      <c r="E134" s="214">
+      <c r="E134" s="235">
         <f t="shared" si="27"/>
         <v>5.9405940594059405</v>
       </c>
-      <c r="F134" s="215"/>
-      <c r="G134" s="214">
+      <c r="F134" s="236"/>
+      <c r="G134" s="235">
         <f t="shared" si="28"/>
         <v>2.9702970297029703</v>
       </c>
-      <c r="H134" s="216"/>
-      <c r="I134" s="216">
+      <c r="H134" s="237"/>
+      <c r="I134" s="237">
         <f t="shared" si="29"/>
         <v>1.5633142261594581</v>
       </c>
-      <c r="J134" s="215"/>
+      <c r="J134" s="236"/>
       <c r="K134" s="19">
         <f t="shared" si="30"/>
         <v>1940.404566772467</v>
@@ -9175,21 +9194,21 @@
       <c r="D135" s="35">
         <v>7</v>
       </c>
-      <c r="E135" s="208">
+      <c r="E135" s="244">
         <f t="shared" si="27"/>
         <v>6.9306930693069306</v>
       </c>
-      <c r="F135" s="209"/>
-      <c r="G135" s="208">
+      <c r="F135" s="245"/>
+      <c r="G135" s="244">
         <f t="shared" si="28"/>
         <v>3.4653465346534649</v>
       </c>
-      <c r="H135" s="210"/>
-      <c r="I135" s="210">
+      <c r="H135" s="246"/>
+      <c r="I135" s="246">
         <f t="shared" si="29"/>
         <v>1.8238665971860342</v>
       </c>
-      <c r="J135" s="209"/>
+      <c r="J135" s="245"/>
       <c r="K135" s="36">
         <f t="shared" si="30"/>
         <v>2263.8053279012111</v>
@@ -9199,21 +9218,21 @@
       <c r="D136" s="35">
         <v>8</v>
       </c>
-      <c r="E136" s="208">
+      <c r="E136" s="244">
         <f t="shared" si="27"/>
         <v>7.9207920792079207</v>
       </c>
-      <c r="F136" s="209"/>
-      <c r="G136" s="208">
+      <c r="F136" s="245"/>
+      <c r="G136" s="244">
         <f t="shared" si="28"/>
         <v>3.9603960396039599</v>
       </c>
-      <c r="H136" s="210"/>
-      <c r="I136" s="210">
+      <c r="H136" s="246"/>
+      <c r="I136" s="246">
         <f t="shared" si="29"/>
         <v>2.0844189682126104</v>
       </c>
-      <c r="J136" s="209"/>
+      <c r="J136" s="245"/>
       <c r="K136" s="36">
         <f t="shared" si="30"/>
         <v>2587.2060890299554</v>
@@ -9223,21 +9242,21 @@
       <c r="D137" s="35">
         <v>9</v>
       </c>
-      <c r="E137" s="208">
+      <c r="E137" s="244">
         <f t="shared" si="27"/>
         <v>8.9108910891089117</v>
       </c>
-      <c r="F137" s="209"/>
-      <c r="G137" s="208">
+      <c r="F137" s="245"/>
+      <c r="G137" s="244">
         <f t="shared" si="28"/>
         <v>4.4554455445544559</v>
       </c>
-      <c r="H137" s="210"/>
-      <c r="I137" s="210">
+      <c r="H137" s="246"/>
+      <c r="I137" s="246">
         <f t="shared" si="29"/>
         <v>2.3449713392391871</v>
       </c>
-      <c r="J137" s="209"/>
+      <c r="J137" s="245"/>
       <c r="K137" s="36">
         <f t="shared" si="30"/>
         <v>2910.6068501587001</v>
@@ -9247,21 +9266,21 @@
       <c r="D138" s="35">
         <v>10</v>
       </c>
-      <c r="E138" s="208">
+      <c r="E138" s="244">
         <f t="shared" si="27"/>
         <v>9.9009900990099009</v>
       </c>
-      <c r="F138" s="209"/>
-      <c r="G138" s="208">
+      <c r="F138" s="245"/>
+      <c r="G138" s="244">
         <f t="shared" si="28"/>
         <v>4.9504950495049505</v>
       </c>
-      <c r="H138" s="210"/>
-      <c r="I138" s="210">
+      <c r="H138" s="246"/>
+      <c r="I138" s="246">
         <f t="shared" si="29"/>
         <v>2.6055237102657633</v>
       </c>
-      <c r="J138" s="209"/>
+      <c r="J138" s="245"/>
       <c r="K138" s="36">
         <f t="shared" si="30"/>
         <v>3234.0076112874444</v>
@@ -9271,21 +9290,21 @@
       <c r="D139" s="35">
         <v>11</v>
       </c>
-      <c r="E139" s="208">
+      <c r="E139" s="244">
         <f t="shared" si="27"/>
         <v>10.891089108910892</v>
       </c>
-      <c r="F139" s="209"/>
-      <c r="G139" s="208">
+      <c r="F139" s="245"/>
+      <c r="G139" s="244">
         <f t="shared" si="28"/>
         <v>5.4455445544554459</v>
       </c>
-      <c r="H139" s="210"/>
-      <c r="I139" s="210">
+      <c r="H139" s="246"/>
+      <c r="I139" s="246">
         <f t="shared" si="29"/>
         <v>2.86607608129234</v>
       </c>
-      <c r="J139" s="209"/>
+      <c r="J139" s="245"/>
       <c r="K139" s="36">
         <f t="shared" si="30"/>
         <v>3557.4083724161896</v>
@@ -9295,21 +9314,21 @@
       <c r="D140" s="35">
         <v>12</v>
       </c>
-      <c r="E140" s="211">
+      <c r="E140" s="241">
         <f t="shared" si="27"/>
         <v>11.881188118811881</v>
       </c>
-      <c r="F140" s="212"/>
-      <c r="G140" s="211">
+      <c r="F140" s="242"/>
+      <c r="G140" s="241">
         <f t="shared" si="28"/>
         <v>5.9405940594059405</v>
       </c>
-      <c r="H140" s="213"/>
-      <c r="I140" s="213">
+      <c r="H140" s="243"/>
+      <c r="I140" s="243">
         <f t="shared" si="29"/>
         <v>3.1266284523189163</v>
       </c>
-      <c r="J140" s="212"/>
+      <c r="J140" s="242"/>
       <c r="K140" s="37">
         <f t="shared" si="30"/>
         <v>3880.809133544934</v>
@@ -9317,6 +9336,256 @@
     </row>
   </sheetData>
   <mergeCells count="274">
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="I139:J139"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="I140:J140"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="I136:J136"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="I137:J137"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="I138:J138"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="I135:J135"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="D104:D107"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="G104:J104"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="E84:J84"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="I112:J112"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="I111:J111"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="I95:J95"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="K100:L100"/>
     <mergeCell ref="M100:N100"/>
@@ -9341,256 +9610,6 @@
     <mergeCell ref="M92:N92"/>
     <mergeCell ref="K87:L87"/>
     <mergeCell ref="M87:N87"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="I128:J128"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="I114:J114"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="I111:J111"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="I112:J112"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="D104:D107"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="G104:J104"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="E84:J84"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="I130:J130"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="I132:J132"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="I133:J133"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="I134:J134"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="I135:J135"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="I139:J139"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="I140:J140"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="I136:J136"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="I137:J137"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="I138:J138"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9694,18 +9713,18 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="292" t="s">
+      <c r="F11" s="314" t="s">
         <v>214</v>
       </c>
-      <c r="G11" s="293"/>
-      <c r="H11" s="293"/>
-      <c r="I11" s="294"/>
-      <c r="J11" s="217" t="s">
+      <c r="G11" s="315"/>
+      <c r="H11" s="315"/>
+      <c r="I11" s="316"/>
+      <c r="J11" s="238" t="s">
         <v>94</v>
       </c>
-      <c r="K11" s="219"/>
-      <c r="L11" s="219"/>
-      <c r="M11" s="220"/>
+      <c r="K11" s="239"/>
+      <c r="L11" s="239"/>
+      <c r="M11" s="240"/>
       <c r="N11" s="82" t="s">
         <v>36</v>
       </c>
@@ -9814,22 +9833,22 @@
       <c r="E15" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="217" t="s">
+      <c r="F15" s="238" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="218"/>
-      <c r="H15" s="293" t="s">
+      <c r="G15" s="259"/>
+      <c r="H15" s="315" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="294"/>
-      <c r="J15" s="217" t="s">
+      <c r="I15" s="316"/>
+      <c r="J15" s="238" t="s">
         <v>102</v>
       </c>
-      <c r="K15" s="220"/>
-      <c r="L15" s="249" t="s">
+      <c r="K15" s="240"/>
+      <c r="L15" s="278" t="s">
         <v>103</v>
       </c>
-      <c r="M15" s="219"/>
+      <c r="M15" s="239"/>
       <c r="N15" s="161" t="s">
         <v>222</v>
       </c>
@@ -9844,26 +9863,26 @@
         <f t="shared" ref="E16:E43" si="0">10*EXP(E$5*(1/(D16+273)-1/(25+273)))</f>
         <v>28.736182350842125</v>
       </c>
-      <c r="F16" s="214">
+      <c r="F16" s="235">
         <f>G$12*G$14/(G$13+$E16+G$14)</f>
         <v>0.7331337461034948</v>
       </c>
-      <c r="G16" s="239"/>
-      <c r="H16" s="214">
+      <c r="G16" s="282"/>
+      <c r="H16" s="235">
         <f>F16*I$14/(I$13/2+I$14)</f>
         <v>0.72948631453084067</v>
       </c>
-      <c r="I16" s="239"/>
-      <c r="J16" s="214">
+      <c r="I16" s="282"/>
+      <c r="J16" s="235">
         <f>H16*K$14/(K$13+K$14)</f>
         <v>0.66316937684621879</v>
       </c>
-      <c r="K16" s="215"/>
-      <c r="L16" s="295">
+      <c r="K16" s="236"/>
+      <c r="L16" s="313">
         <f>J16*M$14/(M$13+M$14)</f>
         <v>0.3490365141295888</v>
       </c>
-      <c r="M16" s="216"/>
+      <c r="M16" s="237"/>
       <c r="N16" s="32">
         <f>L16*4096/3.3</f>
         <v>433.22835208327149</v>
@@ -9879,26 +9898,26 @@
         <f t="shared" si="0"/>
         <v>22.916440146739884</v>
       </c>
-      <c r="F17" s="224">
+      <c r="F17" s="216">
         <f t="shared" ref="F17:F43" si="1">G$12*G$14/(G$13+$E17+G$14)</f>
         <v>0.89164837062998015</v>
       </c>
-      <c r="G17" s="238"/>
-      <c r="H17" s="214">
+      <c r="G17" s="217"/>
+      <c r="H17" s="235">
         <f t="shared" ref="H17:H43" si="2">F17*I$14/(I$13/2+I$14)</f>
         <v>0.88721230908455739</v>
       </c>
-      <c r="I17" s="239"/>
-      <c r="J17" s="214">
+      <c r="I17" s="282"/>
+      <c r="J17" s="235">
         <f t="shared" ref="J17:J43" si="3">H17*K$14/(K$13+K$14)</f>
         <v>0.80655664462232479</v>
       </c>
-      <c r="K17" s="215"/>
-      <c r="L17" s="242">
+      <c r="K17" s="236"/>
+      <c r="L17" s="234">
         <f t="shared" ref="L17:L43" si="4">J17*M$14/(M$13+M$14)</f>
         <v>0.42450349716964458</v>
       </c>
-      <c r="M17" s="243"/>
+      <c r="M17" s="274"/>
       <c r="N17" s="32">
         <f t="shared" ref="N17:N43" si="5">L17*4096/3.3</f>
         <v>526.8988861838983</v>
@@ -9914,26 +9933,26 @@
         <f t="shared" si="0"/>
         <v>18.422056005235852</v>
       </c>
-      <c r="F18" s="224">
+      <c r="F18" s="216">
         <f t="shared" si="1"/>
         <v>1.0703746344401102</v>
       </c>
-      <c r="G18" s="238"/>
-      <c r="H18" s="214">
+      <c r="G18" s="217"/>
+      <c r="H18" s="235">
         <f t="shared" si="2"/>
         <v>1.0650493875025973</v>
       </c>
-      <c r="I18" s="239"/>
-      <c r="J18" s="214">
+      <c r="I18" s="282"/>
+      <c r="J18" s="235">
         <f t="shared" si="3"/>
         <v>0.96822671591145204</v>
       </c>
-      <c r="K18" s="215"/>
-      <c r="L18" s="242">
+      <c r="K18" s="236"/>
+      <c r="L18" s="234">
         <f t="shared" si="4"/>
         <v>0.50959300837444843</v>
       </c>
-      <c r="M18" s="243"/>
+      <c r="M18" s="274"/>
       <c r="N18" s="32">
         <f t="shared" si="5"/>
         <v>632.51301887931538</v>
@@ -9949,26 +9968,26 @@
         <f t="shared" si="0"/>
         <v>14.921793401776517</v>
       </c>
-      <c r="F19" s="224">
+      <c r="F19" s="216">
         <f t="shared" si="1"/>
         <v>1.2683787149767052</v>
       </c>
-      <c r="G19" s="238"/>
-      <c r="H19" s="214">
+      <c r="G19" s="217"/>
+      <c r="H19" s="235">
         <f t="shared" si="2"/>
         <v>1.2620683731111495</v>
       </c>
-      <c r="I19" s="239"/>
-      <c r="J19" s="214">
+      <c r="I19" s="282"/>
+      <c r="J19" s="235">
         <f t="shared" si="3"/>
         <v>1.1473348846464995</v>
       </c>
-      <c r="K19" s="215"/>
-      <c r="L19" s="242">
+      <c r="K19" s="236"/>
+      <c r="L19" s="234">
         <f t="shared" si="4"/>
         <v>0.60386046560342077</v>
       </c>
-      <c r="M19" s="243"/>
+      <c r="M19" s="274"/>
       <c r="N19" s="32">
         <f t="shared" si="5"/>
         <v>749.51892942776112</v>
@@ -9984,26 +10003,26 @@
         <f t="shared" si="0"/>
         <v>12.173834597770357</v>
       </c>
-      <c r="F20" s="224">
+      <c r="F20" s="216">
         <f t="shared" si="1"/>
         <v>1.4838781647555934</v>
       </c>
-      <c r="G20" s="238"/>
-      <c r="H20" s="214">
+      <c r="G20" s="217"/>
+      <c r="H20" s="235">
         <f t="shared" si="2"/>
         <v>1.4764956863239738</v>
       </c>
-      <c r="I20" s="239"/>
-      <c r="J20" s="214">
+      <c r="I20" s="282"/>
+      <c r="J20" s="235">
         <f t="shared" si="3"/>
         <v>1.342268805749067</v>
       </c>
-      <c r="K20" s="215"/>
-      <c r="L20" s="242">
+      <c r="K20" s="236"/>
+      <c r="L20" s="234">
         <f t="shared" si="4"/>
         <v>0.7064572661837194</v>
       </c>
-      <c r="M20" s="243"/>
+      <c r="M20" s="274"/>
       <c r="N20" s="32">
         <f t="shared" si="5"/>
         <v>876.86332190561052</v>
@@ -10019,26 +10038,26 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F21" s="228">
+      <c r="F21" s="283">
         <f t="shared" si="1"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="G21" s="296"/>
-      <c r="H21" s="297">
+      <c r="G21" s="307"/>
+      <c r="H21" s="308">
         <f t="shared" si="2"/>
         <v>1.7057569296375266</v>
       </c>
-      <c r="I21" s="298"/>
-      <c r="J21" s="297">
+      <c r="I21" s="309"/>
+      <c r="J21" s="308">
         <f t="shared" si="3"/>
         <v>1.5506881178522969</v>
       </c>
-      <c r="K21" s="299"/>
-      <c r="L21" s="300">
+      <c r="K21" s="310"/>
+      <c r="L21" s="311">
         <f t="shared" si="4"/>
         <v>0.81615164097489312</v>
       </c>
-      <c r="M21" s="301"/>
+      <c r="M21" s="312"/>
       <c r="N21" s="88">
         <f t="shared" si="5"/>
         <v>1013.0173095252007</v>
@@ -10054,26 +10073,26 @@
         <f t="shared" si="0"/>
         <v>8.2678385850558751</v>
       </c>
-      <c r="F22" s="224">
+      <c r="F22" s="216">
         <f t="shared" si="1"/>
         <v>1.9563348371110549</v>
       </c>
-      <c r="G22" s="238"/>
-      <c r="H22" s="214">
+      <c r="G22" s="217"/>
+      <c r="H22" s="235">
         <f t="shared" si="2"/>
         <v>1.9466018279711987</v>
       </c>
-      <c r="I22" s="239"/>
-      <c r="J22" s="214">
+      <c r="I22" s="282"/>
+      <c r="J22" s="235">
         <f t="shared" si="3"/>
         <v>1.7696380254283626</v>
       </c>
-      <c r="K22" s="215"/>
-      <c r="L22" s="242">
+      <c r="K22" s="236"/>
+      <c r="L22" s="234">
         <f t="shared" si="4"/>
         <v>0.93138843443598029</v>
       </c>
-      <c r="M22" s="243"/>
+      <c r="M22" s="274"/>
       <c r="N22" s="32">
         <f t="shared" si="5"/>
         <v>1156.05061437872</v>
@@ -10089,26 +10108,26 @@
         <f t="shared" si="0"/>
         <v>6.8780615308459092</v>
       </c>
-      <c r="F23" s="224">
+      <c r="F23" s="216">
         <f t="shared" si="1"/>
         <v>2.2062754408904039</v>
       </c>
-      <c r="G23" s="238"/>
-      <c r="H23" s="214">
+      <c r="G23" s="217"/>
+      <c r="H23" s="235">
         <f t="shared" si="2"/>
         <v>2.195298946159606</v>
       </c>
-      <c r="I23" s="239"/>
-      <c r="J23" s="214">
+      <c r="I23" s="282"/>
+      <c r="J23" s="235">
         <f t="shared" si="3"/>
         <v>1.9957263146905511</v>
       </c>
-      <c r="K23" s="215"/>
-      <c r="L23" s="242">
+      <c r="K23" s="236"/>
+      <c r="L23" s="234">
         <f t="shared" si="4"/>
         <v>1.0503822708897637</v>
       </c>
-      <c r="M23" s="243"/>
+      <c r="M23" s="274"/>
       <c r="N23" s="32">
         <f t="shared" si="5"/>
         <v>1303.7472065346885</v>
@@ -10124,26 +10143,26 @@
         <f t="shared" si="0"/>
         <v>5.7556406120696577</v>
       </c>
-      <c r="F24" s="224">
+      <c r="F24" s="216">
         <f t="shared" si="1"/>
         <v>2.4601152250634621</v>
       </c>
-      <c r="G24" s="238"/>
-      <c r="H24" s="214">
+      <c r="G24" s="217"/>
+      <c r="H24" s="235">
         <f t="shared" si="2"/>
         <v>2.4478758458342909</v>
       </c>
-      <c r="I24" s="239"/>
-      <c r="J24" s="214">
+      <c r="I24" s="282"/>
+      <c r="J24" s="235">
         <f t="shared" si="3"/>
         <v>2.2253416780311737</v>
       </c>
-      <c r="K24" s="215"/>
-      <c r="L24" s="242">
+      <c r="K24" s="236"/>
+      <c r="L24" s="234">
         <f t="shared" si="4"/>
         <v>1.1712324621216703</v>
       </c>
-      <c r="M24" s="243"/>
+      <c r="M24" s="274"/>
       <c r="N24" s="32">
         <f t="shared" si="5"/>
         <v>1453.747928742534</v>
@@ -10159,26 +10178,26 @@
         <f t="shared" si="0"/>
         <v>4.8434450167968297</v>
       </c>
-      <c r="F25" s="224">
+      <c r="F25" s="216">
         <f t="shared" si="1"/>
         <v>2.7138745086802158</v>
       </c>
-      <c r="G25" s="238"/>
-      <c r="H25" s="214">
+      <c r="G25" s="217"/>
+      <c r="H25" s="235">
         <f t="shared" si="2"/>
         <v>2.7003726454529509</v>
       </c>
-      <c r="I25" s="239"/>
-      <c r="J25" s="214">
+      <c r="I25" s="282"/>
+      <c r="J25" s="235">
         <f t="shared" si="3"/>
         <v>2.4548842231390462</v>
       </c>
-      <c r="K25" s="215"/>
-      <c r="L25" s="242">
+      <c r="K25" s="236"/>
+      <c r="L25" s="234">
         <f t="shared" si="4"/>
         <v>1.292044327967919</v>
       </c>
-      <c r="M25" s="243"/>
+      <c r="M25" s="274"/>
       <c r="N25" s="32">
         <f t="shared" si="5"/>
         <v>1603.7010810171505</v>
@@ -10194,26 +10213,26 @@
         <f t="shared" si="0"/>
         <v>4.0976530296287903</v>
       </c>
-      <c r="F26" s="224">
+      <c r="F26" s="216">
         <f t="shared" si="1"/>
         <v>2.9638217286151365</v>
       </c>
-      <c r="G26" s="238"/>
-      <c r="H26" s="214">
+      <c r="G26" s="217"/>
+      <c r="H26" s="235">
         <f t="shared" si="2"/>
         <v>2.9490763468807328</v>
       </c>
-      <c r="I26" s="239"/>
-      <c r="J26" s="214">
+      <c r="I26" s="282"/>
+      <c r="J26" s="235">
         <f t="shared" si="3"/>
         <v>2.6809784971643027</v>
       </c>
-      <c r="K26" s="215"/>
-      <c r="L26" s="242">
+      <c r="K26" s="236"/>
+      <c r="L26" s="234">
         <f t="shared" si="4"/>
         <v>1.4110413142970015</v>
       </c>
-      <c r="M26" s="243"/>
+      <c r="M26" s="274"/>
       <c r="N26" s="32">
         <f t="shared" si="5"/>
         <v>1751.4015828365207</v>
@@ -10229,26 +10248,26 @@
         <f t="shared" si="0"/>
         <v>3.4844159169752453</v>
       </c>
-      <c r="F27" s="224">
+      <c r="F27" s="216">
         <f t="shared" si="1"/>
         <v>3.2066630537683118</v>
       </c>
-      <c r="G27" s="238"/>
-      <c r="H27" s="214">
+      <c r="G27" s="217"/>
+      <c r="H27" s="235">
         <f t="shared" si="2"/>
         <v>3.190709506237126</v>
       </c>
-      <c r="I27" s="239"/>
-      <c r="J27" s="214">
+      <c r="I27" s="282"/>
+      <c r="J27" s="235">
         <f t="shared" si="3"/>
         <v>2.9006450056701145</v>
       </c>
-      <c r="K27" s="215"/>
-      <c r="L27" s="242">
+      <c r="K27" s="236"/>
+      <c r="L27" s="234">
         <f t="shared" si="4"/>
         <v>1.5266552661421655</v>
       </c>
-      <c r="M27" s="243"/>
+      <c r="M27" s="274"/>
       <c r="N27" s="32">
         <f t="shared" si="5"/>
         <v>1894.9030212479729</v>
@@ -10264,26 +10283,26 @@
         <f t="shared" si="0"/>
         <v>2.9774129048675317</v>
       </c>
-      <c r="F28" s="224">
+      <c r="F28" s="216">
         <f t="shared" si="1"/>
         <v>3.4396703086407996</v>
       </c>
-      <c r="G28" s="238"/>
-      <c r="H28" s="214">
+      <c r="G28" s="217"/>
+      <c r="H28" s="235">
         <f t="shared" si="2"/>
         <v>3.4225575210356212</v>
       </c>
-      <c r="I28" s="239"/>
-      <c r="J28" s="214">
+      <c r="I28" s="282"/>
+      <c r="J28" s="235">
         <f t="shared" si="3"/>
         <v>3.1114159282142011</v>
       </c>
-      <c r="K28" s="215"/>
-      <c r="L28" s="242">
+      <c r="K28" s="236"/>
+      <c r="L28" s="234">
         <f t="shared" si="4"/>
         <v>1.6375873306390532</v>
       </c>
-      <c r="M28" s="243"/>
+      <c r="M28" s="274"/>
       <c r="N28" s="32">
         <f t="shared" si="5"/>
         <v>2032.5932443325946</v>
@@ -10299,26 +10318,26 @@
         <f t="shared" si="0"/>
         <v>2.5560455288640753</v>
       </c>
-      <c r="F29" s="302">
+      <c r="F29" s="300">
         <f t="shared" si="1"/>
         <v>3.6607433390045916</v>
       </c>
-      <c r="G29" s="303"/>
-      <c r="H29" s="304">
+      <c r="G29" s="301"/>
+      <c r="H29" s="302">
         <f t="shared" si="2"/>
         <v>3.6425306855767081</v>
       </c>
-      <c r="I29" s="305"/>
-      <c r="J29" s="304">
+      <c r="I29" s="303"/>
+      <c r="J29" s="302">
         <f t="shared" si="3"/>
         <v>3.3113915323424621</v>
       </c>
-      <c r="K29" s="306"/>
-      <c r="L29" s="307">
+      <c r="K29" s="304"/>
+      <c r="L29" s="305">
         <f t="shared" si="4"/>
         <v>1.7428376486012958</v>
       </c>
-      <c r="M29" s="308"/>
+      <c r="M29" s="306"/>
       <c r="N29" s="167">
         <f t="shared" si="5"/>
         <v>2163.2312147487601</v>
@@ -10334,26 +10353,26 @@
         <f t="shared" si="0"/>
         <v>2.2040943852236698</v>
       </c>
-      <c r="F30" s="302">
+      <c r="F30" s="300">
         <f t="shared" si="1"/>
         <v>3.8684131010580609</v>
       </c>
-      <c r="G30" s="303"/>
-      <c r="H30" s="304">
+      <c r="G30" s="301"/>
+      <c r="H30" s="302">
         <f t="shared" si="2"/>
         <v>3.8491672647343891</v>
       </c>
-      <c r="I30" s="305"/>
-      <c r="J30" s="304">
+      <c r="I30" s="303"/>
+      <c r="J30" s="302">
         <f t="shared" si="3"/>
         <v>3.4992429679403538</v>
       </c>
-      <c r="K30" s="306"/>
-      <c r="L30" s="307">
+      <c r="K30" s="304"/>
+      <c r="L30" s="305">
         <f t="shared" si="4"/>
         <v>1.841706825231765</v>
       </c>
-      <c r="M30" s="308"/>
+      <c r="M30" s="306"/>
       <c r="N30" s="167">
         <f t="shared" si="5"/>
         <v>2285.9488351967607</v>
@@ -10369,26 +10388,26 @@
         <f t="shared" si="0"/>
         <v>1.9087128427862368</v>
       </c>
-      <c r="F31" s="302">
+      <c r="F31" s="300">
         <f t="shared" si="1"/>
         <v>4.0617983372302229</v>
       </c>
-      <c r="G31" s="303"/>
-      <c r="H31" s="304">
+      <c r="G31" s="301"/>
+      <c r="H31" s="302">
         <f t="shared" si="2"/>
         <v>4.0415903853037038</v>
       </c>
-      <c r="I31" s="305"/>
-      <c r="J31" s="304">
+      <c r="I31" s="303"/>
+      <c r="J31" s="302">
         <f t="shared" si="3"/>
         <v>3.6741730775488217</v>
       </c>
-      <c r="K31" s="306"/>
-      <c r="L31" s="307">
+      <c r="K31" s="304"/>
+      <c r="L31" s="305">
         <f t="shared" si="4"/>
         <v>1.9337753039730639</v>
       </c>
-      <c r="M31" s="308"/>
+      <c r="M31" s="306"/>
       <c r="N31" s="167">
         <f t="shared" si="5"/>
         <v>2400.2253469920211</v>
@@ -10404,26 +10423,26 @@
         <f t="shared" si="0"/>
         <v>1.659668099602003</v>
       </c>
-      <c r="F32" s="224">
+      <c r="F32" s="216">
         <f t="shared" si="1"/>
         <v>4.2405313487707375</v>
       </c>
-      <c r="G32" s="238"/>
-      <c r="H32" s="214">
+      <c r="G32" s="217"/>
+      <c r="H32" s="235">
         <f t="shared" si="2"/>
         <v>4.2194341778813307</v>
       </c>
-      <c r="I32" s="239"/>
-      <c r="J32" s="214">
+      <c r="I32" s="282"/>
+      <c r="J32" s="235">
         <f t="shared" si="3"/>
         <v>3.8358492526193917</v>
       </c>
-      <c r="K32" s="215"/>
-      <c r="L32" s="242">
+      <c r="K32" s="236"/>
+      <c r="L32" s="234">
         <f t="shared" si="4"/>
         <v>2.0188680276944164</v>
       </c>
-      <c r="M32" s="243"/>
+      <c r="M32" s="274"/>
       <c r="N32" s="32">
         <f t="shared" si="5"/>
         <v>2505.8434671019181</v>
@@ -10439,26 +10458,26 @@
         <f t="shared" si="0"/>
         <v>1.4487650768972604</v>
       </c>
-      <c r="F33" s="309">
+      <c r="F33" s="293">
         <f t="shared" si="1"/>
         <v>4.4046677845884554</v>
       </c>
-      <c r="G33" s="310"/>
-      <c r="H33" s="311">
+      <c r="G33" s="294"/>
+      <c r="H33" s="295">
         <f t="shared" si="2"/>
         <v>4.3827540145158759</v>
       </c>
-      <c r="I33" s="312"/>
-      <c r="J33" s="311">
+      <c r="I33" s="296"/>
+      <c r="J33" s="295">
         <f t="shared" si="3"/>
         <v>3.9843218313780686</v>
       </c>
-      <c r="K33" s="313"/>
-      <c r="L33" s="314">
+      <c r="K33" s="297"/>
+      <c r="L33" s="298">
         <f t="shared" si="4"/>
         <v>2.0970114901989834</v>
       </c>
-      <c r="M33" s="315"/>
+      <c r="M33" s="299"/>
       <c r="N33" s="87">
         <f t="shared" si="5"/>
         <v>2602.8360799560714</v>
@@ -10474,26 +10493,26 @@
         <f t="shared" si="0"/>
         <v>1.269406378592723</v>
       </c>
-      <c r="F34" s="224">
+      <c r="F34" s="216">
         <f t="shared" si="1"/>
         <v>4.5545927331589811</v>
       </c>
-      <c r="G34" s="238"/>
-      <c r="H34" s="214">
+      <c r="G34" s="217"/>
+      <c r="H34" s="235">
         <f t="shared" si="2"/>
         <v>4.5319330678198817</v>
       </c>
-      <c r="I34" s="239"/>
-      <c r="J34" s="214">
+      <c r="I34" s="282"/>
+      <c r="J34" s="235">
         <f t="shared" si="3"/>
         <v>4.1199391525635285</v>
       </c>
-      <c r="K34" s="215"/>
-      <c r="L34" s="242">
+      <c r="K34" s="236"/>
+      <c r="L34" s="234">
         <f t="shared" si="4"/>
         <v>2.1683890276650151</v>
       </c>
-      <c r="M34" s="243"/>
+      <c r="M34" s="274"/>
       <c r="N34" s="32">
         <f t="shared" si="5"/>
         <v>2691.4307446411826</v>
@@ -10509,26 +10528,26 @@
         <f t="shared" si="0"/>
         <v>1.1162541665631174</v>
       </c>
-      <c r="F35" s="224">
+      <c r="F35" s="216">
         <f t="shared" si="1"/>
         <v>4.6909319237597966</v>
       </c>
-      <c r="G35" s="238"/>
-      <c r="H35" s="214">
+      <c r="G35" s="217"/>
+      <c r="H35" s="235">
         <f t="shared" si="2"/>
         <v>4.6675939539898472</v>
       </c>
-      <c r="I35" s="239"/>
-      <c r="J35" s="214">
+      <c r="I35" s="282"/>
+      <c r="J35" s="235">
         <f t="shared" si="3"/>
         <v>4.2432672308998614</v>
       </c>
-      <c r="K35" s="215"/>
-      <c r="L35" s="242">
+      <c r="K35" s="236"/>
+      <c r="L35" s="234">
         <f t="shared" si="4"/>
         <v>2.2332985425788743</v>
       </c>
-      <c r="M35" s="243"/>
+      <c r="M35" s="274"/>
       <c r="N35" s="32">
         <f t="shared" si="5"/>
         <v>2771.9972213342635</v>
@@ -10544,26 +10563,26 @@
         <f t="shared" si="0"/>
         <v>0.9849688495932919</v>
       </c>
-      <c r="F36" s="224">
+      <c r="F36" s="216">
         <f t="shared" si="1"/>
         <v>4.8144734148054074</v>
       </c>
-      <c r="G36" s="238"/>
-      <c r="H36" s="214">
+      <c r="G36" s="217"/>
+      <c r="H36" s="235">
         <f t="shared" si="2"/>
         <v>4.7905208107516488</v>
       </c>
-      <c r="I36" s="239"/>
-      <c r="J36" s="214">
+      <c r="I36" s="282"/>
+      <c r="J36" s="235">
         <f t="shared" si="3"/>
         <v>4.3550189188651354</v>
       </c>
-      <c r="K36" s="215"/>
-      <c r="L36" s="242">
+      <c r="K36" s="236"/>
+      <c r="L36" s="234">
         <f t="shared" si="4"/>
         <v>2.2921152204553343</v>
       </c>
-      <c r="M36" s="243"/>
+      <c r="M36" s="274"/>
       <c r="N36" s="32">
         <f t="shared" si="5"/>
         <v>2845.0011948439546</v>
@@ -10579,26 +10598,26 @@
         <f t="shared" si="0"/>
         <v>0.87200601488917528</v>
       </c>
-      <c r="F37" s="224">
+      <c r="F37" s="216">
         <f t="shared" si="1"/>
         <v>4.9261022927012821</v>
       </c>
-      <c r="G37" s="238"/>
-      <c r="H37" s="214">
+      <c r="G37" s="217"/>
+      <c r="H37" s="235">
         <f t="shared" si="2"/>
         <v>4.9015943210958035</v>
       </c>
-      <c r="I37" s="239"/>
-      <c r="J37" s="214">
+      <c r="I37" s="282"/>
+      <c r="J37" s="235">
         <f t="shared" si="3"/>
         <v>4.455994837359821</v>
       </c>
-      <c r="K37" s="215"/>
-      <c r="L37" s="242">
+      <c r="K37" s="236"/>
+      <c r="L37" s="234">
         <f t="shared" si="4"/>
         <v>2.3452604407156952</v>
       </c>
-      <c r="M37" s="243"/>
+      <c r="M37" s="274"/>
       <c r="N37" s="32">
         <f t="shared" si="5"/>
         <v>2910.9656864156022</v>
@@ -10614,26 +10633,26 @@
         <f t="shared" si="0"/>
         <v>0.77445777684075767</v>
       </c>
-      <c r="F38" s="224">
+      <c r="F38" s="216">
         <f t="shared" si="1"/>
         <v>5.0267488208641602</v>
       </c>
-      <c r="G38" s="238"/>
-      <c r="H38" s="214">
+      <c r="G38" s="217"/>
+      <c r="H38" s="235">
         <f t="shared" si="2"/>
         <v>5.0017401202628458</v>
       </c>
-      <c r="I38" s="239"/>
-      <c r="J38" s="214">
+      <c r="I38" s="282"/>
+      <c r="J38" s="235">
         <f t="shared" si="3"/>
         <v>4.5470364729662229</v>
       </c>
-      <c r="K38" s="215"/>
-      <c r="L38" s="242">
+      <c r="K38" s="236"/>
+      <c r="L38" s="234">
         <f t="shared" si="4"/>
         <v>2.393177091034854</v>
       </c>
-      <c r="M38" s="243"/>
+      <c r="M38" s="274"/>
       <c r="N38" s="32">
         <f t="shared" si="5"/>
         <v>2970.4404135996251</v>
@@ -10647,26 +10666,26 @@
         <f t="shared" si="0"/>
         <v>0.68992818874834783</v>
       </c>
-      <c r="F39" s="224">
+      <c r="F39" s="216">
         <f t="shared" si="1"/>
         <v>5.1173491435494967</v>
       </c>
-      <c r="G39" s="238"/>
-      <c r="H39" s="214">
+      <c r="G39" s="217"/>
+      <c r="H39" s="235">
         <f t="shared" si="2"/>
         <v>5.0918896950741264</v>
       </c>
-      <c r="I39" s="239"/>
-      <c r="J39" s="214">
+      <c r="I39" s="282"/>
+      <c r="J39" s="235">
         <f t="shared" si="3"/>
         <v>4.6289906318855696</v>
       </c>
-      <c r="K39" s="215"/>
-      <c r="L39" s="242">
+      <c r="K39" s="236"/>
+      <c r="L39" s="234">
         <f t="shared" si="4"/>
         <v>2.4363108588871416</v>
       </c>
-      <c r="M39" s="243"/>
+      <c r="M39" s="274"/>
       <c r="N39" s="32">
         <f t="shared" si="5"/>
         <v>3023.9785690914341</v>
@@ -10680,26 +10699,26 @@
         <f t="shared" si="0"/>
         <v>0.61643491771497372</v>
       </c>
-      <c r="F40" s="224">
+      <c r="F40" s="216">
         <f t="shared" si="1"/>
         <v>5.1988169286007029</v>
       </c>
-      <c r="G40" s="238"/>
-      <c r="H40" s="214">
+      <c r="G40" s="217"/>
+      <c r="H40" s="235">
         <f t="shared" si="2"/>
         <v>5.1729521677618937</v>
       </c>
-      <c r="I40" s="239"/>
-      <c r="J40" s="214">
+      <c r="I40" s="282"/>
+      <c r="J40" s="235">
         <f t="shared" si="3"/>
         <v>4.7026837888744488</v>
       </c>
-      <c r="K40" s="215"/>
-      <c r="L40" s="242">
+      <c r="K40" s="236"/>
+      <c r="L40" s="234">
         <f t="shared" si="4"/>
         <v>2.4750967309865519</v>
       </c>
-      <c r="M40" s="243"/>
+      <c r="M40" s="274"/>
       <c r="N40" s="32">
         <f t="shared" si="5"/>
         <v>3072.120063673005</v>
@@ -10713,26 +10732,26 @@
         <f t="shared" si="0"/>
         <v>0.55233127421944694</v>
       </c>
-      <c r="F41" s="224">
+      <c r="F41" s="216">
         <f t="shared" si="1"/>
         <v>5.2720240585116676</v>
       </c>
-      <c r="G41" s="238"/>
-      <c r="H41" s="214">
+      <c r="G41" s="217"/>
+      <c r="H41" s="235">
         <f t="shared" si="2"/>
         <v>5.245795083096187</v>
       </c>
-      <c r="I41" s="239"/>
-      <c r="J41" s="214">
+      <c r="I41" s="282"/>
+      <c r="J41" s="235">
         <f t="shared" si="3"/>
         <v>4.7689046209965333</v>
       </c>
-      <c r="K41" s="215"/>
-      <c r="L41" s="242">
+      <c r="K41" s="236"/>
+      <c r="L41" s="234">
         <f t="shared" si="4"/>
         <v>2.5099498005244913</v>
       </c>
-      <c r="M41" s="243"/>
+      <c r="M41" s="274"/>
       <c r="N41" s="32">
         <f t="shared" si="5"/>
         <v>3115.3801160449448</v>
@@ -10746,26 +10765,26 @@
         <f t="shared" si="0"/>
         <v>0.49624409633915206</v>
       </c>
-      <c r="F42" s="224">
+      <c r="F42" s="216">
         <f t="shared" si="1"/>
         <v>5.3377884931871984</v>
       </c>
-      <c r="G42" s="238"/>
-      <c r="H42" s="214">
+      <c r="G42" s="217"/>
+      <c r="H42" s="235">
         <f t="shared" si="2"/>
         <v>5.3112323315295509</v>
       </c>
-      <c r="I42" s="239"/>
-      <c r="J42" s="214">
+      <c r="I42" s="282"/>
+      <c r="J42" s="235">
         <f t="shared" si="3"/>
         <v>4.8283930286632284</v>
       </c>
-      <c r="K42" s="215"/>
-      <c r="L42" s="242">
+      <c r="K42" s="236"/>
+      <c r="L42" s="234">
         <f t="shared" si="4"/>
         <v>2.5412594887701201</v>
       </c>
-      <c r="M42" s="243"/>
+      <c r="M42" s="274"/>
       <c r="N42" s="32">
         <f t="shared" si="5"/>
         <v>3154.2420806067917</v>
@@ -10779,26 +10798,26 @@
         <f t="shared" si="0"/>
         <v>0.44702404336298512</v>
       </c>
-      <c r="F43" s="236">
+      <c r="F43" s="210">
         <f t="shared" si="1"/>
         <v>5.3968676053863689</v>
       </c>
-      <c r="G43" s="240"/>
-      <c r="H43" s="214">
+      <c r="G43" s="211"/>
+      <c r="H43" s="235">
         <f t="shared" si="2"/>
         <v>5.3700175177973817</v>
       </c>
-      <c r="I43" s="239"/>
-      <c r="J43" s="214">
+      <c r="I43" s="282"/>
+      <c r="J43" s="235">
         <f t="shared" si="3"/>
         <v>4.8818341070885287</v>
       </c>
-      <c r="K43" s="215"/>
-      <c r="L43" s="271">
+      <c r="K43" s="236"/>
+      <c r="L43" s="258">
         <f t="shared" si="4"/>
         <v>2.5693863721518571</v>
       </c>
-      <c r="M43" s="316"/>
+      <c r="M43" s="292"/>
       <c r="N43" s="32">
         <f t="shared" si="5"/>
         <v>3189.1535091921232</v>
@@ -10806,6 +10825,108 @@
     </row>
   </sheetData>
   <mergeCells count="118">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="J42:K42"/>
@@ -10822,108 +10943,6 @@
     <mergeCell ref="H41:I41"/>
     <mergeCell ref="J41:K41"/>
     <mergeCell ref="L41:M41"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12552,10 +12571,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:K10"/>
+  <dimension ref="C4:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12763,9 +12782,22 @@
         <v>395</v>
       </c>
     </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C16" s="329" t="s">
+        <v>399</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C16" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId2"/>
 </worksheet>
 </file>